--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E9BC8B-7027-4E97-AAF7-A2218C3E8942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A245DB3-A7E5-483E-A73A-C2F8AF0B47DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder Error" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Number of measurments</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Cycles Begin</t>
   </si>
   <si>
-    <t>(1/72000000) * (36193-433)</t>
-  </si>
-  <si>
     <t>Angle Calc</t>
   </si>
   <si>
@@ -189,6 +186,18 @@
   </si>
   <si>
     <t>Vel</t>
+  </si>
+  <si>
+    <t>CORDIC</t>
+  </si>
+  <si>
+    <t>libfixmath</t>
+  </si>
+  <si>
+    <t>atan2 dobule</t>
+  </si>
+  <si>
+    <t>atan2 float</t>
   </si>
 </sst>
 </file>
@@ -630,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:H607"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" zoomScale="163" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A194" zoomScale="163" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
@@ -15703,7 +15712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11AFDFB-30EA-4EFD-BE21-A5C5DCB81B95}">
   <dimension ref="B2:Z147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="125" workbookViewId="0">
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
@@ -20357,19 +20366,19 @@
         <v>0.01</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L106" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N106" t="s">
         <v>49</v>
-      </c>
-      <c r="N106" t="s">
-        <v>50</v>
       </c>
       <c r="U106" s="9"/>
       <c r="V106" s="9"/>
@@ -20388,57 +20397,57 @@
         <v>14</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J107" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L107" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K107" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L107" s="5" t="s">
+      <c r="M107" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M107" s="5" t="s">
+      <c r="N107" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="N107" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="Q107" s="5" t="s">
         <v>15</v>
       </c>
       <c r="R107" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S107" s="5" t="s">
         <v>13</v>
       </c>
       <c r="T107" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U107" s="5" t="s">
         <v>12</v>
       </c>
       <c r="V107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W107" s="5" t="s">
         <v>14</v>
       </c>
       <c r="X107" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y107" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z107" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="Y107" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z107" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="6">
@@ -20763,7 +20772,7 @@
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D112">
         <v>4</v>
@@ -21050,19 +21059,19 @@
         <v>13</v>
       </c>
       <c r="T115" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U115" s="5" t="s">
         <v>12</v>
       </c>
       <c r="V115" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W115" s="5" t="s">
         <v>14</v>
       </c>
       <c r="X115" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="2:26" x14ac:dyDescent="0.25">
@@ -21208,7 +21217,7 @@
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C118">
         <f>H118-H108</f>
@@ -21272,7 +21281,7 @@
     </row>
     <row r="119" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C119">
         <f>C118/C113</f>
@@ -21336,7 +21345,7 @@
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C120">
         <f>(E117-E108)/C119</f>
@@ -21737,10 +21746,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1AC376-52B3-4B27-BBC6-391D349B9994}">
-  <dimension ref="F2:K13"/>
+  <dimension ref="F4:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21752,11 +21761,6 @@
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F4" s="11" t="s">
         <v>25</v>
@@ -21780,85 +21784,109 @@
     </row>
     <row r="7" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>433</v>
+        <v>7424</v>
       </c>
       <c r="H7">
-        <v>36193</v>
+        <v>10098</v>
       </c>
       <c r="I7">
         <f t="shared" ref="I7:I13" si="0">(1/$H$4) *(H7-G7)</f>
-        <v>4.9666666666666663E-4</v>
+        <v>3.7138888888888889E-5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G8">
-        <v>37426</v>
+        <v>15957</v>
       </c>
       <c r="H8">
-        <v>38213</v>
+        <v>16697</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>1.0930555555555556E-5</v>
+        <v>1.0277777777777777E-5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G9">
-        <v>434</v>
+        <v>9304</v>
       </c>
       <c r="H9">
-        <v>4752</v>
+        <v>14842</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>5.9972222222222219E-5</v>
+        <v>7.6916666666666662E-5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>30</v>
+      <c r="G10">
+        <v>14842</v>
       </c>
       <c r="H10">
-        <v>271</v>
+        <v>15957</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>3.7638888888888887E-6</v>
+        <f>(1/$H$4) *(H10-G10)</f>
+        <v>1.548611111111111E-5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11">
+        <v>271</v>
+      </c>
+      <c r="I11">
+        <f>(1/$H$4) *(H11-G11)</f>
+        <v>3.7638888888888887E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12">
         <v>315</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
+      <c r="I12" s="4">
+        <f>(1/$H$4) *(H12-G12)</f>
         <v>4.3749999999999996E-6</v>
       </c>
     </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="H12">
+    <row r="13" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="H13">
         <v>353</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
+      <c r="I13">
+        <f>(1/$H$4) *(H13-G13)</f>
         <v>4.9027777777777779E-6</v>
       </c>
     </row>
-    <row r="13" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13">
+    <row r="14" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14">
         <v>862</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
+      <c r="I14">
+        <f>(1/$H$4) *(H14-G14)</f>
         <v>1.1972222222222221E-5</v>
       </c>
     </row>

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A245DB3-A7E5-483E-A73A-C2F8AF0B47DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD002C-5460-4E16-9506-6244E147295C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Number of measurments</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>atan2 float</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>Time in secs</t>
   </si>
 </sst>
 </file>
@@ -21749,7 +21758,7 @@
   <dimension ref="F4:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21758,6 +21767,7 @@
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21777,9 +21787,14 @@
       <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="K6">
-        <f>(10+(9*2*2)+1)*2 * (1/400000)</f>
-        <v>2.3500000000000002E-4</v>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="6:11" x14ac:dyDescent="0.25">
@@ -21793,7 +21808,11 @@
         <v>10098</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I13" si="0">(1/$H$4) *(H7-G7)</f>
+        <f>H7-G7</f>
+        <v>2674</v>
+      </c>
+      <c r="J7">
+        <f>(1/$H$4) *(H7-G7)</f>
         <v>3.7138888888888889E-5</v>
       </c>
       <c r="K7" t="s">
@@ -21808,7 +21827,11 @@
         <v>16697</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I8:I14" si="0">H8-G8</f>
+        <v>740</v>
+      </c>
+      <c r="J8">
+        <f>(1/$H$4) *(H8-G8)</f>
         <v>1.0277777777777777E-5</v>
       </c>
       <c r="K8" t="s">
@@ -21824,6 +21847,10 @@
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
+        <v>5538</v>
+      </c>
+      <c r="J9">
+        <f>(1/$H$4) *(H9-G9)</f>
         <v>7.6916666666666662E-5</v>
       </c>
       <c r="K9" t="s">
@@ -21838,6 +21865,10 @@
         <v>15957</v>
       </c>
       <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1115</v>
+      </c>
+      <c r="J10">
         <f>(1/$H$4) *(H10-G10)</f>
         <v>1.548611111111111E-5</v>
       </c>
@@ -21853,6 +21884,10 @@
         <v>271</v>
       </c>
       <c r="I11">
+        <f t="shared" si="0"/>
+        <v>271</v>
+      </c>
+      <c r="J11">
         <f>(1/$H$4) *(H11-G11)</f>
         <v>3.7638888888888887E-6</v>
       </c>
@@ -21864,7 +21899,11 @@
       <c r="H12">
         <v>315</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="J12" s="4">
         <f>(1/$H$4) *(H12-G12)</f>
         <v>4.3749999999999996E-6</v>
       </c>
@@ -21874,6 +21913,10 @@
         <v>353</v>
       </c>
       <c r="I13">
+        <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
+      <c r="J13">
         <f>(1/$H$4) *(H13-G13)</f>
         <v>4.9027777777777779E-6</v>
       </c>
@@ -21886,6 +21929,10 @@
         <v>862</v>
       </c>
       <c r="I14">
+        <f t="shared" si="0"/>
+        <v>862</v>
+      </c>
+      <c r="J14">
         <f>(1/$H$4) *(H14-G14)</f>
         <v>1.1972222222222221E-5</v>
       </c>

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD002C-5460-4E16-9506-6244E147295C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE70884-7768-420E-AABF-8F5596938B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Number of measurments</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Vel</t>
   </si>
   <si>
-    <t>CORDIC</t>
-  </si>
-  <si>
     <t>libfixmath</t>
   </si>
   <si>
@@ -207,6 +204,24 @@
   </si>
   <si>
     <t>Time in secs</t>
+  </si>
+  <si>
+    <t>arcCosCordic</t>
+  </si>
+  <si>
+    <t>sqrtf</t>
+  </si>
+  <si>
+    <t>sqrt</t>
+  </si>
+  <si>
+    <t>arcCos</t>
+  </si>
+  <si>
+    <t>arcCos float</t>
+  </si>
+  <si>
+    <t>atan2 cordic</t>
   </si>
 </sst>
 </file>
@@ -21755,10 +21770,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1AC376-52B3-4B27-BBC6-391D349B9994}">
-  <dimension ref="F4:K14"/>
+  <dimension ref="F4:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21788,13 +21803,13 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
         <v>56</v>
       </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="6:11" x14ac:dyDescent="0.25">
@@ -21812,11 +21827,11 @@
         <v>2674</v>
       </c>
       <c r="J7">
-        <f>(1/$H$4) *(H7-G7)</f>
+        <f t="shared" ref="J7:J10" si="0">(1/$H$4) *(H7-G7)</f>
         <v>3.7138888888888889E-5</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="6:11" x14ac:dyDescent="0.25">
@@ -21827,15 +21842,15 @@
         <v>16697</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I14" si="0">H8-G8</f>
+        <f t="shared" ref="I8:I10" si="1">H8-G8</f>
         <v>740</v>
       </c>
       <c r="J8">
-        <f>(1/$H$4) *(H8-G8)</f>
+        <f t="shared" si="0"/>
         <v>1.0277777777777777E-5</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="6:11" x14ac:dyDescent="0.25">
@@ -21846,15 +21861,15 @@
         <v>14842</v>
       </c>
       <c r="I9">
+        <f t="shared" si="1"/>
+        <v>5538</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
-        <v>5538</v>
-      </c>
-      <c r="J9">
-        <f>(1/$H$4) *(H9-G9)</f>
         <v>7.6916666666666662E-5</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="6:11" x14ac:dyDescent="0.25">
@@ -21865,75 +21880,170 @@
         <v>15957</v>
       </c>
       <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1115</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
-        <v>1115</v>
-      </c>
-      <c r="J10">
-        <f>(1/$H$4) *(H10-G10)</f>
         <v>1.548611111111111E-5</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+      <c r="G11">
+        <v>10194</v>
+      </c>
+      <c r="H11">
+        <v>54009</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11" si="2">H11-G11</f>
+        <v>43815</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11" si="3">(1/$H$4) *(H11-G11)</f>
+        <v>6.0854166666666663E-4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>4857</v>
+      </c>
+      <c r="H12">
+        <v>6415</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I13" si="4">H12-G12</f>
+        <v>1558</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J13" si="5">(1/$H$4) *(H12-G12)</f>
+        <v>2.1638888888888888E-5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>4176</v>
+      </c>
+      <c r="H13">
+        <v>6955</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>2779</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>3.8597222222222222E-5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>14313</v>
+      </c>
+      <c r="H14">
+        <v>21122</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14" si="6">H14-G14</f>
+        <v>6809</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="7">(1/$H$4) *(H14-G14)</f>
+        <v>9.4569444444444445E-5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>237</v>
+      </c>
+      <c r="H15">
+        <v>3582</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15" si="8">H15-G15</f>
+        <v>3345</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15" si="9">(1/$H$4) *(H15-G15)</f>
+        <v>4.6458333333333335E-5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>29</v>
       </c>
-      <c r="H11">
+      <c r="H16">
         <v>271</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
+      <c r="I16">
+        <f>H16-G16</f>
         <v>271</v>
       </c>
-      <c r="J11">
-        <f>(1/$H$4) *(H11-G11)</f>
+      <c r="J16">
+        <f>(1/$H$4) *(H16-G16)</f>
         <v>3.7638888888888887E-6</v>
       </c>
     </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
         <v>30</v>
       </c>
-      <c r="H12">
+      <c r="H17">
         <v>315</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
+      <c r="I17">
+        <f>H17-G17</f>
         <v>315</v>
       </c>
-      <c r="J12" s="4">
-        <f>(1/$H$4) *(H12-G12)</f>
+      <c r="J17" s="4">
+        <f>(1/$H$4) *(H17-G17)</f>
         <v>4.3749999999999996E-6</v>
       </c>
     </row>
-    <row r="13" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="H13">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="H18">
         <v>353</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
+      <c r="I18">
+        <f>H18-G18</f>
         <v>353</v>
       </c>
-      <c r="J13">
-        <f>(1/$H$4) *(H13-G13)</f>
+      <c r="J18">
+        <f>(1/$H$4) *(H18-G18)</f>
         <v>4.9027777777777779E-6</v>
       </c>
     </row>
-    <row r="14" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
         <v>30</v>
       </c>
-      <c r="H14">
+      <c r="H19">
         <v>862</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
+      <c r="I19">
+        <f>H19-G19</f>
         <v>862</v>
       </c>
-      <c r="J14">
-        <f>(1/$H$4) *(H14-G14)</f>
+      <c r="J19">
+        <f>(1/$H$4) *(H19-G19)</f>
         <v>1.1972222222222221E-5</v>
       </c>
     </row>

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58E7C0B-743B-4A5C-8690-DC19FE13FE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475ED9F6-7CDA-4839-AF24-8F6960D60E15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder Error" sheetId="1" r:id="rId1"/>
@@ -663,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:H607"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="163" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" activeCellId="1" sqref="F6 F5"/>
     </sheetView>
   </sheetViews>
@@ -15736,7 +15736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11AFDFB-30EA-4EFD-BE21-A5C5DCB81B95}">
   <dimension ref="B2:Z147"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="125" workbookViewId="0">
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
@@ -20478,7 +20478,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" s="7">
         <f>$C$106+($I$2*D108)</f>
@@ -20486,22 +20486,22 @@
       </c>
       <c r="G108" s="7">
         <f>COS(RADIANS(E108))*F108</f>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H108" s="7">
         <f t="shared" ref="H108:H123" si="45">SIN(RADIANS(E108))*F108</f>
-        <v>1.7452406437283512E-4</v>
+        <v>0</v>
       </c>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="M108" s="5"/>
       <c r="Q108" s="7">
         <f t="shared" ref="Q108:Q113" si="46">E108</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R108" s="6">
         <f t="shared" ref="R108:R113" si="47">DEGREES(ACOS(V108/T108))</f>
-        <v>0.99999999999989964</v>
+        <v>0</v>
       </c>
       <c r="S108" s="6">
         <f>C106</f>
@@ -20512,19 +20512,19 @@
       </c>
       <c r="U108" s="6">
         <f t="shared" ref="U108:U113" si="48">COS(RADIANS(Q108))*S108</f>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="V108" s="6">
         <f t="shared" ref="V108:V113" si="49">SQRT(POWER(T108,2)-POWER(X108,2))</f>
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="W108" s="6">
         <f t="shared" ref="W108:W113" si="50">SIN(RADIANS(Q108))*S108</f>
-        <v>1.7452406437283512E-4</v>
+        <v>0</v>
       </c>
       <c r="X108" s="6">
         <f t="shared" ref="X108:X113" si="51">SIN(RADIANS(Q108))*T108</f>
-        <v>1.7452406437283512E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.25">
@@ -20533,7 +20533,7 @@
       </c>
       <c r="E109">
         <f t="shared" ref="E109:E123" si="52">DEGREES(ACOS(G109/F109) )</f>
-        <v>41.741599484435305</v>
+        <v>41.731817039793761</v>
       </c>
       <c r="F109" s="5">
         <f t="shared" ref="F109:F123" si="53">$C$106+($I$2*D109)</f>
@@ -20541,27 +20541,27 @@
       </c>
       <c r="G109" s="5">
         <f>G108</f>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H109" s="5">
         <f t="shared" si="45"/>
-        <v>8.9213484770546431E-3</v>
+        <v>8.9196412483911035E-3</v>
       </c>
       <c r="I109">
         <f>E109-E108</f>
-        <v>40.741599484435305</v>
+        <v>41.731817039793761</v>
       </c>
       <c r="J109">
         <f t="shared" ref="J109:J123" si="54">H109-H108</f>
-        <v>8.7468244126818074E-3</v>
+        <v>8.9196412483911035E-3</v>
       </c>
       <c r="K109">
         <f>J109/$C$113</f>
-        <v>2.1867061031704518E-3</v>
+        <v>1.4866068747318507E-3</v>
       </c>
       <c r="L109">
         <f>(E109-E108)/K109</f>
-        <v>18631.493013791405</v>
+        <v>28071.857966700987</v>
       </c>
       <c r="M109">
         <f t="shared" ref="M109:M117" si="55">IF(L109&gt;2000,2000,L109)</f>
@@ -20569,19 +20569,19 @@
       </c>
       <c r="N109">
         <f t="shared" ref="N109:N117" si="56">M109*K109</f>
-        <v>4.3734122063409036</v>
+        <v>2.9732137494637012</v>
       </c>
       <c r="O109">
         <f>E108+N109</f>
-        <v>5.3734122063409036</v>
+        <v>2.9732137494637012</v>
       </c>
       <c r="Q109" s="5">
         <f t="shared" si="46"/>
-        <v>41.741599484435305</v>
+        <v>41.731817039793761</v>
       </c>
       <c r="R109">
         <f t="shared" si="47"/>
-        <v>41.741599484435312</v>
+        <v>41.731817039793768</v>
       </c>
       <c r="S109">
         <f>S108+$I$2</f>
@@ -20593,27 +20593,27 @@
       </c>
       <c r="U109">
         <f t="shared" si="48"/>
-        <v>9.9984769515639154E-3</v>
+        <v>0.01</v>
       </c>
       <c r="V109">
         <f t="shared" si="49"/>
-        <v>0.74869192337307688</v>
+        <v>0.74880597014925376</v>
       </c>
       <c r="W109">
         <f t="shared" si="50"/>
-        <v>8.9213484770546431E-3</v>
+        <v>8.9196412483911035E-3</v>
       </c>
       <c r="X109" s="8">
         <f>SIN(RADIANS(Q109))*T109</f>
-        <v>0.66803590014004699</v>
+        <v>0.66790806183848006</v>
       </c>
       <c r="Y109">
         <f t="shared" ref="Y109:Z113" si="57">W109-W108</f>
-        <v>8.7468244126818074E-3</v>
+        <v>8.9196412483911035E-3</v>
       </c>
       <c r="Z109">
         <f>X109-X108</f>
-        <v>0.65058349370276347</v>
+        <v>0.66790806183848006</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.25">
@@ -20622,7 +20622,7 @@
       </c>
       <c r="E110">
         <f t="shared" si="52"/>
-        <v>53.476856695853826</v>
+        <v>53.470392770264972</v>
       </c>
       <c r="F110" s="5">
         <f t="shared" si="53"/>
@@ -20630,27 +20630,27 @@
       </c>
       <c r="G110" s="5">
         <f>G109</f>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H110" s="5">
         <f t="shared" si="45"/>
-        <v>1.3500757706478742E-2</v>
+        <v>1.3499629624548964E-2</v>
       </c>
       <c r="I110">
         <f t="shared" ref="I110:I122" si="58">E110-E109</f>
-        <v>11.735257211418521</v>
+        <v>11.738575730471212</v>
       </c>
       <c r="J110">
         <f t="shared" si="54"/>
-        <v>4.5794092294240991E-3</v>
+        <v>4.5799883761578602E-3</v>
       </c>
       <c r="K110">
         <f t="shared" ref="K110:K117" si="59">J110/$C$113</f>
-        <v>1.1448523073560248E-3</v>
+        <v>7.6333139602631007E-4</v>
       </c>
       <c r="L110">
         <f t="shared" ref="L110:L117" si="60">(E110-E109)/K110</f>
-        <v>10250.455133833349</v>
+        <v>15378.085837395078</v>
       </c>
       <c r="M110">
         <f t="shared" si="55"/>
@@ -20658,19 +20658,19 @@
       </c>
       <c r="N110">
         <f t="shared" si="56"/>
-        <v>2.2897046147120497</v>
+        <v>1.5266627920526201</v>
       </c>
       <c r="O110">
         <f t="shared" ref="O110:O117" si="61">O109+N110</f>
-        <v>7.6631168210529532</v>
+        <v>4.4998765415163211</v>
       </c>
       <c r="Q110" s="5">
         <f t="shared" si="46"/>
-        <v>53.476856695853826</v>
+        <v>53.470392770264972</v>
       </c>
       <c r="R110">
         <f t="shared" si="47"/>
-        <v>53.476856695853819</v>
+        <v>53.470392770264972</v>
       </c>
       <c r="S110">
         <f>S109+$I$2</f>
@@ -20682,27 +20682,27 @@
       </c>
       <c r="U110">
         <f t="shared" si="48"/>
-        <v>9.9984769515639171E-3</v>
+        <v>9.9999999999999967E-3</v>
       </c>
       <c r="V110">
         <f t="shared" si="49"/>
-        <v>0.59919444016872336</v>
+        <v>0.59928571428571431</v>
       </c>
       <c r="W110">
         <f t="shared" si="50"/>
-        <v>1.3500757706478742E-2</v>
+        <v>1.3499629624548964E-2</v>
       </c>
       <c r="X110" s="8">
         <f>SIN(RADIANS(Q110))*T110</f>
-        <v>0.8090811225525476</v>
+        <v>0.80901351821404166</v>
       </c>
       <c r="Y110">
         <f t="shared" si="57"/>
-        <v>4.5794092294240991E-3</v>
+        <v>4.5799883761578602E-3</v>
       </c>
       <c r="Z110">
         <f t="shared" si="57"/>
-        <v>0.14104522241250061</v>
+        <v>0.1411054563755616</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.25">
@@ -20711,7 +20711,7 @@
       </c>
       <c r="E111">
         <f t="shared" si="52"/>
-        <v>60.331957093742055</v>
+        <v>60.326985197525957</v>
       </c>
       <c r="F111" s="5">
         <f t="shared" si="53"/>
@@ -20719,27 +20719,27 @@
       </c>
       <c r="G111" s="5">
         <f t="shared" ref="G111:G117" si="62">G110</f>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H111" s="5">
         <f t="shared" si="45"/>
-        <v>1.7551936037059991E-2</v>
+        <v>1.7551068343551055E-2</v>
       </c>
       <c r="I111">
         <f t="shared" si="58"/>
-        <v>6.8551003978882292</v>
+        <v>6.8565924272609848</v>
       </c>
       <c r="J111">
         <f t="shared" si="54"/>
-        <v>4.0511783305812489E-3</v>
+        <v>4.0514387190020915E-3</v>
       </c>
       <c r="K111">
         <f t="shared" si="59"/>
-        <v>1.0127945826453122E-3</v>
+        <v>6.7523978650034858E-4</v>
       </c>
       <c r="L111">
         <f t="shared" si="60"/>
-        <v>6768.5002619024999</v>
+        <v>10154.307498374053</v>
       </c>
       <c r="M111">
         <f t="shared" si="55"/>
@@ -20747,19 +20747,19 @@
       </c>
       <c r="N111">
         <f t="shared" si="56"/>
-        <v>2.0255891652906244</v>
+        <v>1.3504795730006971</v>
       </c>
       <c r="O111">
         <f t="shared" si="61"/>
-        <v>9.688705986343578</v>
+        <v>5.8503561145170178</v>
       </c>
       <c r="Q111" s="5">
         <f t="shared" si="46"/>
-        <v>60.331957093742055</v>
+        <v>60.326985197525957</v>
       </c>
       <c r="R111">
         <f t="shared" si="47"/>
-        <v>60.331957093742055</v>
+        <v>60.326985197525943</v>
       </c>
       <c r="S111">
         <f>S110+$I$2</f>
@@ -20771,27 +20771,27 @@
       </c>
       <c r="U111">
         <f t="shared" si="48"/>
-        <v>9.9984769515639154E-3</v>
+        <v>0.01</v>
       </c>
       <c r="V111">
         <f t="shared" si="49"/>
-        <v>0.50002284239949846</v>
+        <v>0.50009900990099032</v>
       </c>
       <c r="W111">
         <f t="shared" si="50"/>
-        <v>1.7551936037059991E-2</v>
+        <v>1.7551068343551055E-2</v>
       </c>
       <c r="X111" s="8">
         <f t="shared" si="51"/>
-        <v>0.87777058339792113</v>
+        <v>0.87772719013144951</v>
       </c>
       <c r="Y111">
         <f t="shared" si="57"/>
-        <v>4.0511783305812489E-3</v>
+        <v>4.0514387190020915E-3</v>
       </c>
       <c r="Z111">
         <f t="shared" si="57"/>
-        <v>6.8689460845373529E-2</v>
+        <v>6.8713671917407848E-2</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.25">
@@ -20803,7 +20803,7 @@
       </c>
       <c r="E112">
         <f t="shared" si="52"/>
-        <v>64.933854210608033</v>
+        <v>64.929772050657689</v>
       </c>
       <c r="F112" s="5">
         <f t="shared" si="53"/>
@@ -20811,27 +20811,27 @@
       </c>
       <c r="G112" s="5">
         <f t="shared" si="62"/>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H112" s="5">
         <f t="shared" si="45"/>
-        <v>2.1377335162480967E-2</v>
+        <v>2.1376622745419821E-2</v>
       </c>
       <c r="I112">
         <f t="shared" si="58"/>
-        <v>4.6018971168659775</v>
+        <v>4.6027868531317324</v>
       </c>
       <c r="J112">
         <f t="shared" si="54"/>
-        <v>3.8253991254209758E-3</v>
+        <v>3.8255544018687658E-3</v>
       </c>
       <c r="K112">
         <f t="shared" si="59"/>
-        <v>9.5634978135524396E-4</v>
+        <v>6.3759240031146093E-4</v>
       </c>
       <c r="L112">
         <f t="shared" si="60"/>
-        <v>4811.9393203024792</v>
+        <v>7219.0114732912316</v>
       </c>
       <c r="M112">
         <f t="shared" si="55"/>
@@ -20839,19 +20839,19 @@
       </c>
       <c r="N112">
         <f t="shared" si="56"/>
-        <v>1.9126995627104879</v>
+        <v>1.2751848006229218</v>
       </c>
       <c r="O112">
         <f t="shared" si="61"/>
-        <v>11.601405549054066</v>
+        <v>7.1255409151399398</v>
       </c>
       <c r="Q112" s="5">
         <f t="shared" si="46"/>
-        <v>64.933854210608033</v>
+        <v>64.929772050657689</v>
       </c>
       <c r="R112">
         <f t="shared" si="47"/>
-        <v>64.933854210608018</v>
+        <v>64.929772050657704</v>
       </c>
       <c r="S112">
         <f>S111+$I$2</f>
@@ -20863,39 +20863,39 @@
       </c>
       <c r="U112">
         <f t="shared" si="48"/>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="V112">
         <f t="shared" si="49"/>
-        <v>0.42942611178411816</v>
+        <v>0.4294915254237287</v>
       </c>
       <c r="W112">
         <f t="shared" si="50"/>
-        <v>2.1377335162480967E-2</v>
+        <v>2.1376622745419821E-2</v>
       </c>
       <c r="X112" s="8">
         <f t="shared" si="51"/>
-        <v>0.91813842884282681</v>
+        <v>0.91810783113379391</v>
       </c>
       <c r="Y112">
         <f t="shared" si="57"/>
-        <v>3.8253991254209758E-3</v>
+        <v>3.8255544018687658E-3</v>
       </c>
       <c r="Z112">
         <f t="shared" si="57"/>
-        <v>4.0367845444905681E-2</v>
+        <v>4.0380641002344397E-2</v>
       </c>
     </row>
     <row r="113" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C113">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D113">
         <v>5</v>
       </c>
       <c r="E113">
         <f>DEGREES(ACOS(G113/F113) )</f>
-        <v>68.265018619759658</v>
+        <v>68.261539208479505</v>
       </c>
       <c r="F113" s="5">
         <f t="shared" si="53"/>
@@ -20903,27 +20903,27 @@
       </c>
       <c r="G113" s="5">
         <f t="shared" si="62"/>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H113" s="5">
         <f t="shared" si="45"/>
-        <v>2.5080479633552564E-2</v>
+        <v>2.5079872407968898E-2</v>
       </c>
       <c r="I113">
         <f t="shared" si="58"/>
-        <v>3.3311644091516257</v>
+        <v>3.3317671578218153</v>
       </c>
       <c r="J113">
         <f t="shared" si="54"/>
-        <v>3.7031444710715969E-3</v>
+        <v>3.7032496625490768E-3</v>
       </c>
       <c r="K113">
         <f t="shared" si="59"/>
-        <v>9.2578611776789922E-4</v>
+        <v>6.1720827709151277E-4</v>
       </c>
       <c r="L113">
         <f t="shared" si="60"/>
-        <v>3598.2008643456143</v>
+        <v>5398.1245577622385</v>
       </c>
       <c r="M113">
         <f t="shared" si="55"/>
@@ -20931,19 +20931,19 @@
       </c>
       <c r="N113">
         <f t="shared" si="56"/>
-        <v>1.8515722355357984</v>
+        <v>1.2344165541830256</v>
       </c>
       <c r="O113">
         <f t="shared" si="61"/>
-        <v>13.452977784589864</v>
+        <v>8.3599574693229659</v>
       </c>
       <c r="Q113" s="5">
         <f t="shared" si="46"/>
-        <v>68.265018619759658</v>
+        <v>68.261539208479505</v>
       </c>
       <c r="R113">
         <f t="shared" si="47"/>
-        <v>68.265018619759658</v>
+        <v>68.261539208479505</v>
       </c>
       <c r="S113">
         <f>S112+$I$2</f>
@@ -20955,27 +20955,27 @@
       </c>
       <c r="U113">
         <f t="shared" si="48"/>
-        <v>9.9984769515639154E-3</v>
+        <v>1.0000000000000005E-2</v>
       </c>
       <c r="V113">
         <f t="shared" si="49"/>
-        <v>0.37660929850890773</v>
+        <v>0.37666666666666693</v>
       </c>
       <c r="W113">
         <f t="shared" si="50"/>
-        <v>2.5080479633552567E-2</v>
+        <v>2.5079872407968901E-2</v>
       </c>
       <c r="X113" s="8">
         <f t="shared" si="51"/>
-        <v>0.94469806619714702</v>
+        <v>0.94467519403349565</v>
       </c>
       <c r="Y113">
         <f t="shared" si="57"/>
-        <v>3.7031444710716004E-3</v>
+        <v>3.7032496625490803E-3</v>
       </c>
       <c r="Z113">
         <f t="shared" si="57"/>
-        <v>2.6559637354320209E-2</v>
+        <v>2.6567362899701741E-2</v>
       </c>
     </row>
     <row r="114" spans="2:26" x14ac:dyDescent="0.25">
@@ -20984,7 +20984,7 @@
       </c>
       <c r="E114">
         <f t="shared" si="52"/>
-        <v>70.798142173789529</v>
+        <v>70.795102502870591</v>
       </c>
       <c r="F114" s="5">
         <f t="shared" si="53"/>
@@ -20992,27 +20992,27 @@
       </c>
       <c r="G114" s="5">
         <f t="shared" si="62"/>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H114" s="5">
         <f t="shared" si="45"/>
-        <v>2.8708717467853643E-2</v>
+        <v>2.8708186985596976E-2</v>
       </c>
       <c r="I114">
         <f t="shared" si="58"/>
-        <v>2.5331235540298707</v>
+        <v>2.5335632943910866</v>
       </c>
       <c r="J114">
         <f t="shared" si="54"/>
-        <v>3.628237834301079E-3</v>
+        <v>3.6283145776280779E-3</v>
       </c>
       <c r="K114">
         <f t="shared" si="59"/>
-        <v>9.0705945857526976E-4</v>
+        <v>6.0471909627134634E-4</v>
       </c>
       <c r="L114">
         <f t="shared" si="60"/>
-        <v>2792.6764117632169</v>
+        <v>4189.6531960258117</v>
       </c>
       <c r="M114">
         <f t="shared" si="55"/>
@@ -21020,11 +21020,11 @@
       </c>
       <c r="N114">
         <f t="shared" si="56"/>
-        <v>1.8141189171505396</v>
+        <v>1.2094381925426927</v>
       </c>
       <c r="O114">
         <f t="shared" si="61"/>
-        <v>15.267096701740403</v>
+        <v>9.5693956618656593</v>
       </c>
     </row>
     <row r="115" spans="2:26" x14ac:dyDescent="0.25">
@@ -21033,7 +21033,7 @@
       </c>
       <c r="E115">
         <f t="shared" si="52"/>
-        <v>72.79370953906961</v>
+        <v>72.791006778084139</v>
       </c>
       <c r="F115" s="5">
         <f t="shared" si="53"/>
@@ -21041,27 +21041,27 @@
       </c>
       <c r="G115" s="5">
         <f t="shared" si="62"/>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H115" s="5">
         <f t="shared" si="45"/>
-        <v>3.2287311108995201E-2</v>
+        <v>3.2286839424136883E-2</v>
       </c>
       <c r="I115">
         <f t="shared" si="58"/>
-        <v>1.9955673652800812</v>
+        <v>1.9959042752135474</v>
       </c>
       <c r="J115">
         <f t="shared" si="54"/>
-        <v>3.578593641141558E-3</v>
+        <v>3.5786524385399074E-3</v>
       </c>
       <c r="K115">
         <f t="shared" si="59"/>
-        <v>8.9464841028538949E-4</v>
+        <v>5.9644207308998456E-4</v>
       </c>
       <c r="L115">
         <f t="shared" si="60"/>
-        <v>2230.5604551887627</v>
+        <v>3346.3505766341664</v>
       </c>
       <c r="M115">
         <f t="shared" si="55"/>
@@ -21069,11 +21069,11 @@
       </c>
       <c r="N115">
         <f t="shared" si="56"/>
-        <v>1.7892968205707789</v>
+        <v>1.1928841461799691</v>
       </c>
       <c r="O115">
         <f t="shared" si="61"/>
-        <v>17.056393522311183</v>
+        <v>10.762279808045628</v>
       </c>
       <c r="Q115" s="5" t="s">
         <v>15</v>
@@ -21104,7 +21104,7 @@
       </c>
       <c r="E116">
         <f t="shared" si="52"/>
-        <v>74.408539704496661</v>
+        <v>74.406104259530906</v>
       </c>
       <c r="F116" s="5">
         <f t="shared" si="53"/>
@@ -21112,54 +21112,54 @@
       </c>
       <c r="G116" s="5">
         <f t="shared" si="62"/>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H116" s="5">
         <f t="shared" si="45"/>
-        <v>3.5831138115458253E-2</v>
+        <v>3.5830713082493908E-2</v>
       </c>
       <c r="I116">
         <f t="shared" si="58"/>
-        <v>1.6148301654270512</v>
+        <v>1.6150974814467673</v>
       </c>
       <c r="J116">
         <f t="shared" si="54"/>
-        <v>3.5438270064630517E-3</v>
+        <v>3.5438736583570246E-3</v>
       </c>
       <c r="K116">
         <f t="shared" si="59"/>
-        <v>8.8595675161576293E-4</v>
+        <v>5.9064560972617081E-4</v>
       </c>
       <c r="L116">
         <f t="shared" si="60"/>
-        <v>1822.6963816032846</v>
+        <v>2734.4611639381228</v>
       </c>
       <c r="M116">
         <f t="shared" si="55"/>
-        <v>1822.6963816032846</v>
+        <v>2000</v>
       </c>
       <c r="N116">
         <f t="shared" si="56"/>
-        <v>1.6148301654270512</v>
+        <v>1.1812912194523415</v>
       </c>
       <c r="O116">
         <f t="shared" si="61"/>
-        <v>18.671223687738234</v>
+        <v>11.943571027497971</v>
       </c>
       <c r="Q116" s="5">
         <f t="shared" ref="Q116:Q121" si="63">Q108</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S116">
         <v>1</v>
       </c>
       <c r="U116">
         <f t="shared" ref="U116:U121" si="64">COS(RADIANS(Q116))*S116</f>
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="W116">
         <f>SIN(RADIANS(Q116))*S116</f>
-        <v>1.7452406437283512E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:26" x14ac:dyDescent="0.25">
@@ -21168,7 +21168,7 @@
       </c>
       <c r="E117">
         <f t="shared" si="52"/>
-        <v>75.743224635259821</v>
+        <v>75.741006958527521</v>
       </c>
       <c r="F117" s="5">
         <f t="shared" si="53"/>
@@ -21176,43 +21176,43 @@
       </c>
       <c r="G117" s="5">
         <f t="shared" si="62"/>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H117" s="5">
         <f t="shared" si="45"/>
-        <v>3.9349592865098933E-2</v>
+        <v>3.9349205836967029E-2</v>
       </c>
       <c r="I117">
         <f t="shared" si="58"/>
-        <v>1.3346849307631601</v>
+        <v>1.3349026989966148</v>
       </c>
       <c r="J117">
         <f t="shared" si="54"/>
-        <v>3.5184547496406801E-3</v>
+        <v>3.5184927544731209E-3</v>
       </c>
       <c r="K117">
         <f t="shared" si="59"/>
-        <v>8.7961368741017003E-4</v>
+        <v>5.8641545907885345E-4</v>
       </c>
       <c r="L117">
         <f t="shared" si="60"/>
-        <v>1517.3535267429133</v>
+        <v>2276.377060545934</v>
       </c>
       <c r="M117">
         <f t="shared" si="55"/>
-        <v>1517.3535267429133</v>
+        <v>2000</v>
       </c>
       <c r="N117">
         <f t="shared" si="56"/>
-        <v>1.3346849307631601</v>
+        <v>1.172830918157707</v>
       </c>
       <c r="O117">
         <f t="shared" si="61"/>
-        <v>20.005908618501394</v>
+        <v>13.116401945655678</v>
       </c>
       <c r="Q117" s="5">
         <f t="shared" si="63"/>
-        <v>41.741599484435305</v>
+        <v>41.731817039793761</v>
       </c>
       <c r="S117">
         <f>T109</f>
@@ -21224,19 +21224,19 @@
       </c>
       <c r="U117">
         <f t="shared" si="64"/>
-        <v>0.74869192337307711</v>
+        <v>0.74880597014925387</v>
       </c>
       <c r="V117">
         <f>$U$116</f>
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="W117">
         <f>SIN(RADIANS(Q117))*T117</f>
-        <v>0.89213484770546414</v>
+        <v>0.89196412483911014</v>
       </c>
       <c r="X117">
         <f>W117-W116</f>
-        <v>0.87468244126818062</v>
+        <v>0.89196412483911014</v>
       </c>
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.25">
@@ -21244,15 +21244,15 @@
         <v>44</v>
       </c>
       <c r="C118">
-        <f>H118-H108</f>
-        <v>4.2674401927407228E-2</v>
+        <f>H109-H108</f>
+        <v>8.9196412483911035E-3</v>
       </c>
       <c r="D118">
         <v>10</v>
       </c>
       <c r="E118">
         <f t="shared" si="52"/>
-        <v>76.865477777736075</v>
+        <v>76.863441213055154</v>
       </c>
       <c r="F118" s="5">
         <f t="shared" si="53"/>
@@ -21260,23 +21260,23 @@
       </c>
       <c r="G118" s="5">
         <f t="shared" ref="G118:G123" si="65">G117</f>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H118" s="5">
         <f>SIN(RADIANS(E118))*F118</f>
-        <v>4.2848925991780064E-2</v>
+        <v>4.28485705712571E-2</v>
       </c>
       <c r="I118">
         <f t="shared" si="58"/>
-        <v>1.1222531424762536</v>
+        <v>1.1224342545276329</v>
       </c>
       <c r="J118">
         <f t="shared" si="54"/>
-        <v>3.4993331266811312E-3</v>
+        <v>3.4993647342900711E-3</v>
       </c>
       <c r="Q118" s="5">
         <f t="shared" si="63"/>
-        <v>53.476856695853826</v>
+        <v>53.470392770264972</v>
       </c>
       <c r="S118">
         <f>T110</f>
@@ -21284,23 +21284,23 @@
       </c>
       <c r="T118">
         <f>V118/COS(RADIANS(Q118))</f>
-        <v>1.6799999999999993</v>
+        <v>1.6800000000000004</v>
       </c>
       <c r="U118">
         <f t="shared" si="64"/>
-        <v>0.59919444016872336</v>
+        <v>0.5992857142857142</v>
       </c>
       <c r="V118">
         <f>$U$116</f>
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="W118">
         <f>SIN(RADIANS(Q118))*T118</f>
-        <v>1.3500757706478737</v>
+        <v>1.3499629624548968</v>
       </c>
       <c r="X118">
         <f>W118-W117</f>
-        <v>0.45794092294240951</v>
+        <v>0.45799883761578664</v>
       </c>
     </row>
     <row r="119" spans="2:26" x14ac:dyDescent="0.25">
@@ -21309,14 +21309,14 @@
       </c>
       <c r="C119">
         <f>C118/C113</f>
-        <v>1.0668600481851807E-2</v>
+        <v>1.4866068747318507E-3</v>
       </c>
       <c r="D119">
         <v>11</v>
       </c>
       <c r="E119">
         <f t="shared" si="52"/>
-        <v>77.82265342594242</v>
+        <v>77.820770023802041</v>
       </c>
       <c r="F119" s="5">
         <f t="shared" si="53"/>
@@ -21324,23 +21324,23 @@
       </c>
       <c r="G119" s="5">
         <f t="shared" si="65"/>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H119" s="5">
         <f t="shared" si="45"/>
-        <v>4.6333470177065787E-2</v>
+        <v>4.6333141486413369E-2</v>
       </c>
       <c r="I119">
         <f t="shared" si="58"/>
-        <v>0.95717564820634493</v>
+        <v>0.95732881074688692</v>
       </c>
       <c r="J119">
         <f t="shared" si="54"/>
-        <v>3.4845441852857234E-3</v>
+        <v>3.4845709151562695E-3</v>
       </c>
       <c r="Q119" s="5">
         <f t="shared" si="63"/>
-        <v>60.331957093742055</v>
+        <v>60.326985197525957</v>
       </c>
       <c r="S119">
         <f>T111</f>
@@ -21348,23 +21348,23 @@
       </c>
       <c r="T119">
         <f>V119/COS(RADIANS(Q119))</f>
-        <v>2.0199999999999996</v>
+        <v>2.02</v>
       </c>
       <c r="U119">
         <f t="shared" si="64"/>
-        <v>0.50002284239949846</v>
+        <v>0.50009900990099021</v>
       </c>
       <c r="V119">
         <f>$U$116</f>
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="W119">
         <f>SIN(RADIANS(Q119))*T119</f>
-        <v>1.7551936037059988</v>
+        <v>1.7551068343551055</v>
       </c>
       <c r="X119">
         <f>W119-W118</f>
-        <v>0.4051178330581251</v>
+        <v>0.40514387190020873</v>
       </c>
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.25">
@@ -21373,14 +21373,14 @@
       </c>
       <c r="C120">
         <f>(E117-E108)/C119</f>
-        <v>7005.9071723985144</v>
+        <v>50948.914770886848</v>
       </c>
       <c r="D120">
         <v>12</v>
       </c>
       <c r="E120">
         <f t="shared" si="52"/>
-        <v>78.648913320477689</v>
+        <v>78.647161243661103</v>
       </c>
       <c r="F120" s="5">
         <f t="shared" si="53"/>
@@ -21388,23 +21388,23 @@
       </c>
       <c r="G120" s="5">
         <f t="shared" si="65"/>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H120" s="5">
         <f t="shared" si="45"/>
-        <v>4.9806329503879782E-2</v>
+        <v>4.9806023732074815E-2</v>
       </c>
       <c r="I120">
         <f t="shared" si="58"/>
-        <v>0.82625989453526927</v>
+        <v>0.82639121985906172</v>
       </c>
       <c r="J120">
         <f t="shared" si="54"/>
-        <v>3.4728593268139943E-3</v>
+        <v>3.4728822456614461E-3</v>
       </c>
       <c r="Q120" s="5">
         <f t="shared" si="63"/>
-        <v>64.933854210608033</v>
+        <v>64.929772050657689</v>
       </c>
       <c r="S120">
         <f>T112</f>
@@ -21416,19 +21416,19 @@
       </c>
       <c r="U120">
         <f t="shared" si="64"/>
-        <v>0.42942611178411805</v>
+        <v>0.42949152542372898</v>
       </c>
       <c r="V120">
         <f>$U$116</f>
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="W120">
         <f>SIN(RADIANS(Q120))*T120</f>
-        <v>2.1377335162480966</v>
+        <v>2.1376622745419818</v>
       </c>
       <c r="X120">
         <f>W120-W119</f>
-        <v>0.38253991254209785</v>
+        <v>0.38255544018687626</v>
       </c>
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.25">
@@ -21437,7 +21437,7 @@
       </c>
       <c r="E121">
         <f t="shared" si="52"/>
-        <v>79.36954789072476</v>
+        <v>79.367909729909982</v>
       </c>
       <c r="F121" s="5">
         <f t="shared" si="53"/>
@@ -21445,23 +21445,23 @@
       </c>
       <c r="G121" s="5">
         <f t="shared" si="65"/>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H121" s="5">
         <f t="shared" si="45"/>
-        <v>5.3269789361785967E-2</v>
+        <v>5.3269503470559962E-2</v>
       </c>
       <c r="I121">
         <f t="shared" si="58"/>
-        <v>0.72063457024707134</v>
+        <v>0.72074848624887977</v>
       </c>
       <c r="J121">
         <f t="shared" si="54"/>
-        <v>3.4634598579061857E-3</v>
+        <v>3.4634797384851465E-3</v>
       </c>
       <c r="Q121" s="5">
         <f t="shared" si="63"/>
-        <v>68.265018619759658</v>
+        <v>68.261539208479505</v>
       </c>
       <c r="S121">
         <f>T113</f>
@@ -21469,23 +21469,23 @@
       </c>
       <c r="T121">
         <f>V121/COS(RADIANS(Q121))</f>
-        <v>2.6999999999999993</v>
+        <v>2.6999999999999984</v>
       </c>
       <c r="U121">
         <f t="shared" si="64"/>
-        <v>0.37660929850890762</v>
+        <v>0.37666666666666698</v>
       </c>
       <c r="V121">
         <f>$U$116</f>
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="W121">
         <f>SIN(RADIANS(Q121))*T121</f>
-        <v>2.5080479633552564</v>
+        <v>2.5079872407968886</v>
       </c>
       <c r="X121">
         <f>W121-W120</f>
-        <v>0.37031444710715977</v>
+        <v>0.37032496625490685</v>
       </c>
     </row>
     <row r="122" spans="2:26" x14ac:dyDescent="0.25">
@@ -21494,7 +21494,7 @@
       </c>
       <c r="E122">
         <f t="shared" si="52"/>
-        <v>80.003694874261313</v>
+        <v>80.002156512432251</v>
       </c>
       <c r="F122" s="5">
         <f t="shared" si="53"/>
@@ -21502,19 +21502,19 @@
       </c>
       <c r="G122" s="5">
         <f t="shared" si="65"/>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H122" s="5">
         <f t="shared" si="45"/>
-        <v>5.6725571470449238E-2</v>
+        <v>5.6725302996105717E-2</v>
       </c>
       <c r="I122">
         <f t="shared" si="58"/>
-        <v>0.63414698353655297</v>
+        <v>0.6342467825222684</v>
       </c>
       <c r="J122">
         <f t="shared" si="54"/>
-        <v>3.4557821086632703E-3</v>
+        <v>3.4557995255457552E-3</v>
       </c>
     </row>
     <row r="123" spans="2:26" x14ac:dyDescent="0.25">
@@ -21523,7 +21523,7 @@
       </c>
       <c r="E123">
         <f t="shared" si="52"/>
-        <v>80.566111454227183</v>
+        <v>80.56466127669681</v>
       </c>
       <c r="F123" s="5">
         <f t="shared" si="53"/>
@@ -21531,19 +21531,19 @@
       </c>
       <c r="G123" s="5">
         <f t="shared" si="65"/>
-        <v>9.9984769515639137E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H123" s="5">
         <f t="shared" si="45"/>
-        <v>6.017499861777352E-2</v>
+        <v>6.0174745533321534E-2</v>
       </c>
       <c r="I123">
         <f>E123-E122</f>
-        <v>0.5624165799658698</v>
+        <v>0.56250476426455975</v>
       </c>
       <c r="J123">
         <f t="shared" si="54"/>
-        <v>3.4494271473242827E-3</v>
+        <v>3.4494425372158175E-3</v>
       </c>
       <c r="S123">
         <f>S117-1</f>
@@ -21559,7 +21559,7 @@
       </c>
       <c r="V123">
         <f>X117/U123</f>
-        <v>8.7468244126819895E-3</v>
+        <v>8.9196412483912874E-3</v>
       </c>
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.25">

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A5579-2716-491F-8D92-9D99827D4F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A441F72-965E-4C72-8562-316B4F093346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder Error" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Number of measurments</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Encoder Task</t>
   </si>
   <si>
-    <t>Diff</t>
-  </si>
-  <si>
     <t>Opuesto</t>
   </si>
   <si>
@@ -135,27 +132,6 @@
   </si>
   <si>
     <t>Hipotenusa</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>Diff2</t>
-  </si>
-  <si>
-    <t>c correct</t>
-  </si>
-  <si>
-    <t>b fixed</t>
   </si>
   <si>
     <t>Punto Circulo Unit</t>
@@ -271,6 +247,15 @@
   <si>
     <t>Volt/(.1)Degree</t>
   </si>
+  <si>
+    <t>Continuous Days</t>
+  </si>
+  <si>
+    <t>hz</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
 </sst>
 </file>
 
@@ -317,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,6 +327,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -739,16 +727,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
@@ -12923,7 +12911,7 @@
         <v>0.24001129464915996</v>
       </c>
       <c r="H584" s="1">
-        <f t="shared" ref="H584:H647" si="38">((G584-D584)/D584)*100</f>
+        <f t="shared" ref="H584:H607" si="38">((G584-D584)/D584)*100</f>
         <v>4.7061037666458532E-3</v>
       </c>
     </row>
@@ -13422,10 +13410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11AFDFB-30EA-4EFD-BE21-A5C5DCB81B95}">
-  <dimension ref="B2:Z147"/>
+  <dimension ref="B2:AA147"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13446,33 +13434,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="13"/>
       <c r="I2">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -17695,7 +17683,7 @@
         <v>4.2751726849346028E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D97" s="3">
         <v>92</v>
       </c>
@@ -17741,7 +17729,7 @@
         <v>4.5723273093365435E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D98" s="3">
         <v>93</v>
       </c>
@@ -17787,7 +17775,7 @@
         <v>4.9282619830925967E-3</v>
       </c>
     </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D99" s="3">
         <v>94</v>
       </c>
@@ -17833,7 +17821,7 @@
         <v>5.366376017661878E-3</v>
       </c>
     </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D100" s="3">
         <v>95</v>
       </c>
@@ -17879,7 +17867,7 @@
         <v>5.92568750096234E-3</v>
       </c>
     </row>
-    <row r="101" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D101" s="3">
         <v>96</v>
       </c>
@@ -17925,7 +17913,7 @@
         <v>6.6774740933865928E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D102" s="3">
         <v>97</v>
       </c>
@@ -17973,7 +17961,7 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
     </row>
-    <row r="103" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D103" s="3">
         <v>98</v>
       </c>
@@ -18021,7 +18009,7 @@
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
     </row>
-    <row r="104" spans="2:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="3">
         <v>99</v>
       </c>
@@ -18069,33 +18057,33 @@
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
     </row>
-    <row r="105" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
     </row>
-    <row r="106" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>0.01</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N106" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="U106" s="9"/>
       <c r="V106" s="9"/>
     </row>
-    <row r="107" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E107" s="5" t="s">
         <v>15</v>
       </c>
@@ -18109,59 +18097,40 @@
         <v>14</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q107" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R107" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S107" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T107" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U107" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V107" t="s">
-        <v>35</v>
-      </c>
-      <c r="W107" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X107" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y107" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z107" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B108" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C108" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="11"/>
+      <c r="U107" s="11"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="11"/>
+      <c r="X107" s="11"/>
+      <c r="Y107" s="11"/>
+      <c r="Z107" s="11"/>
+      <c r="AA107" s="8"/>
+    </row>
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B108" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="12"/>
       <c r="D108" s="6">
         <v>0</v>
       </c>
@@ -18183,48 +18152,28 @@
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="M108" s="5"/>
-      <c r="Q108" s="7">
-        <f t="shared" ref="Q108:Q113" si="46">E108</f>
-        <v>0</v>
-      </c>
-      <c r="R108" s="6">
-        <f t="shared" ref="R108:R113" si="47">DEGREES(ACOS(V108/T108))</f>
-        <v>0</v>
-      </c>
-      <c r="S108" s="6">
-        <f>C106</f>
-        <v>0.01</v>
-      </c>
-      <c r="T108" s="6">
-        <v>1</v>
-      </c>
-      <c r="U108" s="6">
-        <f t="shared" ref="U108:U113" si="48">COS(RADIANS(Q108))*S108</f>
-        <v>0.01</v>
-      </c>
-      <c r="V108" s="6">
-        <f t="shared" ref="V108:V113" si="49">SQRT(POWER(T108,2)-POWER(X108,2))</f>
-        <v>1</v>
-      </c>
-      <c r="W108" s="6">
-        <f t="shared" ref="W108:W113" si="50">SIN(RADIANS(Q108))*S108</f>
-        <v>0</v>
-      </c>
-      <c r="X108" s="6">
-        <f t="shared" ref="X108:X113" si="51">SIN(RADIANS(Q108))*T108</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q108" s="11"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="8"/>
+      <c r="X108" s="8"/>
+      <c r="Y108" s="8"/>
+      <c r="Z108" s="8"/>
+      <c r="AA108" s="8"/>
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <f t="shared" ref="E109:E123" si="52">DEGREES(ACOS(G109/F109) )</f>
+        <f t="shared" ref="E109:E123" si="46">DEGREES(ACOS(G109/F109) )</f>
         <v>41.731817039793761</v>
       </c>
       <c r="F109" s="5">
-        <f t="shared" ref="F109:F123" si="53">$C$106+($I$2*D109)</f>
+        <f t="shared" ref="F109:F123" si="47">$C$106+($I$2*D109)</f>
         <v>1.34E-2</v>
       </c>
       <c r="G109" s="5">
@@ -18240,7 +18189,7 @@
         <v>41.731817039793761</v>
       </c>
       <c r="J109">
-        <f t="shared" ref="J109:J123" si="54">H109-H108</f>
+        <f t="shared" ref="J109:J123" si="48">H109-H108</f>
         <v>8.9196412483911035E-3</v>
       </c>
       <c r="K109">
@@ -18252,68 +18201,39 @@
         <v>28071.857966700987</v>
       </c>
       <c r="M109">
-        <f t="shared" ref="M109:M117" si="55">IF(L109&gt;2000,2000,L109)</f>
+        <f t="shared" ref="M109:M117" si="49">IF(L109&gt;2000,2000,L109)</f>
         <v>2000</v>
       </c>
       <c r="N109">
-        <f t="shared" ref="N109:N117" si="56">M109*K109</f>
+        <f t="shared" ref="N109:N117" si="50">M109*K109</f>
         <v>2.9732137494637012</v>
       </c>
       <c r="O109">
         <f>E108+N109</f>
         <v>2.9732137494637012</v>
       </c>
-      <c r="Q109" s="5">
-        <f t="shared" si="46"/>
-        <v>41.731817039793761</v>
-      </c>
-      <c r="R109">
-        <f t="shared" si="47"/>
-        <v>41.731817039793768</v>
-      </c>
-      <c r="S109">
-        <f>S108+$I$2</f>
-        <v>1.34E-2</v>
-      </c>
-      <c r="T109">
-        <f>T108+0.0034</f>
-        <v>1.0034000000000001</v>
-      </c>
-      <c r="U109">
-        <f t="shared" si="48"/>
-        <v>0.01</v>
-      </c>
-      <c r="V109">
-        <f t="shared" si="49"/>
-        <v>0.74880597014925376</v>
-      </c>
-      <c r="W109">
-        <f t="shared" si="50"/>
-        <v>8.9196412483911035E-3</v>
-      </c>
-      <c r="X109" s="8">
-        <f>SIN(RADIANS(Q109))*T109</f>
-        <v>0.66790806183848006</v>
-      </c>
-      <c r="Y109">
-        <f t="shared" ref="Y109:Z113" si="57">W109-W108</f>
-        <v>8.9196412483911035E-3</v>
-      </c>
-      <c r="Z109">
-        <f>X109-X108</f>
-        <v>0.66790806183848006</v>
-      </c>
-    </row>
-    <row r="110" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q109" s="11"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="8"/>
+      <c r="X109" s="8"/>
+      <c r="Y109" s="8"/>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>2</v>
       </c>
       <c r="E110">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>53.470392770264972</v>
       </c>
       <c r="F110" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="G110" s="5">
@@ -18325,88 +18245,59 @@
         <v>1.3499629624548964E-2</v>
       </c>
       <c r="I110">
-        <f t="shared" ref="I110:I122" si="58">E110-E109</f>
+        <f t="shared" ref="I110:I122" si="51">E110-E109</f>
         <v>11.738575730471212</v>
       </c>
       <c r="J110">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>4.5799883761578602E-3</v>
       </c>
       <c r="K110">
-        <f t="shared" ref="K110:K117" si="59">J110/$C$113</f>
+        <f t="shared" ref="K110:K117" si="52">J110/$C$113</f>
         <v>7.6333139602631007E-4</v>
       </c>
       <c r="L110">
-        <f t="shared" ref="L110:L117" si="60">(E110-E109)/K110</f>
+        <f t="shared" ref="L110:L117" si="53">(E110-E109)/K110</f>
         <v>15378.085837395078</v>
       </c>
       <c r="M110">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>2000</v>
       </c>
       <c r="N110">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>1.5266627920526201</v>
       </c>
       <c r="O110">
-        <f t="shared" ref="O110:O117" si="61">O109+N110</f>
+        <f t="shared" ref="O110:O117" si="54">O109+N110</f>
         <v>4.4998765415163211</v>
       </c>
-      <c r="Q110" s="5">
-        <f t="shared" si="46"/>
-        <v>53.470392770264972</v>
-      </c>
-      <c r="R110">
-        <f t="shared" si="47"/>
-        <v>53.470392770264972</v>
-      </c>
-      <c r="S110">
-        <f>S109+$I$2</f>
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="T110">
-        <f>T109+0.0034</f>
-        <v>1.0068000000000001</v>
-      </c>
-      <c r="U110">
-        <f t="shared" si="48"/>
-        <v>9.9999999999999967E-3</v>
-      </c>
-      <c r="V110">
-        <f t="shared" si="49"/>
-        <v>0.59928571428571431</v>
-      </c>
-      <c r="W110">
-        <f t="shared" si="50"/>
-        <v>1.3499629624548964E-2</v>
-      </c>
-      <c r="X110" s="8">
-        <f>SIN(RADIANS(Q110))*T110</f>
-        <v>0.80901351821404166</v>
-      </c>
-      <c r="Y110">
-        <f t="shared" si="57"/>
-        <v>4.5799883761578602E-3</v>
-      </c>
-      <c r="Z110">
-        <f t="shared" si="57"/>
-        <v>0.1411054563755616</v>
-      </c>
-    </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q110" s="11"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="8"/>
+      <c r="W110" s="8"/>
+      <c r="X110" s="8"/>
+      <c r="Y110" s="8"/>
+      <c r="Z110" s="8"/>
+      <c r="AA110" s="8"/>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>60.326985197525957</v>
       </c>
       <c r="F111" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>2.0199999999999999E-2</v>
       </c>
       <c r="G111" s="5">
-        <f t="shared" ref="G111:G117" si="62">G110</f>
+        <f t="shared" ref="G111:G117" si="55">G110</f>
         <v>0.01</v>
       </c>
       <c r="H111" s="5">
@@ -18414,91 +18305,62 @@
         <v>1.7551068343551055E-2</v>
       </c>
       <c r="I111">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>6.8565924272609848</v>
       </c>
       <c r="J111">
+        <f t="shared" si="48"/>
+        <v>4.0514387190020915E-3</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="52"/>
+        <v>6.7523978650034858E-4</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="53"/>
+        <v>10154.307498374053</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="49"/>
+        <v>2000</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="50"/>
+        <v>1.3504795730006971</v>
+      </c>
+      <c r="O111">
         <f t="shared" si="54"/>
-        <v>4.0514387190020915E-3</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="59"/>
-        <v>6.7523978650034858E-4</v>
-      </c>
-      <c r="L111">
-        <f t="shared" si="60"/>
-        <v>10154.307498374053</v>
-      </c>
-      <c r="M111">
-        <f t="shared" si="55"/>
-        <v>2000</v>
-      </c>
-      <c r="N111">
-        <f t="shared" si="56"/>
-        <v>1.3504795730006971</v>
-      </c>
-      <c r="O111">
-        <f t="shared" si="61"/>
         <v>5.8503561145170178</v>
       </c>
-      <c r="Q111" s="5">
-        <f t="shared" si="46"/>
-        <v>60.326985197525957</v>
-      </c>
-      <c r="R111">
-        <f t="shared" si="47"/>
-        <v>60.326985197525943</v>
-      </c>
-      <c r="S111">
-        <f>S110+$I$2</f>
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="T111">
-        <f>T110+0.0034</f>
-        <v>1.0102000000000002</v>
-      </c>
-      <c r="U111">
-        <f t="shared" si="48"/>
-        <v>0.01</v>
-      </c>
-      <c r="V111">
-        <f t="shared" si="49"/>
-        <v>0.50009900990099032</v>
-      </c>
-      <c r="W111">
-        <f t="shared" si="50"/>
-        <v>1.7551068343551055E-2</v>
-      </c>
-      <c r="X111" s="8">
-        <f t="shared" si="51"/>
-        <v>0.87772719013144951</v>
-      </c>
-      <c r="Y111">
-        <f t="shared" si="57"/>
-        <v>4.0514387190020915E-3</v>
-      </c>
-      <c r="Z111">
-        <f t="shared" si="57"/>
-        <v>6.8713671917407848E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q111" s="11"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="8"/>
+      <c r="X111" s="8"/>
+      <c r="Y111" s="8"/>
+      <c r="Z111" s="8"/>
+      <c r="AA111" s="8"/>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>64.929772050657689</v>
       </c>
       <c r="F112" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>2.3599999999999999E-2</v>
       </c>
       <c r="G112" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>0.01</v>
       </c>
       <c r="H112" s="5">
@@ -18506,75 +18368,46 @@
         <v>2.1376622745419821E-2</v>
       </c>
       <c r="I112">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>4.6027868531317324</v>
       </c>
       <c r="J112">
+        <f t="shared" si="48"/>
+        <v>3.8255544018687658E-3</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="52"/>
+        <v>6.3759240031146093E-4</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="53"/>
+        <v>7219.0114732912316</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="49"/>
+        <v>2000</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="50"/>
+        <v>1.2751848006229218</v>
+      </c>
+      <c r="O112">
         <f t="shared" si="54"/>
-        <v>3.8255544018687658E-3</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="59"/>
-        <v>6.3759240031146093E-4</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="60"/>
-        <v>7219.0114732912316</v>
-      </c>
-      <c r="M112">
-        <f t="shared" si="55"/>
-        <v>2000</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="56"/>
-        <v>1.2751848006229218</v>
-      </c>
-      <c r="O112">
-        <f t="shared" si="61"/>
         <v>7.1255409151399398</v>
       </c>
-      <c r="Q112" s="5">
-        <f t="shared" si="46"/>
-        <v>64.929772050657689</v>
-      </c>
-      <c r="R112">
-        <f t="shared" si="47"/>
-        <v>64.929772050657704</v>
-      </c>
-      <c r="S112">
-        <f>S111+$I$2</f>
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="T112">
-        <f>T111+0.0034</f>
-        <v>1.0136000000000003</v>
-      </c>
-      <c r="U112">
-        <f t="shared" si="48"/>
-        <v>0.01</v>
-      </c>
-      <c r="V112">
-        <f t="shared" si="49"/>
-        <v>0.4294915254237287</v>
-      </c>
-      <c r="W112">
-        <f t="shared" si="50"/>
-        <v>2.1376622745419821E-2</v>
-      </c>
-      <c r="X112" s="8">
-        <f t="shared" si="51"/>
-        <v>0.91810783113379391</v>
-      </c>
-      <c r="Y112">
-        <f t="shared" si="57"/>
-        <v>3.8255544018687658E-3</v>
-      </c>
-      <c r="Z112">
-        <f t="shared" si="57"/>
-        <v>4.0380641002344397E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q112" s="11"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="8"/>
+      <c r="W112" s="8"/>
+      <c r="X112" s="8"/>
+      <c r="Y112" s="8"/>
+      <c r="Z112" s="8"/>
+      <c r="AA112" s="8"/>
+    </row>
+    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C113">
         <v>6</v>
       </c>
@@ -18586,11 +18419,11 @@
         <v>68.261539208479505</v>
       </c>
       <c r="F113" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G113" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>0.01</v>
       </c>
       <c r="H113" s="5">
@@ -18598,88 +18431,59 @@
         <v>2.5079872407968898E-2</v>
       </c>
       <c r="I113">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>3.3317671578218153</v>
       </c>
       <c r="J113">
+        <f t="shared" si="48"/>
+        <v>3.7032496625490768E-3</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="52"/>
+        <v>6.1720827709151277E-4</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="53"/>
+        <v>5398.1245577622385</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="49"/>
+        <v>2000</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="50"/>
+        <v>1.2344165541830256</v>
+      </c>
+      <c r="O113">
         <f t="shared" si="54"/>
-        <v>3.7032496625490768E-3</v>
-      </c>
-      <c r="K113">
-        <f t="shared" si="59"/>
-        <v>6.1720827709151277E-4</v>
-      </c>
-      <c r="L113">
-        <f t="shared" si="60"/>
-        <v>5398.1245577622385</v>
-      </c>
-      <c r="M113">
-        <f t="shared" si="55"/>
-        <v>2000</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="56"/>
-        <v>1.2344165541830256</v>
-      </c>
-      <c r="O113">
-        <f t="shared" si="61"/>
         <v>8.3599574693229659</v>
       </c>
-      <c r="Q113" s="5">
-        <f t="shared" si="46"/>
-        <v>68.261539208479505</v>
-      </c>
-      <c r="R113">
-        <f t="shared" si="47"/>
-        <v>68.261539208479505</v>
-      </c>
-      <c r="S113">
-        <f>S112+$I$2</f>
-        <v>2.7E-2</v>
-      </c>
-      <c r="T113">
-        <f>T112+0.0034</f>
-        <v>1.0170000000000003</v>
-      </c>
-      <c r="U113">
-        <f t="shared" si="48"/>
-        <v>1.0000000000000005E-2</v>
-      </c>
-      <c r="V113">
-        <f t="shared" si="49"/>
-        <v>0.37666666666666693</v>
-      </c>
-      <c r="W113">
-        <f t="shared" si="50"/>
-        <v>2.5079872407968901E-2</v>
-      </c>
-      <c r="X113" s="8">
-        <f t="shared" si="51"/>
-        <v>0.94467519403349565</v>
-      </c>
-      <c r="Y113">
-        <f t="shared" si="57"/>
-        <v>3.7032496625490803E-3</v>
-      </c>
-      <c r="Z113">
-        <f t="shared" si="57"/>
-        <v>2.6567362899701741E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q113" s="11"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="8"/>
+      <c r="X113" s="8"/>
+      <c r="Y113" s="8"/>
+      <c r="Z113" s="8"/>
+      <c r="AA113" s="8"/>
+    </row>
+    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>6</v>
       </c>
       <c r="E114">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>70.795102502870591</v>
       </c>
       <c r="F114" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>3.0399999999999996E-2</v>
       </c>
       <c r="G114" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>0.01</v>
       </c>
       <c r="H114" s="5">
@@ -18687,48 +18491,59 @@
         <v>2.8708186985596976E-2</v>
       </c>
       <c r="I114">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>2.5335632943910866</v>
       </c>
       <c r="J114">
+        <f t="shared" si="48"/>
+        <v>3.6283145776280779E-3</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="52"/>
+        <v>6.0471909627134634E-4</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="53"/>
+        <v>4189.6531960258117</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="49"/>
+        <v>2000</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="50"/>
+        <v>1.2094381925426927</v>
+      </c>
+      <c r="O114">
         <f t="shared" si="54"/>
-        <v>3.6283145776280779E-3</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="59"/>
-        <v>6.0471909627134634E-4</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="60"/>
-        <v>4189.6531960258117</v>
-      </c>
-      <c r="M114">
-        <f t="shared" si="55"/>
-        <v>2000</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="56"/>
-        <v>1.2094381925426927</v>
-      </c>
-      <c r="O114">
-        <f t="shared" si="61"/>
         <v>9.5693956618656593</v>
       </c>
-    </row>
-    <row r="115" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="8"/>
+      <c r="X114" s="8"/>
+      <c r="Y114" s="8"/>
+      <c r="Z114" s="8"/>
+      <c r="AA114" s="8"/>
+    </row>
+    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>7</v>
       </c>
       <c r="E115">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>72.791006778084139</v>
       </c>
       <c r="F115" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="G115" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>0.01</v>
       </c>
       <c r="H115" s="5">
@@ -18736,70 +18551,59 @@
         <v>3.2286839424136883E-2</v>
       </c>
       <c r="I115">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>1.9959042752135474</v>
       </c>
       <c r="J115">
+        <f t="shared" si="48"/>
+        <v>3.5786524385399074E-3</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="52"/>
+        <v>5.9644207308998456E-4</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="53"/>
+        <v>3346.3505766341664</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="49"/>
+        <v>2000</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="50"/>
+        <v>1.1928841461799691</v>
+      </c>
+      <c r="O115">
         <f t="shared" si="54"/>
-        <v>3.5786524385399074E-3</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="59"/>
-        <v>5.9644207308998456E-4</v>
-      </c>
-      <c r="L115">
-        <f t="shared" si="60"/>
-        <v>3346.3505766341664</v>
-      </c>
-      <c r="M115">
-        <f t="shared" si="55"/>
-        <v>2000</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="56"/>
-        <v>1.1928841461799691</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="61"/>
         <v>10.762279808045628</v>
       </c>
-      <c r="Q115" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T115" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U115" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V115" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="W115" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X115" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="11"/>
+      <c r="T115" s="11"/>
+      <c r="U115" s="11"/>
+      <c r="V115" s="11"/>
+      <c r="W115" s="11"/>
+      <c r="X115" s="11"/>
+      <c r="Y115" s="8"/>
+      <c r="Z115" s="8"/>
+      <c r="AA115" s="8"/>
+    </row>
+    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>8</v>
       </c>
       <c r="E116">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>74.406104259530906</v>
       </c>
       <c r="F116" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>3.7199999999999997E-2</v>
       </c>
       <c r="G116" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>0.01</v>
       </c>
       <c r="H116" s="5">
@@ -18807,63 +18611,59 @@
         <v>3.5830713082493908E-2</v>
       </c>
       <c r="I116">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>1.6150974814467673</v>
       </c>
       <c r="J116">
+        <f t="shared" si="48"/>
+        <v>3.5438736583570246E-3</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="52"/>
+        <v>5.9064560972617081E-4</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="53"/>
+        <v>2734.4611639381228</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="49"/>
+        <v>2000</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="50"/>
+        <v>1.1812912194523415</v>
+      </c>
+      <c r="O116">
         <f t="shared" si="54"/>
-        <v>3.5438736583570246E-3</v>
-      </c>
-      <c r="K116">
-        <f t="shared" si="59"/>
-        <v>5.9064560972617081E-4</v>
-      </c>
-      <c r="L116">
-        <f t="shared" si="60"/>
-        <v>2734.4611639381228</v>
-      </c>
-      <c r="M116">
-        <f t="shared" si="55"/>
-        <v>2000</v>
-      </c>
-      <c r="N116">
-        <f t="shared" si="56"/>
-        <v>1.1812912194523415</v>
-      </c>
-      <c r="O116">
-        <f t="shared" si="61"/>
         <v>11.943571027497971</v>
       </c>
-      <c r="Q116" s="5">
-        <f t="shared" ref="Q116:Q121" si="63">Q108</f>
-        <v>0</v>
-      </c>
-      <c r="S116">
-        <v>1</v>
-      </c>
-      <c r="U116">
-        <f t="shared" ref="U116:U121" si="64">COS(RADIANS(Q116))*S116</f>
-        <v>1</v>
-      </c>
-      <c r="W116">
-        <f>SIN(RADIANS(Q116))*S116</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q116" s="11"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+    </row>
+    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>9</v>
       </c>
       <c r="E117">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>75.741006958527521</v>
       </c>
       <c r="F117" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="G117" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>0.01</v>
       </c>
       <c r="H117" s="5">
@@ -18871,65 +18671,48 @@
         <v>3.9349205836967029E-2</v>
       </c>
       <c r="I117">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>1.3349026989966148</v>
       </c>
       <c r="J117">
+        <f t="shared" si="48"/>
+        <v>3.5184927544731209E-3</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="52"/>
+        <v>5.8641545907885345E-4</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="53"/>
+        <v>2276.377060545934</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="49"/>
+        <v>2000</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="50"/>
+        <v>1.172830918157707</v>
+      </c>
+      <c r="O117">
         <f t="shared" si="54"/>
-        <v>3.5184927544731209E-3</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="59"/>
-        <v>5.8641545907885345E-4</v>
-      </c>
-      <c r="L117">
-        <f t="shared" si="60"/>
-        <v>2276.377060545934</v>
-      </c>
-      <c r="M117">
-        <f t="shared" si="55"/>
-        <v>2000</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="56"/>
-        <v>1.172830918157707</v>
-      </c>
-      <c r="O117">
-        <f t="shared" si="61"/>
         <v>13.116401945655678</v>
       </c>
-      <c r="Q117" s="5">
-        <f t="shared" si="63"/>
-        <v>41.731817039793761</v>
-      </c>
-      <c r="S117">
-        <f>T109</f>
-        <v>1.0034000000000001</v>
-      </c>
-      <c r="T117">
-        <f>V117/COS(RADIANS(Q117))</f>
-        <v>1.3399999999999999</v>
-      </c>
-      <c r="U117">
-        <f t="shared" si="64"/>
-        <v>0.74880597014925387</v>
-      </c>
-      <c r="V117">
-        <f>$U$116</f>
-        <v>1</v>
-      </c>
-      <c r="W117">
-        <f>SIN(RADIANS(Q117))*T117</f>
-        <v>0.89196412483911014</v>
-      </c>
-      <c r="X117">
-        <f>W117-W116</f>
-        <v>0.89196412483911014</v>
-      </c>
-    </row>
-    <row r="118" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q117" s="11"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
+      <c r="U117" s="8"/>
+      <c r="V117" s="8"/>
+      <c r="W117" s="8"/>
+      <c r="X117" s="8"/>
+      <c r="Y117" s="8"/>
+      <c r="Z117" s="8"/>
+      <c r="AA117" s="8"/>
+    </row>
+    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C118">
         <f>H109-H108</f>
@@ -18939,15 +18722,15 @@
         <v>10</v>
       </c>
       <c r="E118">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>76.863441213055154</v>
       </c>
       <c r="F118" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="G118" s="5">
-        <f t="shared" ref="G118:G123" si="65">G117</f>
+        <f t="shared" ref="G118:G123" si="56">G117</f>
         <v>0.01</v>
       </c>
       <c r="H118" s="5">
@@ -18955,45 +18738,28 @@
         <v>4.28485705712571E-2</v>
       </c>
       <c r="I118">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>1.1224342545276329</v>
       </c>
       <c r="J118">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>3.4993647342900711E-3</v>
       </c>
-      <c r="Q118" s="5">
-        <f t="shared" si="63"/>
-        <v>53.470392770264972</v>
-      </c>
-      <c r="S118">
-        <f>T110</f>
-        <v>1.0068000000000001</v>
-      </c>
-      <c r="T118">
-        <f>V118/COS(RADIANS(Q118))</f>
-        <v>1.6800000000000004</v>
-      </c>
-      <c r="U118">
-        <f t="shared" si="64"/>
-        <v>0.5992857142857142</v>
-      </c>
-      <c r="V118">
-        <f>$U$116</f>
-        <v>1</v>
-      </c>
-      <c r="W118">
-        <f>SIN(RADIANS(Q118))*T118</f>
-        <v>1.3499629624548968</v>
-      </c>
-      <c r="X118">
-        <f>W118-W117</f>
-        <v>0.45799883761578664</v>
-      </c>
-    </row>
-    <row r="119" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q118" s="11"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="8"/>
+      <c r="T118" s="8"/>
+      <c r="U118" s="8"/>
+      <c r="V118" s="8"/>
+      <c r="W118" s="8"/>
+      <c r="X118" s="8"/>
+      <c r="Y118" s="8"/>
+      <c r="Z118" s="8"/>
+      <c r="AA118" s="8"/>
+    </row>
+    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C119">
         <f>C118/C113</f>
@@ -19003,15 +18769,15 @@
         <v>11</v>
       </c>
       <c r="E119">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>77.820770023802041</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="G119" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="56"/>
         <v>0.01</v>
       </c>
       <c r="H119" s="5">
@@ -19019,45 +18785,28 @@
         <v>4.6333141486413369E-2</v>
       </c>
       <c r="I119">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>0.95732881074688692</v>
       </c>
       <c r="J119">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>3.4845709151562695E-3</v>
       </c>
-      <c r="Q119" s="5">
-        <f t="shared" si="63"/>
-        <v>60.326985197525957</v>
-      </c>
-      <c r="S119">
-        <f>T111</f>
-        <v>1.0102000000000002</v>
-      </c>
-      <c r="T119">
-        <f>V119/COS(RADIANS(Q119))</f>
-        <v>2.02</v>
-      </c>
-      <c r="U119">
-        <f t="shared" si="64"/>
-        <v>0.50009900990099021</v>
-      </c>
-      <c r="V119">
-        <f>$U$116</f>
-        <v>1</v>
-      </c>
-      <c r="W119">
-        <f>SIN(RADIANS(Q119))*T119</f>
-        <v>1.7551068343551055</v>
-      </c>
-      <c r="X119">
-        <f>W119-W118</f>
-        <v>0.40514387190020873</v>
-      </c>
-    </row>
-    <row r="120" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q119" s="11"/>
+      <c r="R119" s="8"/>
+      <c r="S119" s="8"/>
+      <c r="T119" s="8"/>
+      <c r="U119" s="8"/>
+      <c r="V119" s="8"/>
+      <c r="W119" s="8"/>
+      <c r="X119" s="8"/>
+      <c r="Y119" s="8"/>
+      <c r="Z119" s="8"/>
+      <c r="AA119" s="8"/>
+    </row>
+    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C120">
         <f>(E117-E108)/C119</f>
@@ -19067,15 +18816,15 @@
         <v>12</v>
       </c>
       <c r="E120">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>78.647161243661103</v>
       </c>
       <c r="F120" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="G120" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="56"/>
         <v>0.01</v>
       </c>
       <c r="H120" s="5">
@@ -19083,56 +18832,46 @@
         <v>4.9806023732074815E-2</v>
       </c>
       <c r="I120">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>0.82639121985906172</v>
       </c>
       <c r="J120">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>3.4728822456614461E-3</v>
       </c>
-      <c r="Q120" s="5">
-        <f t="shared" si="63"/>
-        <v>64.929772050657689</v>
-      </c>
-      <c r="S120">
-        <f>T112</f>
-        <v>1.0136000000000003</v>
-      </c>
-      <c r="T120">
-        <f>V120/COS(RADIANS(Q120))</f>
-        <v>2.36</v>
-      </c>
-      <c r="U120">
-        <f t="shared" si="64"/>
-        <v>0.42949152542372898</v>
-      </c>
-      <c r="V120">
-        <f>$U$116</f>
-        <v>1</v>
-      </c>
-      <c r="W120">
-        <f>SIN(RADIANS(Q120))*T120</f>
-        <v>2.1376622745419818</v>
-      </c>
-      <c r="X120">
-        <f>W120-W119</f>
-        <v>0.38255544018687626</v>
-      </c>
-    </row>
-    <row r="121" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q120" s="11"/>
+      <c r="R120" s="8"/>
+      <c r="S120" s="8"/>
+      <c r="T120" s="8"/>
+      <c r="U120" s="8"/>
+      <c r="V120" s="8"/>
+      <c r="W120" s="8"/>
+      <c r="X120" s="8"/>
+      <c r="Y120" s="8"/>
+      <c r="Z120" s="8"/>
+      <c r="AA120" s="8"/>
+    </row>
+    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121">
+        <f>C120/360</f>
+        <v>141.52476325246346</v>
+      </c>
       <c r="D121">
         <v>13</v>
       </c>
       <c r="E121">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>79.367909729909982</v>
       </c>
       <c r="F121" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>5.4199999999999998E-2</v>
       </c>
       <c r="G121" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="56"/>
         <v>0.01</v>
       </c>
       <c r="H121" s="5">
@@ -19140,56 +18879,46 @@
         <v>5.3269503470559962E-2</v>
       </c>
       <c r="I121">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>0.72074848624887977</v>
       </c>
       <c r="J121">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>3.4634797384851465E-3</v>
       </c>
-      <c r="Q121" s="5">
-        <f t="shared" si="63"/>
-        <v>68.261539208479505</v>
-      </c>
-      <c r="S121">
-        <f>T113</f>
-        <v>1.0170000000000003</v>
-      </c>
-      <c r="T121">
-        <f>V121/COS(RADIANS(Q121))</f>
-        <v>2.6999999999999984</v>
-      </c>
-      <c r="U121">
-        <f t="shared" si="64"/>
-        <v>0.37666666666666698</v>
-      </c>
-      <c r="V121">
-        <f>$U$116</f>
-        <v>1</v>
-      </c>
-      <c r="W121">
-        <f>SIN(RADIANS(Q121))*T121</f>
-        <v>2.5079872407968886</v>
-      </c>
-      <c r="X121">
-        <f>W121-W120</f>
-        <v>0.37032496625490685</v>
-      </c>
-    </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q121" s="11"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
+      <c r="U121" s="8"/>
+      <c r="V121" s="8"/>
+      <c r="W121" s="8"/>
+      <c r="X121" s="8"/>
+      <c r="Y121" s="8"/>
+      <c r="Z121" s="8"/>
+      <c r="AA121" s="8"/>
+    </row>
+    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>73</v>
+      </c>
+      <c r="C122">
+        <f>C121*60</f>
+        <v>8491.4857951478079</v>
+      </c>
       <c r="D122">
         <v>14</v>
       </c>
       <c r="E122">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>80.002156512432251</v>
       </c>
       <c r="F122" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>5.7599999999999998E-2</v>
       </c>
       <c r="G122" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="56"/>
         <v>0.01</v>
       </c>
       <c r="H122" s="5">
@@ -19197,28 +18926,39 @@
         <v>5.6725302996105717E-2</v>
       </c>
       <c r="I122">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>0.6342467825222684</v>
       </c>
       <c r="J122">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>3.4557995255457552E-3</v>
       </c>
-    </row>
-    <row r="123" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8"/>
+      <c r="S122" s="8"/>
+      <c r="T122" s="8"/>
+      <c r="U122" s="8"/>
+      <c r="V122" s="8"/>
+      <c r="W122" s="8"/>
+      <c r="X122" s="8"/>
+      <c r="Y122" s="8"/>
+      <c r="Z122" s="8"/>
+      <c r="AA122" s="8"/>
+    </row>
+    <row r="123" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>15</v>
       </c>
       <c r="E123">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>80.56466127669681</v>
       </c>
       <c r="F123" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G123" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="56"/>
         <v>0.01</v>
       </c>
       <c r="H123" s="5">
@@ -19230,47 +18970,53 @@
         <v>0.56250476426455975</v>
       </c>
       <c r="J123">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>3.4494425372158175E-3</v>
       </c>
-      <c r="S123">
-        <f>S117-1</f>
-        <v>3.4000000000000696E-3</v>
-      </c>
-      <c r="T123">
-        <f>T117-1</f>
-        <v>0.33999999999999986</v>
-      </c>
-      <c r="U123">
-        <f>T123/S123</f>
-        <v>99.999999999997911</v>
-      </c>
-      <c r="V123">
-        <f>X117/U123</f>
-        <v>8.9196412483912874E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q123" s="8"/>
+      <c r="R123" s="8"/>
+      <c r="S123" s="8"/>
+      <c r="T123" s="8"/>
+      <c r="U123" s="8"/>
+      <c r="V123" s="8"/>
+      <c r="W123" s="8"/>
+      <c r="X123" s="8"/>
+      <c r="Y123" s="8"/>
+      <c r="Z123" s="8"/>
+      <c r="AA123" s="8"/>
+    </row>
+    <row r="124" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="J124" s="5"/>
-    </row>
-    <row r="125" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q124" s="8"/>
+      <c r="R124" s="8"/>
+      <c r="S124" s="8"/>
+      <c r="T124" s="8"/>
+      <c r="U124" s="8"/>
+      <c r="V124" s="8"/>
+      <c r="W124" s="8"/>
+      <c r="X124" s="8"/>
+      <c r="Y124" s="8"/>
+      <c r="Z124" s="8"/>
+      <c r="AA124" s="8"/>
+    </row>
+    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -19388,8 +19134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BDFF7-A03C-4436-BDC7-9DE4C8404CC4}">
   <dimension ref="B3:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19398,21 +19144,21 @@
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L5">
         <v>3500</v>
@@ -19456,15 +19202,15 @@
         <v>22</v>
       </c>
       <c r="H9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -19475,51 +19221,58 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H11">
         <f>SUM(H6:H10)</f>
-        <v>85.9</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="I11">
         <f>SUM(I6:I10)</f>
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C13">
         <v>92.5</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H13">
         <f>L5/H11</f>
-        <v>40.745052386495921</v>
+        <v>53.110773899848247</v>
       </c>
       <c r="I13">
         <f>L5/I11</f>
-        <v>77.777777777777771</v>
-      </c>
-      <c r="K13">
-        <f>I13/4</f>
-        <v>19.444444444444443</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>60000000</v>
       </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14">
+        <f>H13/4</f>
+        <v>13.277693474962062</v>
+      </c>
+      <c r="I14">
+        <f>I13/4</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>4.9999999999999997E-12</v>
@@ -19531,7 +19284,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -19539,7 +19292,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>3900</v>
@@ -19547,13 +19300,13 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -19576,7 +19329,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -19612,10 +19365,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4">
         <v>72000000</v>
       </c>
@@ -19628,13 +19381,13 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="6:11" x14ac:dyDescent="0.25">
@@ -19656,7 +19409,7 @@
         <v>3.7138888888888889E-5</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="6:11" x14ac:dyDescent="0.25">
@@ -19675,7 +19428,7 @@
         <v>1.0277777777777777E-5</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="6:11" x14ac:dyDescent="0.25">
@@ -19694,7 +19447,7 @@
         <v>7.6916666666666662E-5</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="6:11" x14ac:dyDescent="0.25">
@@ -19713,7 +19466,7 @@
         <v>1.548611111111111E-5</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
@@ -19732,7 +19485,7 @@
         <v>6.0854166666666663E-4</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="6:11" x14ac:dyDescent="0.25">
@@ -19751,7 +19504,7 @@
         <v>2.1638888888888888E-5</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="6:11" x14ac:dyDescent="0.25">
@@ -19770,7 +19523,7 @@
         <v>3.8597222222222222E-5</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="6:11" x14ac:dyDescent="0.25">
@@ -19789,7 +19542,7 @@
         <v>9.4569444444444445E-5</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="6:11" x14ac:dyDescent="0.25">
@@ -19808,7 +19561,7 @@
         <v>4.6458333333333335E-5</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="6:11" x14ac:dyDescent="0.25">

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A441F72-965E-4C72-8562-316B4F093346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C488A899-1205-432F-8957-CD5DFD19DDAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder Error" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>Number of measurments</t>
   </si>
@@ -256,12 +256,36 @@
   <si>
     <t>rpm</t>
   </si>
+  <si>
+    <t>Cap Reac</t>
+  </si>
+  <si>
+    <t>Frec</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>V out</t>
+  </si>
+  <si>
+    <t>Cut Freq</t>
+  </si>
+  <si>
+    <t>Capacit</t>
+  </si>
+  <si>
+    <t>Impedanc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -274,6 +298,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -302,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,6 +367,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,9 +397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>562958</xdr:colOff>
+      <xdr:colOff>551528</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>129515</xdr:rowOff>
+      <xdr:rowOff>137135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13412,8 +13444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11AFDFB-30EA-4EFD-BE21-A5C5DCB81B95}">
   <dimension ref="B2:AA147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19002,101 +19034,155 @@
       <c r="AA124" s="8"/>
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>79</v>
+      </c>
+      <c r="C125">
+        <v>500</v>
+      </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126">
+        <v>100</v>
+      </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B127" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127">
+        <f>1/(2*3.1416*C126*C125)</f>
+        <v>3.1830914183855364E-6</v>
+      </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C128" s="4"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>75</v>
+      </c>
+      <c r="C129">
+        <f>C121</f>
+        <v>141.52476325246346</v>
+      </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" s="14">
+        <f>1/(2*3.1416*C129*C127)</f>
+        <v>353.29506194478415</v>
+      </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C132">
+        <v>2.8</v>
+      </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
     </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" s="14">
+        <f>(C130 *C132)/SQRT(POWER(C126,2)+POWER(C130,2))</f>
+        <v>2.6941552837864267</v>
+      </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
     </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
     </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135">
+        <f>SQRT(POWER(C126,2)+POWER(C130,2))</f>
+        <v>367.17489129101529</v>
+      </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
     </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
     </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C488A899-1205-432F-8957-CD5DFD19DDAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA622424-124A-4BB1-A5D1-4F3D212D0385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder Error" sheetId="1" r:id="rId1"/>
     <sheet name="Angle" sheetId="2" r:id="rId2"/>
     <sheet name="Battery Consumption" sheetId="3" r:id="rId3"/>
     <sheet name="Cycle Counting" sheetId="4" r:id="rId4"/>
+    <sheet name="ADC" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>Number of measurments</t>
   </si>
@@ -280,12 +281,33 @@
   <si>
     <t>Impedanc</t>
   </si>
+  <si>
+    <t>Sin</t>
+  </si>
+  <si>
+    <t>Cos</t>
+  </si>
+  <si>
+    <t>Cos Corr</t>
+  </si>
+  <si>
+    <t>Dsin</t>
+  </si>
+  <si>
+    <t>Dcos</t>
+  </si>
+  <si>
+    <t>Atan</t>
+  </si>
+  <si>
+    <t>Atan Corr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -304,6 +326,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -332,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,14 +396,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13444,8 +13484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11AFDFB-30EA-4EFD-BE21-A5C5DCB81B95}">
   <dimension ref="B2:AA147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13466,33 +13506,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="18"/>
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="18"/>
       <c r="I2">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -18159,10 +18199,10 @@
       <c r="AA107" s="8"/>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C108" s="12"/>
+      <c r="C108" s="17"/>
       <c r="D108" s="6">
         <v>0</v>
       </c>
@@ -19056,7 +19096,7 @@
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="14" t="s">
         <v>80</v>
       </c>
       <c r="C127">
@@ -19086,10 +19126,10 @@
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C130" s="14">
+      <c r="C130" s="13">
         <f>1/(2*3.1416*C129*C127)</f>
         <v>353.29506194478415</v>
       </c>
@@ -19103,7 +19143,7 @@
       <c r="I131" s="5"/>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C132">
@@ -19117,7 +19157,7 @@
       <c r="B133" t="s">
         <v>78</v>
       </c>
-      <c r="C133" s="14">
+      <c r="C133" s="13">
         <f>(C130 *C132)/SQRT(POWER(C126,2)+POWER(C130,2))</f>
         <v>2.6941552837864267</v>
       </c>
@@ -19218,10 +19258,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BDFF7-A03C-4436-BDC7-9DE4C8404CC4}">
-  <dimension ref="B3:L23"/>
+  <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="C10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19234,17 +19274,39 @@
     <col min="11" max="11" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="12"/>
+    </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>14.9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K5" t="s">
-        <v>56</v>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
       </c>
       <c r="L5">
         <v>3500</v>
@@ -19252,108 +19314,87 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <f>SUM(H4:H8)</f>
+        <v>65.900000000000006</v>
       </c>
       <c r="I9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10">
-        <v>14</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <f>SUM(I4:I8)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11">
-        <f>SUM(H6:H10)</f>
-        <v>65.900000000000006</v>
+        <f>L5/H9</f>
+        <v>53.110773899848247</v>
       </c>
       <c r="I11">
-        <f>SUM(I6:I10)</f>
-        <v>25</v>
+        <f>L5/I9</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12">
+        <f>H11/4</f>
+        <v>13.277693474962062</v>
+      </c>
+      <c r="I12">
+        <f>I11/4</f>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="C13">
-        <v>92.5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13">
-        <f>L5/H11</f>
-        <v>53.110773899848247</v>
-      </c>
-      <c r="I13">
-        <f>L5/I11</f>
-        <v>140</v>
-      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>63</v>
       </c>
       <c r="C14">
-        <v>60000000</v>
-      </c>
-      <c r="G14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14">
-        <f>H13/4</f>
-        <v>13.277693474962062</v>
-      </c>
-      <c r="I14">
-        <f>I13/4</f>
-        <v>35</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -19361,11 +19402,7 @@
         <v>64</v>
       </c>
       <c r="C15">
-        <v>4.9999999999999997E-12</v>
-      </c>
-      <c r="E15">
-        <f>C13/(C14*C15*LN(2^(C16+1)))-C17</f>
-        <v>30317.766995443366</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -19373,7 +19410,11 @@
         <v>65</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="E16">
+        <f>C14/(C15*C16*LN(2^(C17+1)))-C18</f>
+        <v>30317.766995443366</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -19381,52 +19422,57 @@
         <v>66</v>
       </c>
       <c r="C17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>3900</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>67</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>69</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <f>2.5/(2^C16)</f>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>2.5/(2^C17)</f>
         <v>6.103515625E-4</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <f>2.4/360</f>
         <v>6.6666666666666662E-3</v>
       </c>
-      <c r="F20">
-        <f>360/2.4 * (2.5/(2^C16))</f>
+      <c r="F21">
+        <f>360/2.4 * (D21)</f>
         <v>9.1552734375E-2</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <f>360/2.4</f>
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E23">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E24">
         <f>2.4/3600</f>
         <v>6.6666666666666664E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19451,10 +19497,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="18"/>
       <c r="H4">
         <v>72000000</v>
       </c>
@@ -19717,4 +19763,581 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9794E4-8E8D-461D-9918-F078072C3809}">
+  <dimension ref="C4:Q24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>SIN(RADIANS(C6))*($F$2/2)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>COS(RADIANS(C6))</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G18" si="0">C6+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <f>SIN(RADIANS(G6))</f>
+        <v>1.7453283658983088E-3</v>
+      </c>
+      <c r="I6" s="15">
+        <f>COS(RADIANS(G6))</f>
+        <v>0.99999847691328769</v>
+      </c>
+      <c r="K6">
+        <f>TRUNC(I6/0.0006,0)*0.0006</f>
+        <v>0.99959999999999993</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M18" si="1">H6-D6</f>
+        <v>1.7453283658983088E-3</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" ref="N6:N18" si="2">I6-E6</f>
+        <v>-1.5230867123072755E-6</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P15" si="3">DEGREES(ATAN2(I6,H6))</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q6">
+        <f>DEGREES(ATAN2(K6,H6))</f>
+        <v>0.10003986355578073</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f>SIN(RADIANS(C7))</f>
+        <v>8.7155742747658166E-2</v>
+      </c>
+      <c r="E7">
+        <f>COS(RADIANS(C7))</f>
+        <v>0.99619469809174555</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H7">
+        <f>SIN(RADIANS(G7))</f>
+        <v>8.8894296866441513E-2</v>
+      </c>
+      <c r="I7">
+        <f>COS(RADIANS(G7))</f>
+        <v>0.99604106541076953</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K9" si="4">TRUNC(I7/0.0006,0)*0.0006</f>
+        <v>0.99599999999999989</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>1.7385541187833475E-3</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="2"/>
+        <v>-1.5363268097601246E-4</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q15" si="5">DEGREES(ATAN2(K7,H7))</f>
+        <v>5.1002091656994137</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D11" si="6">SIN(RADIANS(C8))</f>
+        <v>0.17364817766693033</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E11" si="7">COS(RADIANS(C8))</f>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>10.1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H11" si="8">SIN(RADIANS(G8))</f>
+        <v>0.17536672609198711</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I11" si="9">COS(RADIANS(G8))</f>
+        <v>0.98450317997443659</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0.98399999999999987</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1.7185484250567817E-3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>-3.045730377714273E-4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>10.100000000000001</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>10.105058344099122</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="6"/>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="7"/>
+        <v>0.93969262078590843</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="8"/>
+        <v>0.34365969458561607</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="9"/>
+        <v>0.93909425209470909</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>1.6395512599473583E-3</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>-5.9836869119933578E-4</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>20.101856011594094</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="6"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="7"/>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>30.1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="8"/>
+        <v>0.50151073715945738</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="9"/>
+        <v>0.8651514205697044</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>1.5107371594574315E-3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>-8.7398321473430851E-4</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>30.100000000000005</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="6"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="7"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>45.1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="8"/>
+        <v>0.7083398377245288</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="9"/>
+        <v>0.705871570678681</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>1.2330565379813363E-3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>-1.2352105078665687E-3</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>45.099999999999994</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D18" si="10">SIN(RADIANS(C12))</f>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E18" si="11">COS(RADIANS(C12))</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>90.1</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" ref="H12:H18" si="12">SIN(RADIANS(G12))</f>
+        <v>0.99999847691328769</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I18" si="13">COS(RADIANS(G12))</f>
+        <v>-1.745328365898139E-3</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="1"/>
+        <v>-1.5230867123072755E-6</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>-1.7453283658982002E-3</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>90.09999999999998</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>135</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="10"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="11"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>135.1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="12"/>
+        <v>0.70587157067868112</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="13"/>
+        <v>-0.70833983772452869</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>-1.2352105078664577E-3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>-1.2330565379812253E-3</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>135.1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="10"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="11"/>
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>150.1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="12"/>
+        <v>0.49848773975383037</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="13"/>
+        <v>-0.86689674893560276</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>-1.5122602461695722E-3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>-8.7134515116404909E-4</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>150.1</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>160</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="10"/>
+        <v>0.34202014332566888</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="11"/>
+        <v>-0.93969262078590832</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>160.1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="12"/>
+        <v>0.34037955021305039</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="13"/>
+        <v>-0.94028812701041886</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>-1.6405931126184936E-3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>-5.9550622451054469E-4</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>160.1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>170</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="10"/>
+        <v>0.17364817766693028</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="11"/>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>170.1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="12"/>
+        <v>0.17192910027940958</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="13"/>
+        <v>-0.98510932615477387</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>-1.7190773875206955E-3</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>-3.0157314256584744E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>175</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="10"/>
+        <v>8.7155742747658194E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="11"/>
+        <v>-0.99619469809174555</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>175.1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="12"/>
+        <v>8.5416923137367595E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="13"/>
+        <v>-0.99634529619090639</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>-1.7388196102905984E-3</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" si="2"/>
+        <v>-1.5059809916084799E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>180</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="10"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>180.1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="12"/>
+        <v>-1.7453283658980777E-3</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.99999847691328769</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>-1.7453283658982002E-3</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5230867123072755E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H23" s="16"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="3:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H24" s="15"/>
+      <c r="K24" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA622424-124A-4BB1-A5D1-4F3D212D0385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC58681-75FE-47B0-A7C4-B210413F807D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>Number of measurments</t>
   </si>
@@ -288,9 +288,6 @@
     <t>Cos</t>
   </si>
   <si>
-    <t>Cos Corr</t>
-  </si>
-  <si>
     <t>Dsin</t>
   </si>
   <si>
@@ -300,7 +297,16 @@
     <t>Atan</t>
   </si>
   <si>
-    <t>Atan Corr</t>
+    <t>CosCorr T</t>
+  </si>
+  <si>
+    <t>Cos Corr R</t>
+  </si>
+  <si>
+    <t>Atan Corr R</t>
+  </si>
+  <si>
+    <t>Atan Corr T</t>
   </si>
 </sst>
 </file>
@@ -19260,8 +19266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BDFF7-A03C-4436-BDC7-9DE4C8404CC4}">
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19767,575 +19773,746 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9794E4-8E8D-461D-9918-F078072C3809}">
-  <dimension ref="C4:Q24"/>
+  <dimension ref="A4:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" t="s">
         <v>83</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" t="s">
         <v>82</v>
       </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
       <c r="I4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s">
         <v>84</v>
       </c>
       <c r="M4" t="s">
         <v>85</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="3:17" ht="14.4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>SIN(RADIANS(A6))*($F$2/2)</f>
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f>SIN(RADIANS(C6))*($F$2/2)</f>
-        <v>0</v>
+        <f>COS(RADIANS(A6))</f>
+        <v>1</v>
       </c>
       <c r="E6">
-        <f>COS(RADIANS(C6))</f>
+        <f>A6+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <f>SIN(RADIANS(E6))</f>
+        <v>1.7453283658983088E-3</v>
+      </c>
+      <c r="G6" s="15">
+        <f>COS(RADIANS(E6))</f>
+        <v>0.99999847691328769</v>
+      </c>
+      <c r="I6">
+        <f>ROUND(G6/0.0006,0)*0.0006</f>
+        <v>1.0002</v>
+      </c>
+      <c r="J6">
+        <f>TRUNC(G6/0.0006,0)*0.0006</f>
+        <v>0.99959999999999993</v>
+      </c>
+      <c r="L6">
+        <f>F6-B6</f>
+        <v>1.7453283658983088E-3</v>
+      </c>
+      <c r="M6" s="15">
+        <f>G6-C6</f>
+        <v>-1.5230867123072755E-6</v>
+      </c>
+      <c r="O6">
+        <f>DEGREES(ATAN2(G6,F6))</f>
+        <v>0.1</v>
+      </c>
+      <c r="P6">
+        <f>DEGREES(ATAN2(I6,F6))</f>
+        <v>9.9979851761888963E-2</v>
+      </c>
+      <c r="Q6">
+        <f>DEGREES(ATAN2(J6,F6))</f>
+        <v>0.10003986355578073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>SIN(RADIANS(A7))</f>
+        <v>8.7155742747658166E-2</v>
+      </c>
+      <c r="C7">
+        <f>COS(RADIANS(A7))</f>
+        <v>0.99619469809174555</v>
+      </c>
+      <c r="E7">
+        <f>A7+0.1</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F7">
+        <f>SIN(RADIANS(E7))</f>
+        <v>8.8894296866441513E-2</v>
+      </c>
+      <c r="G7">
+        <f>COS(RADIANS(E7))</f>
+        <v>0.99604106541076953</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I17" si="0">ROUND(G7/0.0006,0)*0.0006</f>
+        <v>0.99599999999999989</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J17" si="1">TRUNC(G7/0.0006,0)*0.0006</f>
+        <v>0.99599999999999989</v>
+      </c>
+      <c r="L7">
+        <f>F7-B7</f>
+        <v>1.7385541187833475E-3</v>
+      </c>
+      <c r="M7" s="16">
+        <f>G7-C7</f>
+        <v>-1.5363268097601246E-4</v>
+      </c>
+      <c r="O7">
+        <f>DEGREES(ATAN2(G7,F7))</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P7">
+        <f>DEGREES(ATAN2(I7,F7))</f>
+        <v>5.1002091656994137</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q17" si="2">DEGREES(ATAN2(J7,F7))</f>
+        <v>5.1002091656994137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B11" si="3">SIN(RADIANS(A8))</f>
+        <v>0.17364817766693033</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C11" si="4">COS(RADIANS(A8))</f>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="E8">
+        <f>A8+0.1</f>
+        <v>10.1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F11" si="5">SIN(RADIANS(E8))</f>
+        <v>0.17536672609198711</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="6">COS(RADIANS(E8))</f>
+        <v>0.98450317997443659</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.98459999999999992</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.98399999999999987</v>
+      </c>
+      <c r="L8">
+        <f>F8-B8</f>
+        <v>1.7185484250567817E-3</v>
+      </c>
+      <c r="M8">
+        <f>G8-C8</f>
+        <v>-3.045730377714273E-4</v>
+      </c>
+      <c r="O8">
+        <f>DEGREES(ATAN2(G8,F8))</f>
+        <v>10.100000000000001</v>
+      </c>
+      <c r="P8">
+        <f>DEGREES(ATAN2(I8,F8))</f>
+        <v>10.099027267055572</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>10.105058344099122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="3"/>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="4"/>
+        <v>0.93969262078590843</v>
+      </c>
+      <c r="E9">
+        <f>A9+0.1</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>0.34365969458561607</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>0.93909425209470909</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L9">
+        <f>F9-B9</f>
+        <v>1.6395512599473583E-3</v>
+      </c>
+      <c r="M9">
+        <f>G9-C9</f>
+        <v>-5.9836869119933578E-4</v>
+      </c>
+      <c r="O9">
+        <f>DEGREES(ATAN2(G9,F9))</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="P9">
+        <f>DEGREES(ATAN2(I9,F9))</f>
+        <v>20.101856011594094</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>20.101856011594094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="3"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="E10">
+        <f>A10+0.1</f>
+        <v>30.1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>0.50151073715945738</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>0.8651514205697044</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.86459999999999992</v>
+      </c>
+      <c r="L10">
+        <f>F10-B10</f>
+        <v>1.5107371594574315E-3</v>
+      </c>
+      <c r="M10">
+        <f>G10-C10</f>
+        <v>-8.7398321473430851E-4</v>
+      </c>
+      <c r="O10">
+        <f>DEGREES(ATAN2(G10,F10))</f>
+        <v>30.100000000000005</v>
+      </c>
+      <c r="P10">
+        <f>DEGREES(ATAN2(I10,F10))</f>
+        <v>30.098604155521816</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>30.115852328171705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="3"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="E11">
+        <f>A11+0.1</f>
+        <v>45.1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>0.7083398377245288</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>0.705871570678681</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.70559999999999989</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.70559999999999989</v>
+      </c>
+      <c r="L11">
+        <f>F11-B11</f>
+        <v>1.2330565379813363E-3</v>
+      </c>
+      <c r="M11">
+        <f>G11-C11</f>
+        <v>-1.2352105078665687E-3</v>
+      </c>
+      <c r="O11">
+        <f>DEGREES(ATAN2(G11,F11))</f>
+        <v>45.099999999999994</v>
+      </c>
+      <c r="P11">
+        <f>DEGREES(ATAN2(I11,F11))</f>
+        <v>45.111023777320867</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>45.111023777320867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <f>SIN(RADIANS(A12))</f>
         <v>1</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G18" si="0">C6+0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="H6">
-        <f>SIN(RADIANS(G6))</f>
-        <v>1.7453283658983088E-3</v>
-      </c>
-      <c r="I6" s="15">
-        <f>COS(RADIANS(G6))</f>
+      <c r="C12">
+        <f>COS(RADIANS(A12))</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="E12">
+        <f>A12+0.1</f>
+        <v>90.1</v>
+      </c>
+      <c r="F12" s="15">
+        <f>SIN(RADIANS(E12))</f>
         <v>0.99999847691328769</v>
       </c>
-      <c r="K6">
-        <f>TRUNC(I6/0.0006,0)*0.0006</f>
-        <v>0.99959999999999993</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M18" si="1">H6-D6</f>
-        <v>1.7453283658983088E-3</v>
-      </c>
-      <c r="N6" s="15">
-        <f t="shared" ref="N6:N18" si="2">I6-E6</f>
+      <c r="G12">
+        <f>COS(RADIANS(E12))</f>
+        <v>-1.745328365898139E-3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>-1.8E-3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="L12" s="15">
+        <f>F12-B12</f>
         <v>-1.5230867123072755E-6</v>
       </c>
-      <c r="P6">
-        <f t="shared" ref="P6:P15" si="3">DEGREES(ATAN2(I6,H6))</f>
-        <v>0.1</v>
-      </c>
-      <c r="Q6">
-        <f>DEGREES(ATAN2(K6,H6))</f>
-        <v>0.10003986355578073</v>
-      </c>
-    </row>
-    <row r="7" spans="3:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <f>SIN(RADIANS(C7))</f>
-        <v>8.7155742747658166E-2</v>
-      </c>
-      <c r="E7">
-        <f>COS(RADIANS(C7))</f>
-        <v>0.99619469809174555</v>
-      </c>
-      <c r="G7">
+      <c r="M12">
+        <f>G12-C12</f>
+        <v>-1.7453283658982002E-3</v>
+      </c>
+      <c r="O12">
+        <f>DEGREES(ATAN2(G12,F12))</f>
+        <v>90.09999999999998</v>
+      </c>
+      <c r="P12">
+        <f>DEGREES(ATAN2(I12,F12))</f>
+        <v>90.103132448820091</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>90.068755007133092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>135</v>
+      </c>
+      <c r="B13">
+        <f>SIN(RADIANS(A13))</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="C13">
+        <f>COS(RADIANS(A13))</f>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="E13">
+        <f>A13+0.1</f>
+        <v>135.1</v>
+      </c>
+      <c r="F13">
+        <f>SIN(RADIANS(E13))</f>
+        <v>0.70587157067868112</v>
+      </c>
+      <c r="G13">
+        <f>COS(RADIANS(E13))</f>
+        <v>-0.70833983772452869</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H7">
-        <f>SIN(RADIANS(G7))</f>
-        <v>8.8894296866441513E-2</v>
-      </c>
-      <c r="I7">
-        <f>COS(RADIANS(G7))</f>
-        <v>0.99604106541076953</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K9" si="4">TRUNC(I7/0.0006,0)*0.0006</f>
-        <v>0.99599999999999989</v>
-      </c>
-      <c r="M7">
+        <v>-0.7085999999999999</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="1"/>
-        <v>1.7385541187833475E-3</v>
-      </c>
-      <c r="N7" s="16">
+        <v>-0.70799999999999996</v>
+      </c>
+      <c r="L13">
+        <f>F13-B13</f>
+        <v>-1.2352105078664577E-3</v>
+      </c>
+      <c r="M13">
+        <f>G13-C13</f>
+        <v>-1.2330565379812253E-3</v>
+      </c>
+      <c r="O13">
+        <f>DEGREES(ATAN2(G13,F13))</f>
+        <v>135.1</v>
+      </c>
+      <c r="P13">
+        <f>DEGREES(ATAN2(I13,F13))</f>
+        <v>135.11051992430552</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="2"/>
-        <v>-1.5363268097601246E-4</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="3"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" ref="Q7:Q15" si="5">DEGREES(ATAN2(K7,H7))</f>
-        <v>5.1002091656994137</v>
-      </c>
-    </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D11" si="6">SIN(RADIANS(C8))</f>
-        <v>0.17364817766693033</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E11" si="7">COS(RADIANS(C8))</f>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="G8">
+        <v>135.086252476895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>150</v>
+      </c>
+      <c r="B14">
+        <f>SIN(RADIANS(A14))</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="C14">
+        <f>COS(RADIANS(A14))</f>
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="E14">
+        <f>A14+0.1</f>
+        <v>150.1</v>
+      </c>
+      <c r="F14">
+        <f>SIN(RADIANS(E14))</f>
+        <v>0.49848773975383037</v>
+      </c>
+      <c r="G14">
+        <f>COS(RADIANS(E14))</f>
+        <v>-0.86689674893560276</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="0"/>
-        <v>10.1</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H11" si="8">SIN(RADIANS(G8))</f>
-        <v>0.17536672609198711</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I11" si="9">COS(RADIANS(G8))</f>
-        <v>0.98450317997443659</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="4"/>
-        <v>0.98399999999999987</v>
-      </c>
-      <c r="M8">
+        <v>-0.86699999999999988</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>1.7185484250567817E-3</v>
-      </c>
-      <c r="N8">
+        <v>-0.86639999999999995</v>
+      </c>
+      <c r="L14">
+        <f>F14-B14</f>
+        <v>-1.5122602461695722E-3</v>
+      </c>
+      <c r="M14">
+        <f>G14-C14</f>
+        <v>-8.7134515116404909E-4</v>
+      </c>
+      <c r="O14">
+        <f>DEGREES(ATAN2(G14,F14))</f>
+        <v>150.1</v>
+      </c>
+      <c r="P14">
+        <f>DEGREES(ATAN2(I14,F14))</f>
+        <v>150.10294871486877</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="2"/>
-        <v>-3.045730377714273E-4</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="3"/>
-        <v>10.100000000000001</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="5"/>
-        <v>10.105058344099122</v>
-      </c>
-    </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="6"/>
-        <v>0.34202014332566871</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="7"/>
-        <v>0.93969262078590843</v>
-      </c>
-      <c r="G9">
+        <v>150.08580612060825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>160</v>
+      </c>
+      <c r="B15">
+        <f>SIN(RADIANS(A15))</f>
+        <v>0.34202014332566888</v>
+      </c>
+      <c r="C15">
+        <f>COS(RADIANS(A15))</f>
+        <v>-0.93969262078590832</v>
+      </c>
+      <c r="E15">
+        <f>A15+0.1</f>
+        <v>160.1</v>
+      </c>
+      <c r="F15">
+        <f>SIN(RADIANS(E15))</f>
+        <v>0.34037955021305039</v>
+      </c>
+      <c r="G15">
+        <f>COS(RADIANS(E15))</f>
+        <v>-0.94028812701041886</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="0"/>
-        <v>20.100000000000001</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="8"/>
-        <v>0.34365969458561607</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="9"/>
-        <v>0.93909425209470909</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="M9">
+        <v>-0.94019999999999992</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="1"/>
-        <v>1.6395512599473583E-3</v>
-      </c>
-      <c r="N9">
+        <v>-0.94019999999999992</v>
+      </c>
+      <c r="L15">
+        <f>F15-B15</f>
+        <v>-1.6405931126184936E-3</v>
+      </c>
+      <c r="M15">
+        <f>G15-C15</f>
+        <v>-5.9550622451054469E-4</v>
+      </c>
+      <c r="O15">
+        <f>DEGREES(ATAN2(G15,F15))</f>
+        <v>160.1</v>
+      </c>
+      <c r="P15">
+        <f>DEGREES(ATAN2(I15,F15))</f>
+        <v>160.09828117714778</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="2"/>
-        <v>-5.9836869119933578E-4</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
-        <v>20.100000000000001</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>20.101856011594094</v>
-      </c>
-    </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="6"/>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="7"/>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="G10">
+        <v>160.09828117714778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>170</v>
+      </c>
+      <c r="B16">
+        <f>SIN(RADIANS(A16))</f>
+        <v>0.17364817766693028</v>
+      </c>
+      <c r="C16">
+        <f>COS(RADIANS(A16))</f>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="E16">
+        <f>A16+0.1</f>
+        <v>170.1</v>
+      </c>
+      <c r="F16">
+        <f>SIN(RADIANS(E16))</f>
+        <v>0.17192910027940958</v>
+      </c>
+      <c r="G16">
+        <f>COS(RADIANS(E16))</f>
+        <v>-0.98510932615477387</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="0"/>
-        <v>30.1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="8"/>
-        <v>0.50151073715945738</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="9"/>
-        <v>0.8651514205697044</v>
-      </c>
-      <c r="M10">
+        <v>-0.98519999999999996</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="1"/>
-        <v>1.5107371594574315E-3</v>
-      </c>
-      <c r="N10">
+        <v>-0.98459999999999992</v>
+      </c>
+      <c r="L16">
+        <f>F16-B16</f>
+        <v>-1.7190773875206955E-3</v>
+      </c>
+      <c r="M16">
+        <f>G16-C16</f>
+        <v>-3.0157314256584744E-4</v>
+      </c>
+      <c r="O16">
+        <f>DEGREES(ATAN2(G16,F16))</f>
+        <v>170.1</v>
+      </c>
+      <c r="P16">
+        <f>DEGREES(ATAN2(I16,F16))</f>
+        <v>170.10089313120864</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="2"/>
-        <v>-8.7398321473430851E-4</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
-        <v>30.100000000000005</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>45</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="6"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="7"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="G11">
+        <v>170.09498020526482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>175</v>
+      </c>
+      <c r="B17">
+        <f>SIN(RADIANS(A17))</f>
+        <v>8.7155742747658194E-2</v>
+      </c>
+      <c r="C17">
+        <f>COS(RADIANS(A17))</f>
+        <v>-0.99619469809174555</v>
+      </c>
+      <c r="E17">
+        <f>A17+0.1</f>
+        <v>175.1</v>
+      </c>
+      <c r="F17">
+        <f>SIN(RADIANS(E17))</f>
+        <v>8.5416923137367595E-2</v>
+      </c>
+      <c r="G17">
+        <f>COS(RADIANS(E17))</f>
+        <v>-0.99634529619090639</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="0"/>
-        <v>45.1</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="8"/>
-        <v>0.7083398377245288</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="9"/>
-        <v>0.705871570678681</v>
-      </c>
-      <c r="M11">
+        <v>-0.99659999999999993</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="1"/>
-        <v>1.2330565379813363E-3</v>
-      </c>
-      <c r="N11">
+        <v>-0.99599999999999989</v>
+      </c>
+      <c r="L17">
+        <f>F17-B17</f>
+        <v>-1.7388196102905984E-3</v>
+      </c>
+      <c r="M17" s="16">
+        <f>G17-C17</f>
+        <v>-1.5059809916084799E-4</v>
+      </c>
+      <c r="O17">
+        <f>DEGREES(ATAN2(G17,F17))</f>
+        <v>175.1</v>
+      </c>
+      <c r="P17">
+        <f>DEGREES(ATAN2(I17,F17))</f>
+        <v>175.10124621162274</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="2"/>
-        <v>-1.2352105078665687E-3</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="3"/>
-        <v>45.099999999999994</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="3:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>90</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D18" si="10">SIN(RADIANS(C12))</f>
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:E18" si="11">COS(RADIANS(C12))</f>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>90.1</v>
-      </c>
-      <c r="H12" s="15">
-        <f t="shared" ref="H12:H18" si="12">SIN(RADIANS(G12))</f>
-        <v>0.99999847691328769</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ref="I12:I18" si="13">COS(RADIANS(G12))</f>
-        <v>-1.745328365898139E-3</v>
-      </c>
-      <c r="M12" s="15">
-        <f t="shared" si="1"/>
-        <v>-1.5230867123072755E-6</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
-        <v>-1.7453283658982002E-3</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="3"/>
-        <v>90.09999999999998</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>135</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="10"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="11"/>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>135.1</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="12"/>
-        <v>0.70587157067868112</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="13"/>
-        <v>-0.70833983772452869</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>-1.2352105078664577E-3</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="2"/>
-        <v>-1.2330565379812253E-3</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="3"/>
-        <v>135.1</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>150</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="10"/>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="11"/>
-        <v>-0.86602540378443871</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>150.1</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="12"/>
-        <v>0.49848773975383037</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="13"/>
-        <v>-0.86689674893560276</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>-1.5122602461695722E-3</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
-        <v>-8.7134515116404909E-4</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="3"/>
-        <v>150.1</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>160</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="10"/>
-        <v>0.34202014332566888</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="11"/>
-        <v>-0.93969262078590832</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>160.1</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="12"/>
-        <v>0.34037955021305039</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="13"/>
-        <v>-0.94028812701041886</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>-1.6405931126184936E-3</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="2"/>
-        <v>-5.9550622451054469E-4</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="3"/>
-        <v>160.1</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>170</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="10"/>
-        <v>0.17364817766693028</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="11"/>
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>170.1</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="12"/>
-        <v>0.17192910027940958</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="13"/>
-        <v>-0.98510932615477387</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>-1.7190773875206955E-3</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="2"/>
-        <v>-3.0157314256584744E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>175</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="10"/>
-        <v>8.7155742747658194E-2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="11"/>
-        <v>-0.99619469809174555</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>175.1</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="12"/>
-        <v>8.5416923137367595E-2</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="13"/>
-        <v>-0.99634529619090639</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>-1.7388196102905984E-3</v>
-      </c>
-      <c r="N17" s="16">
-        <f t="shared" si="2"/>
-        <v>-1.5059809916084799E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>180</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="10"/>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>180.1</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="12"/>
-        <v>-1.7453283658980777E-3</v>
-      </c>
-      <c r="I18" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.99999847691328769</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>-1.7453283658982002E-3</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="2"/>
-        <v>1.5230867123072755E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="3:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H24" s="15"/>
-      <c r="K24" s="15"/>
+        <v>175.09830952878136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="22" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G22" s="15"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M23" s="16"/>
+    </row>
+    <row r="25" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M25" s="16"/>
+    </row>
+    <row r="27" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M27" s="16"/>
+    </row>
+    <row r="29" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M29" s="16"/>
+    </row>
+    <row r="31" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M31" s="16"/>
+    </row>
+    <row r="33" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M33" s="16"/>
+    </row>
+    <row r="35" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M35" s="16"/>
+    </row>
+    <row r="37" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M37" s="16"/>
+    </row>
+    <row r="39" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M39" s="16"/>
+    </row>
+    <row r="41" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M41" s="16"/>
+    </row>
+    <row r="43" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M43" s="16"/>
+    </row>
+    <row r="46" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M46" s="16"/>
+    </row>
+    <row r="49" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M49" s="16"/>
+    </row>
+    <row r="52" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M52" s="16"/>
+    </row>
+    <row r="55" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M55" s="16"/>
+    </row>
+    <row r="58" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M58" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC58681-75FE-47B0-A7C4-B210413F807D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534E88C4-3762-4218-824F-9E4DE0855527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder Error" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -346,6 +346,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -373,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -415,6 +422,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +491,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -784,7 +793,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -13494,7 +13503,7 @@
       <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
@@ -19266,11 +19275,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BDFF7-A03C-4436-BDC7-9DE4C8404CC4}">
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
@@ -19300,8 +19309,8 @@
       <c r="H4">
         <v>14.9</v>
       </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="I4" s="20">
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -19323,17 +19332,18 @@
         <v>21</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="20">
         <v>15</v>
       </c>
       <c r="I7">
@@ -19357,11 +19367,11 @@
       </c>
       <c r="H9">
         <f>SUM(H4:H8)</f>
-        <v>65.900000000000006</v>
+        <v>53.9</v>
       </c>
       <c r="I9">
         <f>SUM(I4:I8)</f>
-        <v>25</v>
+        <v>25.414000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -19370,11 +19380,11 @@
       </c>
       <c r="H11">
         <f>L5/H9</f>
-        <v>53.110773899848247</v>
+        <v>64.935064935064943</v>
       </c>
       <c r="I11">
         <f>L5/I9</f>
-        <v>140</v>
+        <v>137.71936727787832</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -19383,11 +19393,11 @@
       </c>
       <c r="H12">
         <f>H11/4</f>
-        <v>13.277693474962062</v>
+        <v>16.233766233766236</v>
       </c>
       <c r="I12">
         <f>I11/4</f>
-        <v>35</v>
+        <v>34.42984181946958</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -19481,6 +19491,7 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19492,7 +19503,7 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
@@ -19775,11 +19786,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9794E4-8E8D-461D-9918-F078072C3809}">
   <dimension ref="A4:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="10.44140625" customWidth="1"/>
     <col min="13" max="13" width="12.109375" customWidth="1"/>
@@ -19835,7 +19846,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>A6+0.1</f>
+        <f t="shared" ref="E6:E17" si="0">A6+0.1</f>
         <v>0.1</v>
       </c>
       <c r="F6">
@@ -19855,19 +19866,19 @@
         <v>0.99959999999999993</v>
       </c>
       <c r="L6">
-        <f>F6-B6</f>
+        <f t="shared" ref="L6:L17" si="1">F6-B6</f>
         <v>1.7453283658983088E-3</v>
       </c>
       <c r="M6" s="15">
-        <f>G6-C6</f>
+        <f t="shared" ref="M6:M17" si="2">G6-C6</f>
         <v>-1.5230867123072755E-6</v>
       </c>
       <c r="O6">
-        <f>DEGREES(ATAN2(G6,F6))</f>
+        <f t="shared" ref="O6:O17" si="3">DEGREES(ATAN2(G6,F6))</f>
         <v>0.1</v>
       </c>
       <c r="P6">
-        <f>DEGREES(ATAN2(I6,F6))</f>
+        <f t="shared" ref="P6:P17" si="4">DEGREES(ATAN2(I6,F6))</f>
         <v>9.9979851761888963E-2</v>
       </c>
       <c r="Q6">
@@ -19888,7 +19899,7 @@
         <v>0.99619469809174555</v>
       </c>
       <c r="E7">
-        <f>A7+0.1</f>
+        <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="F7">
@@ -19900,31 +19911,31 @@
         <v>0.99604106541076953</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I17" si="0">ROUND(G7/0.0006,0)*0.0006</f>
+        <f t="shared" ref="I7:I17" si="5">ROUND(G7/0.0006,0)*0.0006</f>
         <v>0.99599999999999989</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J17" si="1">TRUNC(G7/0.0006,0)*0.0006</f>
+        <f t="shared" ref="J7:J17" si="6">TRUNC(G7/0.0006,0)*0.0006</f>
         <v>0.99599999999999989</v>
       </c>
       <c r="L7">
-        <f>F7-B7</f>
+        <f t="shared" si="1"/>
         <v>1.7385541187833475E-3</v>
       </c>
       <c r="M7" s="16">
-        <f>G7-C7</f>
+        <f t="shared" si="2"/>
         <v>-1.5363268097601246E-4</v>
       </c>
       <c r="O7">
-        <f>DEGREES(ATAN2(G7,F7))</f>
+        <f t="shared" si="3"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="P7">
-        <f>DEGREES(ATAN2(I7,F7))</f>
+        <f t="shared" si="4"/>
         <v>5.1002091656994137</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:Q17" si="2">DEGREES(ATAN2(J7,F7))</f>
+        <f t="shared" ref="Q7:Q17" si="7">DEGREES(ATAN2(J7,F7))</f>
         <v>5.1002091656994137</v>
       </c>
     </row>
@@ -19933,51 +19944,51 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B11" si="3">SIN(RADIANS(A8))</f>
+        <f t="shared" ref="B8:B11" si="8">SIN(RADIANS(A8))</f>
         <v>0.17364817766693033</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C11" si="4">COS(RADIANS(A8))</f>
+        <f t="shared" ref="C8:C11" si="9">COS(RADIANS(A8))</f>
         <v>0.98480775301220802</v>
       </c>
       <c r="E8">
-        <f>A8+0.1</f>
+        <f t="shared" si="0"/>
         <v>10.1</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F11" si="5">SIN(RADIANS(E8))</f>
+        <f t="shared" ref="F8:F11" si="10">SIN(RADIANS(E8))</f>
         <v>0.17536672609198711</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G11" si="6">COS(RADIANS(E8))</f>
+        <f t="shared" ref="G8:G11" si="11">COS(RADIANS(E8))</f>
         <v>0.98450317997443659</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.98459999999999992</v>
       </c>
       <c r="J8">
+        <f t="shared" si="6"/>
+        <v>0.98399999999999987</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>0.98399999999999987</v>
-      </c>
-      <c r="L8">
-        <f>F8-B8</f>
         <v>1.7185484250567817E-3</v>
       </c>
       <c r="M8">
-        <f>G8-C8</f>
+        <f t="shared" si="2"/>
         <v>-3.045730377714273E-4</v>
       </c>
       <c r="O8">
-        <f>DEGREES(ATAN2(G8,F8))</f>
+        <f t="shared" si="3"/>
         <v>10.100000000000001</v>
       </c>
       <c r="P8">
-        <f>DEGREES(ATAN2(I8,F8))</f>
+        <f t="shared" si="4"/>
         <v>10.099027267055572</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>10.105058344099122</v>
       </c>
     </row>
@@ -19986,51 +19997,51 @@
         <v>20</v>
       </c>
       <c r="B9">
+        <f t="shared" si="8"/>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="9"/>
+        <v>0.93969262078590843</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="10"/>
+        <v>0.34365969458561607</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="11"/>
+        <v>0.93909425209470909</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1.6395512599473583E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>-5.9836869119933578E-4</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="3"/>
-        <v>0.34202014332566871</v>
-      </c>
-      <c r="C9">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="4"/>
-        <v>0.93969262078590843</v>
-      </c>
-      <c r="E9">
-        <f>A9+0.1</f>
-        <v>20.100000000000001</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="5"/>
-        <v>0.34365969458561607</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="6"/>
-        <v>0.93909425209470909</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="L9">
-        <f>F9-B9</f>
-        <v>1.6395512599473583E-3</v>
-      </c>
-      <c r="M9">
-        <f>G9-C9</f>
-        <v>-5.9836869119933578E-4</v>
-      </c>
-      <c r="O9">
-        <f>DEGREES(ATAN2(G9,F9))</f>
-        <v>20.100000000000001</v>
-      </c>
-      <c r="P9">
-        <f>DEGREES(ATAN2(I9,F9))</f>
         <v>20.101856011594094</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>20.101856011594094</v>
       </c>
     </row>
@@ -20039,51 +20050,51 @@
         <v>30</v>
       </c>
       <c r="B10">
+        <f t="shared" si="8"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="9"/>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>30.1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="10"/>
+        <v>0.50151073715945738</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="11"/>
+        <v>0.8651514205697044</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>0.86459999999999992</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1.5107371594574315E-3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>-8.7398321473430851E-4</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="3"/>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="C10">
+        <v>30.100000000000005</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="4"/>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="E10">
-        <f>A10+0.1</f>
-        <v>30.1</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="5"/>
-        <v>0.50151073715945738</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="6"/>
-        <v>0.8651514205697044</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0.86519999999999997</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0.86459999999999992</v>
-      </c>
-      <c r="L10">
-        <f>F10-B10</f>
-        <v>1.5107371594574315E-3</v>
-      </c>
-      <c r="M10">
-        <f>G10-C10</f>
-        <v>-8.7398321473430851E-4</v>
-      </c>
-      <c r="O10">
-        <f>DEGREES(ATAN2(G10,F10))</f>
-        <v>30.100000000000005</v>
-      </c>
-      <c r="P10">
-        <f>DEGREES(ATAN2(I10,F10))</f>
         <v>30.098604155521816</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>30.115852328171705</v>
       </c>
     </row>
@@ -20092,51 +20103,51 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <f t="shared" si="8"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="9"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>45.1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="10"/>
+        <v>0.7083398377245288</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="11"/>
+        <v>0.705871570678681</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>0.70559999999999989</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>0.70559999999999989</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>1.2330565379813363E-3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>-1.2352105078665687E-3</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="3"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="C11">
+        <v>45.099999999999994</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="4"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="E11">
-        <f>A11+0.1</f>
-        <v>45.1</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="5"/>
-        <v>0.7083398377245288</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="6"/>
-        <v>0.705871570678681</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0.70559999999999989</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>0.70559999999999989</v>
-      </c>
-      <c r="L11">
-        <f>F11-B11</f>
-        <v>1.2330565379813363E-3</v>
-      </c>
-      <c r="M11">
-        <f>G11-C11</f>
-        <v>-1.2352105078665687E-3</v>
-      </c>
-      <c r="O11">
-        <f>DEGREES(ATAN2(G11,F11))</f>
-        <v>45.099999999999994</v>
-      </c>
-      <c r="P11">
-        <f>DEGREES(ATAN2(I11,F11))</f>
         <v>45.111023777320867</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45.111023777320867</v>
       </c>
     </row>
@@ -20145,51 +20156,51 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <f>SIN(RADIANS(A12))</f>
+        <f t="shared" ref="B12:B17" si="12">SIN(RADIANS(A12))</f>
         <v>1</v>
       </c>
       <c r="C12">
-        <f>COS(RADIANS(A12))</f>
+        <f t="shared" ref="C12:C17" si="13">COS(RADIANS(A12))</f>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="E12">
-        <f>A12+0.1</f>
+        <f t="shared" si="0"/>
         <v>90.1</v>
       </c>
       <c r="F12" s="15">
-        <f>SIN(RADIANS(E12))</f>
+        <f t="shared" ref="F12:F17" si="14">SIN(RADIANS(E12))</f>
         <v>0.99999847691328769</v>
       </c>
       <c r="G12">
-        <f>COS(RADIANS(E12))</f>
+        <f t="shared" ref="G12:G17" si="15">COS(RADIANS(E12))</f>
         <v>-1.745328365898139E-3</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-1.8E-3</v>
       </c>
       <c r="J12">
+        <f t="shared" si="6"/>
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="L12" s="15">
         <f t="shared" si="1"/>
-        <v>-1.1999999999999999E-3</v>
-      </c>
-      <c r="L12" s="15">
-        <f>F12-B12</f>
         <v>-1.5230867123072755E-6</v>
       </c>
       <c r="M12">
-        <f>G12-C12</f>
+        <f t="shared" si="2"/>
         <v>-1.7453283658982002E-3</v>
       </c>
       <c r="O12">
-        <f>DEGREES(ATAN2(G12,F12))</f>
+        <f t="shared" si="3"/>
         <v>90.09999999999998</v>
       </c>
       <c r="P12">
-        <f>DEGREES(ATAN2(I12,F12))</f>
+        <f t="shared" si="4"/>
         <v>90.103132448820091</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>90.068755007133092</v>
       </c>
     </row>
@@ -20198,51 +20209,51 @@
         <v>135</v>
       </c>
       <c r="B13">
-        <f>SIN(RADIANS(A13))</f>
+        <f t="shared" si="12"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="C13">
-        <f>COS(RADIANS(A13))</f>
+        <f t="shared" si="13"/>
         <v>-0.70710678118654746</v>
       </c>
       <c r="E13">
-        <f>A13+0.1</f>
+        <f t="shared" si="0"/>
         <v>135.1</v>
       </c>
       <c r="F13">
-        <f>SIN(RADIANS(E13))</f>
+        <f t="shared" si="14"/>
         <v>0.70587157067868112</v>
       </c>
       <c r="G13">
-        <f>COS(RADIANS(E13))</f>
+        <f t="shared" si="15"/>
         <v>-0.70833983772452869</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.7085999999999999</v>
       </c>
       <c r="J13">
+        <f t="shared" si="6"/>
+        <v>-0.70799999999999996</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="1"/>
-        <v>-0.70799999999999996</v>
-      </c>
-      <c r="L13">
-        <f>F13-B13</f>
         <v>-1.2352105078664577E-3</v>
       </c>
       <c r="M13">
-        <f>G13-C13</f>
+        <f t="shared" si="2"/>
         <v>-1.2330565379812253E-3</v>
       </c>
       <c r="O13">
-        <f>DEGREES(ATAN2(G13,F13))</f>
+        <f t="shared" si="3"/>
         <v>135.1</v>
       </c>
       <c r="P13">
-        <f>DEGREES(ATAN2(I13,F13))</f>
+        <f t="shared" si="4"/>
         <v>135.11051992430552</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>135.086252476895</v>
       </c>
     </row>
@@ -20251,51 +20262,51 @@
         <v>150</v>
       </c>
       <c r="B14">
-        <f>SIN(RADIANS(A14))</f>
+        <f t="shared" si="12"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="C14">
-        <f>COS(RADIANS(A14))</f>
+        <f t="shared" si="13"/>
         <v>-0.86602540378443871</v>
       </c>
       <c r="E14">
-        <f>A14+0.1</f>
+        <f t="shared" si="0"/>
         <v>150.1</v>
       </c>
       <c r="F14">
-        <f>SIN(RADIANS(E14))</f>
+        <f t="shared" si="14"/>
         <v>0.49848773975383037</v>
       </c>
       <c r="G14">
-        <f>COS(RADIANS(E14))</f>
+        <f t="shared" si="15"/>
         <v>-0.86689674893560276</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.86699999999999988</v>
       </c>
       <c r="J14">
+        <f t="shared" si="6"/>
+        <v>-0.86639999999999995</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="1"/>
-        <v>-0.86639999999999995</v>
-      </c>
-      <c r="L14">
-        <f>F14-B14</f>
         <v>-1.5122602461695722E-3</v>
       </c>
       <c r="M14">
-        <f>G14-C14</f>
+        <f t="shared" si="2"/>
         <v>-8.7134515116404909E-4</v>
       </c>
       <c r="O14">
-        <f>DEGREES(ATAN2(G14,F14))</f>
+        <f t="shared" si="3"/>
         <v>150.1</v>
       </c>
       <c r="P14">
-        <f>DEGREES(ATAN2(I14,F14))</f>
+        <f t="shared" si="4"/>
         <v>150.10294871486877</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>150.08580612060825</v>
       </c>
     </row>
@@ -20304,51 +20315,51 @@
         <v>160</v>
       </c>
       <c r="B15">
-        <f>SIN(RADIANS(A15))</f>
+        <f t="shared" si="12"/>
         <v>0.34202014332566888</v>
       </c>
       <c r="C15">
-        <f>COS(RADIANS(A15))</f>
+        <f t="shared" si="13"/>
         <v>-0.93969262078590832</v>
       </c>
       <c r="E15">
-        <f>A15+0.1</f>
+        <f t="shared" si="0"/>
         <v>160.1</v>
       </c>
       <c r="F15">
-        <f>SIN(RADIANS(E15))</f>
+        <f t="shared" si="14"/>
         <v>0.34037955021305039</v>
       </c>
       <c r="G15">
-        <f>COS(RADIANS(E15))</f>
+        <f t="shared" si="15"/>
         <v>-0.94028812701041886</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.94019999999999992</v>
       </c>
       <c r="J15">
+        <f t="shared" si="6"/>
+        <v>-0.94019999999999992</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="1"/>
-        <v>-0.94019999999999992</v>
-      </c>
-      <c r="L15">
-        <f>F15-B15</f>
         <v>-1.6405931126184936E-3</v>
       </c>
       <c r="M15">
-        <f>G15-C15</f>
+        <f t="shared" si="2"/>
         <v>-5.9550622451054469E-4</v>
       </c>
       <c r="O15">
-        <f>DEGREES(ATAN2(G15,F15))</f>
+        <f t="shared" si="3"/>
         <v>160.1</v>
       </c>
       <c r="P15">
-        <f>DEGREES(ATAN2(I15,F15))</f>
+        <f t="shared" si="4"/>
         <v>160.09828117714778</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>160.09828117714778</v>
       </c>
     </row>
@@ -20357,51 +20368,51 @@
         <v>170</v>
       </c>
       <c r="B16">
-        <f>SIN(RADIANS(A16))</f>
+        <f t="shared" si="12"/>
         <v>0.17364817766693028</v>
       </c>
       <c r="C16">
-        <f>COS(RADIANS(A16))</f>
+        <f t="shared" si="13"/>
         <v>-0.98480775301220802</v>
       </c>
       <c r="E16">
-        <f>A16+0.1</f>
+        <f t="shared" si="0"/>
         <v>170.1</v>
       </c>
       <c r="F16">
-        <f>SIN(RADIANS(E16))</f>
+        <f t="shared" si="14"/>
         <v>0.17192910027940958</v>
       </c>
       <c r="G16">
-        <f>COS(RADIANS(E16))</f>
+        <f t="shared" si="15"/>
         <v>-0.98510932615477387</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.98519999999999996</v>
       </c>
       <c r="J16">
+        <f t="shared" si="6"/>
+        <v>-0.98459999999999992</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="1"/>
-        <v>-0.98459999999999992</v>
-      </c>
-      <c r="L16">
-        <f>F16-B16</f>
         <v>-1.7190773875206955E-3</v>
       </c>
       <c r="M16">
-        <f>G16-C16</f>
+        <f t="shared" si="2"/>
         <v>-3.0157314256584744E-4</v>
       </c>
       <c r="O16">
-        <f>DEGREES(ATAN2(G16,F16))</f>
+        <f t="shared" si="3"/>
         <v>170.1</v>
       </c>
       <c r="P16">
-        <f>DEGREES(ATAN2(I16,F16))</f>
+        <f t="shared" si="4"/>
         <v>170.10089313120864</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>170.09498020526482</v>
       </c>
     </row>
@@ -20410,51 +20421,51 @@
         <v>175</v>
       </c>
       <c r="B17">
-        <f>SIN(RADIANS(A17))</f>
+        <f t="shared" si="12"/>
         <v>8.7155742747658194E-2</v>
       </c>
       <c r="C17">
-        <f>COS(RADIANS(A17))</f>
+        <f t="shared" si="13"/>
         <v>-0.99619469809174555</v>
       </c>
       <c r="E17">
-        <f>A17+0.1</f>
+        <f t="shared" si="0"/>
         <v>175.1</v>
       </c>
       <c r="F17">
-        <f>SIN(RADIANS(E17))</f>
+        <f t="shared" si="14"/>
         <v>8.5416923137367595E-2</v>
       </c>
       <c r="G17">
-        <f>COS(RADIANS(E17))</f>
+        <f t="shared" si="15"/>
         <v>-0.99634529619090639</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.99659999999999993</v>
       </c>
       <c r="J17">
+        <f t="shared" si="6"/>
+        <v>-0.99599999999999989</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="1"/>
-        <v>-0.99599999999999989</v>
-      </c>
-      <c r="L17">
-        <f>F17-B17</f>
         <v>-1.7388196102905984E-3</v>
       </c>
       <c r="M17" s="16">
-        <f>G17-C17</f>
+        <f t="shared" si="2"/>
         <v>-1.5059809916084799E-4</v>
       </c>
       <c r="O17">
-        <f>DEGREES(ATAN2(G17,F17))</f>
+        <f t="shared" si="3"/>
         <v>175.1</v>
       </c>
       <c r="P17">
-        <f>DEGREES(ATAN2(I17,F17))</f>
+        <f t="shared" si="4"/>
         <v>175.10124621162274</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>175.09830952878136</v>
       </c>
     </row>

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD26F578-78E7-4E0D-AB56-A46F84BC945D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F7CAC2-65A9-439D-B555-C5AA830F6443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder Error" sheetId="1" r:id="rId1"/>
@@ -415,13 +415,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -789,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:K607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="163" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C10" zoomScale="163" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -828,7 +828,7 @@
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>50000000</v>
       </c>
       <c r="I5">
@@ -13506,33 +13506,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="21"/>
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="21"/>
       <c r="I2">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -18199,10 +18199,10 @@
       <c r="AA107" s="8"/>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="19"/>
+      <c r="C108" s="20"/>
       <c r="D108" s="6">
         <v>0</v>
       </c>
@@ -19260,8 +19260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BDFF7-A03C-4436-BDC7-9DE4C8404CC4}">
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19275,11 +19275,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="12"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -19292,7 +19292,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="18">
-        <v>9.6999999999999993</v>
+        <v>9.68</v>
       </c>
       <c r="I4" s="18">
         <v>0.41399999999999998</v>
@@ -19303,10 +19303,10 @@
         <v>19</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1.66</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1.66</v>
       </c>
       <c r="L5">
         <v>3500</v>
@@ -19317,10 +19317,10 @@
         <v>20</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="I6" s="18">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="J6" s="17"/>
     </row>
@@ -19334,6 +19334,14 @@
       <c r="I7">
         <v>9</v>
       </c>
+      <c r="J7">
+        <f>SUM(H4:H6)</f>
+        <v>13.9</v>
+      </c>
+      <c r="K7">
+        <f>K10-SUM(H5:H6)</f>
+        <v>1.2999999999999998</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
@@ -19352,11 +19360,16 @@
       </c>
       <c r="H9">
         <f>SUM(H4:H8)</f>
-        <v>38.700000000000003</v>
+        <v>36.9</v>
       </c>
       <c r="I9">
         <f>SUM(I4:I8)</f>
-        <v>15.414</v>
+        <v>13.634</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>5.52</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -19365,11 +19378,11 @@
       </c>
       <c r="H11">
         <f>L5/H9</f>
-        <v>90.439276485788113</v>
+        <v>94.850948509485093</v>
       </c>
       <c r="I11">
         <f>L5/I9</f>
-        <v>227.06630336058129</v>
+        <v>256.71116326829986</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -19378,11 +19391,11 @@
       </c>
       <c r="H12">
         <f>H11/4</f>
-        <v>22.609819121447028</v>
+        <v>23.712737127371273</v>
       </c>
       <c r="I12">
         <f>I11/4</f>
-        <v>56.766575840145322</v>
+        <v>64.177790817074964</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -19499,10 +19512,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4">
         <v>72000000</v>
       </c>

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F7CAC2-65A9-439D-B555-C5AA830F6443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2E5F06-7D04-4450-8BE5-2A5C95C3261F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19261,7 +19261,7 @@
   <dimension ref="B1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19295,7 +19295,7 @@
         <v>9.68</v>
       </c>
       <c r="I4" s="18">
-        <v>0.41399999999999998</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -19340,7 +19340,7 @@
       </c>
       <c r="K7">
         <f>K10-SUM(H5:H6)</f>
-        <v>1.2999999999999998</v>
+        <v>0.99000000000000021</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -19364,12 +19364,12 @@
       </c>
       <c r="I9">
         <f>SUM(I4:I8)</f>
-        <v>13.634</v>
+        <v>14.21</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K10">
-        <v>5.52</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -19382,7 +19382,7 @@
       </c>
       <c r="I11">
         <f>L5/I9</f>
-        <v>256.71116326829986</v>
+        <v>246.30541871921181</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="I12">
         <f>I11/4</f>
-        <v>64.177790817074964</v>
+        <v>61.576354679802954</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2E5F06-7D04-4450-8BE5-2A5C95C3261F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F503C8E-1233-4B27-9615-B34B9C2E3892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19260,8 +19260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BDFF7-A03C-4436-BDC7-9DE4C8404CC4}">
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19398,14 +19398,9 @@
         <v>61.576354679802954</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>92.5</v>
@@ -19413,33 +19408,36 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15">
-        <v>60000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>4.9999999999999997E-12</v>
       </c>
       <c r="E16">
         <f>C14/(C15*C16*LN(2^(C17+1)))-C18</f>
-        <v>30317.766995443366</v>
+        <v>37161.320394532035</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
       <c r="C18">
         <v>3900</v>
       </c>

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F503C8E-1233-4B27-9615-B34B9C2E3892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BBE57E-6C77-469D-990B-0AE63891370E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder Error" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>Number of measurments</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Hipotenusa</t>
   </si>
   <si>
-    <t>Punto Circulo Unit</t>
-  </si>
-  <si>
     <t>dt</t>
   </si>
   <si>
@@ -144,16 +141,10 @@
     <t>dps</t>
   </si>
   <si>
-    <t>dps satur</t>
-  </si>
-  <si>
     <t>dA</t>
   </si>
   <si>
     <t>dA/dt</t>
-  </si>
-  <si>
-    <t>dps/dt</t>
   </si>
   <si>
     <t>Vel</t>
@@ -305,6 +296,12 @@
   <si>
     <t>Atan Corr T</t>
   </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>init length</t>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,12 +415,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:K607"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -814,16 +812,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
@@ -13484,12 +13482,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11AFDFB-30EA-4EFD-BE21-A5C5DCB81B95}">
   <dimension ref="B2:AA147"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N76" sqref="G76:N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" customWidth="1"/>
@@ -18134,9 +18133,6 @@
       <c r="U105" s="9"/>
     </row>
     <row r="106" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C106">
-        <v>0.01</v>
-      </c>
       <c r="F106" s="5" t="s">
         <v>31</v>
       </c>
@@ -18147,15 +18143,15 @@
         <v>29</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U106" s="9"/>
       <c r="V106" s="9"/>
     </row>
     <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>87</v>
+      </c>
       <c r="E107" s="5" t="s">
         <v>14</v>
       </c>
@@ -18169,22 +18165,22 @@
         <v>13</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J107" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L107" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K107" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L107" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="M107" s="5" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="Q107" s="11"/>
       <c r="R107" s="11"/>
@@ -18199,27 +18195,25 @@
       <c r="AA107" s="8"/>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B108" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C108" s="20"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
       <c r="D108" s="6">
         <v>0</v>
       </c>
       <c r="E108" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" s="7">
-        <f>$C$106+($I$2*D108)</f>
-        <v>0.01</v>
+        <f>$B$111+($I$2*D108)</f>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="G108" s="7">
         <f>COS(RADIANS(E108))*F108</f>
-        <v>0.01</v>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H108" s="7">
         <f t="shared" ref="H108:H123" si="45">SIN(RADIANS(E108))*F108</f>
-        <v>0</v>
+        <v>1.466002140731815E-3</v>
       </c>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -18241,48 +18235,44 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <f t="shared" ref="E109:E123" si="46">DEGREES(ACOS(G109/F109) )</f>
-        <v>41.731817039793761</v>
+        <f>DEGREES(ACOS(G109/F109) )</f>
+        <v>16.064246027615003</v>
       </c>
       <c r="F109" s="5">
-        <f t="shared" ref="F109:F123" si="47">$C$106+($I$2*D109)</f>
-        <v>1.34E-2</v>
+        <f>$B$111+($I$2*D109)</f>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="G109" s="5">
         <f>G108</f>
-        <v>0.01</v>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H109" s="5">
         <f t="shared" si="45"/>
-        <v>8.9196412483911035E-3</v>
+        <v>2.4184895333175027E-2</v>
       </c>
       <c r="I109">
         <f>E109-E108</f>
-        <v>41.731817039793761</v>
+        <v>15.064246027615003</v>
       </c>
       <c r="J109">
-        <f t="shared" ref="J109:J123" si="48">H109-H108</f>
-        <v>8.9196412483911035E-3</v>
+        <f t="shared" ref="J109:J123" si="46">H109-H108</f>
+        <v>2.2718893192443211E-2</v>
       </c>
       <c r="K109">
-        <f>J109/$C$113</f>
-        <v>1.4866068747318507E-3</v>
+        <f>J109/$C$111</f>
+        <v>3.7864821987405352E-3</v>
       </c>
       <c r="L109">
         <f>(E109-E108)/K109</f>
-        <v>28071.857966700987</v>
+        <v>3978.4277957587369</v>
       </c>
       <c r="M109">
-        <f t="shared" ref="M109:M117" si="49">IF(L109&gt;2000,2000,L109)</f>
-        <v>2000</v>
+        <f>L109/360</f>
+        <v>11.051188321552047</v>
       </c>
       <c r="N109">
-        <f t="shared" ref="N109:N117" si="50">M109*K109</f>
-        <v>2.9732137494637012</v>
-      </c>
-      <c r="O109">
-        <f>E108+N109</f>
-        <v>2.9732137494637012</v>
+        <f>M109*60</f>
+        <v>663.07129929312282</v>
       </c>
       <c r="Q109" s="11"/>
       <c r="R109" s="8"/>
@@ -18297,52 +18287,54 @@
       <c r="AA109" s="8"/>
     </row>
     <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B110" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="D110">
         <v>2</v>
       </c>
       <c r="E110">
-        <f t="shared" si="46"/>
-        <v>53.470392770264972</v>
+        <f t="shared" ref="E109:E123" si="47">DEGREES(ACOS(G110/F110) )</f>
+        <v>22.336283890705477</v>
       </c>
       <c r="F110" s="5">
-        <f t="shared" si="47"/>
-        <v>1.6799999999999999E-2</v>
+        <f>$B$111+($I$2*D110)</f>
+        <v>9.0800000000000006E-2</v>
       </c>
       <c r="G110" s="5">
         <f>G109</f>
-        <v>0.01</v>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H110" s="5">
         <f t="shared" si="45"/>
-        <v>1.3499629624548964E-2</v>
+        <v>3.450781306134354E-2</v>
       </c>
       <c r="I110">
-        <f t="shared" ref="I110:I122" si="51">E110-E109</f>
-        <v>11.738575730471212</v>
+        <f t="shared" ref="I110:I122" si="48">E110-E109</f>
+        <v>6.2720378630904747</v>
       </c>
       <c r="J110">
-        <f t="shared" si="48"/>
-        <v>4.5799883761578602E-3</v>
+        <f t="shared" si="46"/>
+        <v>1.0322917728168512E-2</v>
       </c>
       <c r="K110">
-        <f t="shared" ref="K110:K117" si="52">J110/$C$113</f>
-        <v>7.6333139602631007E-4</v>
+        <f>J110/$C$111</f>
+        <v>1.7204862880280853E-3</v>
       </c>
       <c r="L110">
-        <f t="shared" ref="L110:L117" si="53">(E110-E109)/K110</f>
-        <v>15378.085837395078</v>
+        <f t="shared" ref="L110:L123" si="49">(E110-E109)/K110</f>
+        <v>3645.5029643270773</v>
       </c>
       <c r="M110">
-        <f t="shared" si="49"/>
-        <v>2000</v>
+        <f t="shared" ref="M110:M123" si="50">L110/360</f>
+        <v>10.12639712313077</v>
       </c>
       <c r="N110">
-        <f t="shared" si="50"/>
-        <v>1.5266627920526201</v>
-      </c>
-      <c r="O110">
-        <f t="shared" ref="O110:O117" si="54">O109+N110</f>
-        <v>4.4998765415163211</v>
+        <f t="shared" ref="N110:N123" si="51">M110*60</f>
+        <v>607.58382738784621</v>
       </c>
       <c r="Q110" s="11"/>
       <c r="R110" s="8"/>
@@ -18357,52 +18349,54 @@
       <c r="AA110" s="8"/>
     </row>
     <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B111" s="20">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C111" s="20">
+        <v>6</v>
+      </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111">
-        <f t="shared" si="46"/>
-        <v>60.326985197525957</v>
+        <f t="shared" si="47"/>
+        <v>26.927037168594467</v>
       </c>
       <c r="F111" s="5">
-        <f t="shared" si="47"/>
-        <v>2.0199999999999999E-2</v>
+        <f>$B$111+($I$2*D111)</f>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="G111" s="5">
-        <f t="shared" ref="G111:G117" si="55">G110</f>
-        <v>0.01</v>
+        <f t="shared" ref="G111:G117" si="52">G110</f>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H111" s="5">
         <f t="shared" si="45"/>
-        <v>1.7551068343551055E-2</v>
+        <v>4.2658986887602356E-2</v>
       </c>
       <c r="I111">
+        <f t="shared" si="48"/>
+        <v>4.5907532778889895</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="46"/>
+        <v>8.151173826258816E-3</v>
+      </c>
+      <c r="K111">
+        <f>J111/$C$111</f>
+        <v>1.358528971043136E-3</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="49"/>
+        <v>3379.2089647996354</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="50"/>
+        <v>9.3866915688878763</v>
+      </c>
+      <c r="N111">
         <f t="shared" si="51"/>
-        <v>6.8565924272609848</v>
-      </c>
-      <c r="J111">
-        <f t="shared" si="48"/>
-        <v>4.0514387190020915E-3</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="52"/>
-        <v>6.7523978650034858E-4</v>
-      </c>
-      <c r="L111">
-        <f t="shared" si="53"/>
-        <v>10154.307498374053</v>
-      </c>
-      <c r="M111">
-        <f t="shared" si="49"/>
-        <v>2000</v>
-      </c>
-      <c r="N111">
-        <f t="shared" si="50"/>
-        <v>1.3504795730006971</v>
-      </c>
-      <c r="O111">
-        <f t="shared" si="54"/>
-        <v>5.8503561145170178</v>
+        <v>563.2014941332726</v>
       </c>
       <c r="Q111" s="11"/>
       <c r="R111" s="8"/>
@@ -18417,55 +18411,48 @@
       <c r="AA111" s="8"/>
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>40</v>
-      </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112">
-        <f t="shared" si="46"/>
-        <v>64.929772050657689</v>
+        <f t="shared" si="47"/>
+        <v>30.624457670866033</v>
       </c>
       <c r="F112" s="5">
-        <f t="shared" si="47"/>
-        <v>2.3599999999999999E-2</v>
+        <f>$B$111+($I$2*D112)</f>
+        <v>9.7600000000000006E-2</v>
       </c>
       <c r="G112" s="5">
-        <f t="shared" si="55"/>
-        <v>0.01</v>
+        <f t="shared" si="52"/>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H112" s="5">
         <f t="shared" si="45"/>
-        <v>2.1376622745419821E-2</v>
+        <v>4.9718298062952943E-2</v>
       </c>
       <c r="I112">
+        <f t="shared" si="48"/>
+        <v>3.6974205022715658</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="46"/>
+        <v>7.0593111753505869E-3</v>
+      </c>
+      <c r="K112">
+        <f>J112/$C$111</f>
+        <v>1.1765518625584312E-3</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="49"/>
+        <v>3142.5903268143784</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="50"/>
+        <v>8.7294175744843852</v>
+      </c>
+      <c r="N112">
         <f t="shared" si="51"/>
-        <v>4.6027868531317324</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="48"/>
-        <v>3.8255544018687658E-3</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="52"/>
-        <v>6.3759240031146093E-4</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="53"/>
-        <v>7219.0114732912316</v>
-      </c>
-      <c r="M112">
-        <f t="shared" si="49"/>
-        <v>2000</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="50"/>
-        <v>1.2751848006229218</v>
-      </c>
-      <c r="O112">
-        <f t="shared" si="54"/>
-        <v>7.1255409151399398</v>
+        <v>523.7650544690631</v>
       </c>
       <c r="Q112" s="11"/>
       <c r="R112" s="8"/>
@@ -18480,55 +18467,54 @@
       <c r="AA112" s="8"/>
     </row>
     <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>75</v>
+      </c>
       <c r="C113">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="D113">
         <v>5</v>
       </c>
       <c r="E113">
         <f>DEGREES(ACOS(G113/F113) )</f>
-        <v>68.261539208479505</v>
+        <v>33.741038359886566</v>
       </c>
       <c r="F113" s="5">
-        <f t="shared" si="47"/>
-        <v>2.6999999999999996E-2</v>
+        <f>$B$111+($I$2*D113)</f>
+        <v>0.10100000000000001</v>
       </c>
       <c r="G113" s="5">
-        <f t="shared" si="55"/>
-        <v>0.01</v>
+        <f t="shared" si="52"/>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H113" s="5">
         <f t="shared" si="45"/>
-        <v>2.5079872407968898E-2</v>
+        <v>5.6099457771681099E-2</v>
       </c>
       <c r="I113">
+        <f t="shared" si="48"/>
+        <v>3.1165806890205339</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="46"/>
+        <v>6.3811597087281569E-3</v>
+      </c>
+      <c r="K113">
+        <f>J113/$C$111</f>
+        <v>1.0635266181213594E-3</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="49"/>
+        <v>2930.420956013063</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="50"/>
+        <v>8.140058211147398</v>
+      </c>
+      <c r="N113">
         <f t="shared" si="51"/>
-        <v>3.3317671578218153</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="48"/>
-        <v>3.7032496625490768E-3</v>
-      </c>
-      <c r="K113">
-        <f t="shared" si="52"/>
-        <v>6.1720827709151277E-4</v>
-      </c>
-      <c r="L113">
-        <f t="shared" si="53"/>
-        <v>5398.1245577622385</v>
-      </c>
-      <c r="M113">
-        <f t="shared" si="49"/>
-        <v>2000</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="50"/>
-        <v>1.2344165541830256</v>
-      </c>
-      <c r="O113">
-        <f t="shared" si="54"/>
-        <v>8.3599574693229659</v>
+        <v>488.40349266884391</v>
       </c>
       <c r="Q113" s="11"/>
       <c r="R113" s="8"/>
@@ -18543,52 +18529,54 @@
       <c r="AA113" s="8"/>
     </row>
     <row r="114" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114">
+        <v>100</v>
+      </c>
       <c r="D114">
         <v>6</v>
       </c>
       <c r="E114">
-        <f t="shared" si="46"/>
-        <v>70.795102502870591</v>
+        <f t="shared" si="47"/>
+        <v>36.44040124394018</v>
       </c>
       <c r="F114" s="5">
-        <f t="shared" si="47"/>
-        <v>3.0399999999999996E-2</v>
+        <f>$B$111+($I$2*D114)</f>
+        <v>0.10440000000000001</v>
       </c>
       <c r="G114" s="5">
-        <f t="shared" si="55"/>
-        <v>0.01</v>
+        <f t="shared" si="52"/>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H114" s="5">
         <f t="shared" si="45"/>
-        <v>2.8708186985596976E-2</v>
+        <v>6.201216946919879E-2</v>
       </c>
       <c r="I114">
+        <f t="shared" si="48"/>
+        <v>2.6993628840536132</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="46"/>
+        <v>5.9127116975176905E-3</v>
+      </c>
+      <c r="K114">
+        <f>J114/$C$111</f>
+        <v>9.8545194958628182E-4</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="49"/>
+        <v>2739.2130942425711</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="50"/>
+        <v>7.6089252617849192</v>
+      </c>
+      <c r="N114">
         <f t="shared" si="51"/>
-        <v>2.5335632943910866</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="48"/>
-        <v>3.6283145776280779E-3</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="52"/>
-        <v>6.0471909627134634E-4</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="53"/>
-        <v>4189.6531960258117</v>
-      </c>
-      <c r="M114">
-        <f t="shared" si="49"/>
-        <v>2000</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="50"/>
-        <v>1.2094381925426927</v>
-      </c>
-      <c r="O114">
-        <f t="shared" si="54"/>
-        <v>9.5693956618656593</v>
+        <v>456.53551570709516</v>
       </c>
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
@@ -18603,52 +18591,55 @@
       <c r="AA114" s="8"/>
     </row>
     <row r="115" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B115" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115">
+        <f>1/(2*3.1416*C114*C113)</f>
+        <v>3.1830914183855364E-6</v>
+      </c>
       <c r="D115">
         <v>7</v>
       </c>
       <c r="E115">
-        <f t="shared" si="46"/>
-        <v>72.791006778084139</v>
+        <f t="shared" si="47"/>
+        <v>38.821562103911269</v>
       </c>
       <c r="F115" s="5">
-        <f t="shared" si="47"/>
-        <v>3.3799999999999997E-2</v>
+        <f>$B$111+($I$2*D115)</f>
+        <v>0.10780000000000001</v>
       </c>
       <c r="G115" s="5">
-        <f t="shared" si="55"/>
-        <v>0.01</v>
+        <f t="shared" si="52"/>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H115" s="5">
         <f t="shared" si="45"/>
-        <v>3.2286839424136883E-2</v>
+        <v>6.7579502530550117E-2</v>
       </c>
       <c r="I115">
+        <f t="shared" si="48"/>
+        <v>2.3811608599710894</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="46"/>
+        <v>5.5673330613513275E-3</v>
+      </c>
+      <c r="K115">
+        <f>J115/$C$111</f>
+        <v>9.2788884355855458E-4</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="49"/>
+        <v>2566.2134818208165</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="50"/>
+        <v>7.1283707828356011</v>
+      </c>
+      <c r="N115">
         <f t="shared" si="51"/>
-        <v>1.9959042752135474</v>
-      </c>
-      <c r="J115">
-        <f t="shared" si="48"/>
-        <v>3.5786524385399074E-3</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="52"/>
-        <v>5.9644207308998456E-4</v>
-      </c>
-      <c r="L115">
-        <f t="shared" si="53"/>
-        <v>3346.3505766341664</v>
-      </c>
-      <c r="M115">
-        <f t="shared" si="49"/>
-        <v>2000</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="50"/>
-        <v>1.1928841461799691</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="54"/>
-        <v>10.762279808045628</v>
+        <v>427.70224697013606</v>
       </c>
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
@@ -18663,52 +18654,49 @@
       <c r="AA115" s="8"/>
     </row>
     <row r="116" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C116" s="4"/>
       <c r="D116">
         <v>8</v>
       </c>
       <c r="E116">
-        <f t="shared" si="46"/>
-        <v>74.406104259530906</v>
+        <f t="shared" si="47"/>
+        <v>40.950103091476691</v>
       </c>
       <c r="F116" s="5">
-        <f t="shared" si="47"/>
-        <v>3.7199999999999997E-2</v>
+        <f>$B$111+($I$2*D116)</f>
+        <v>0.11120000000000001</v>
       </c>
       <c r="G116" s="5">
-        <f t="shared" si="55"/>
-        <v>0.01</v>
+        <f t="shared" si="52"/>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H116" s="5">
         <f t="shared" si="45"/>
-        <v>3.5830713082493908E-2</v>
+        <v>7.2880650122488816E-2</v>
       </c>
       <c r="I116">
+        <f t="shared" si="48"/>
+        <v>2.1285409875654224</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="46"/>
+        <v>5.3011475919386986E-3</v>
+      </c>
+      <c r="K116">
+        <f>J116/$C$111</f>
+        <v>8.8352459865644972E-4</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="49"/>
+        <v>2409.1473975962108</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="50"/>
+        <v>6.6920761044339185</v>
+      </c>
+      <c r="N116">
         <f t="shared" si="51"/>
-        <v>1.6150974814467673</v>
-      </c>
-      <c r="J116">
-        <f t="shared" si="48"/>
-        <v>3.5438736583570246E-3</v>
-      </c>
-      <c r="K116">
-        <f t="shared" si="52"/>
-        <v>5.9064560972617081E-4</v>
-      </c>
-      <c r="L116">
-        <f t="shared" si="53"/>
-        <v>2734.4611639381228</v>
-      </c>
-      <c r="M116">
-        <f t="shared" si="49"/>
-        <v>2000</v>
-      </c>
-      <c r="N116">
-        <f t="shared" si="50"/>
-        <v>1.1812912194523415</v>
-      </c>
-      <c r="O116">
-        <f t="shared" si="54"/>
-        <v>11.943571027497971</v>
+        <v>401.52456626603509</v>
       </c>
       <c r="Q116" s="11"/>
       <c r="R116" s="8"/>
@@ -18723,52 +18711,55 @@
       <c r="AA116" s="8"/>
     </row>
     <row r="117" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117">
+        <f>M109</f>
+        <v>11.051188321552047</v>
+      </c>
       <c r="D117">
         <v>9</v>
       </c>
       <c r="E117">
-        <f t="shared" si="46"/>
-        <v>75.741006958527521</v>
+        <f t="shared" si="47"/>
+        <v>42.872237324946603</v>
       </c>
       <c r="F117" s="5">
-        <f t="shared" si="47"/>
-        <v>4.0599999999999997E-2</v>
+        <f>$B$111+($I$2*D117)</f>
+        <v>0.11460000000000001</v>
       </c>
       <c r="G117" s="5">
-        <f t="shared" si="55"/>
-        <v>0.01</v>
+        <f t="shared" si="52"/>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H117" s="5">
         <f t="shared" si="45"/>
-        <v>3.9349205836967029E-2</v>
+        <v>7.7969924729196921E-2</v>
       </c>
       <c r="I117">
+        <f t="shared" si="48"/>
+        <v>1.9221342334699116</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="46"/>
+        <v>5.0892746067081052E-3</v>
+      </c>
+      <c r="K117">
+        <f>J117/$C$111</f>
+        <v>8.4821243445135086E-4</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="49"/>
+        <v>2266.1000421589029</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="50"/>
+        <v>6.2947223393302858</v>
+      </c>
+      <c r="N117">
         <f t="shared" si="51"/>
-        <v>1.3349026989966148</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="48"/>
-        <v>3.5184927544731209E-3</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="52"/>
-        <v>5.8641545907885345E-4</v>
-      </c>
-      <c r="L117">
-        <f t="shared" si="53"/>
-        <v>2276.377060545934</v>
-      </c>
-      <c r="M117">
-        <f t="shared" si="49"/>
-        <v>2000</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="50"/>
-        <v>1.172830918157707</v>
-      </c>
-      <c r="O117">
-        <f t="shared" si="54"/>
-        <v>13.116401945655678</v>
+        <v>377.68334035981712</v>
       </c>
       <c r="Q117" s="11"/>
       <c r="R117" s="8"/>
@@ -18783,39 +18774,55 @@
       <c r="AA117" s="8"/>
     </row>
     <row r="118" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>34</v>
-      </c>
-      <c r="C118">
-        <f>H109-H108</f>
-        <v>8.9196412483911035E-3</v>
+      <c r="B118" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118" s="13">
+        <f>1/(2*3.1416*C117*C115)</f>
+        <v>4524.4003219536035</v>
       </c>
       <c r="D118">
         <v>10</v>
       </c>
       <c r="E118">
-        <f t="shared" si="46"/>
-        <v>76.863441213055154</v>
+        <f t="shared" si="47"/>
+        <v>44.622032603569437</v>
       </c>
       <c r="F118" s="5">
-        <f t="shared" si="47"/>
-        <v>4.3999999999999997E-2</v>
+        <f>$B$111+($I$2*D118)</f>
+        <v>0.11799999999999999</v>
       </c>
       <c r="G118" s="5">
-        <f t="shared" ref="G118:G123" si="56">G117</f>
-        <v>0.01</v>
+        <f t="shared" ref="G118:G123" si="53">G117</f>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H118" s="5">
         <f>SIN(RADIANS(E118))*F118</f>
-        <v>4.28485705712571E-2</v>
+        <v>8.2886362945159026E-2</v>
       </c>
       <c r="I118">
+        <f t="shared" si="48"/>
+        <v>1.7497952786228339</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="46"/>
+        <v>4.9164382159621045E-3</v>
+      </c>
+      <c r="K118">
+        <f>J118/$C$111</f>
+        <v>8.1940636932701738E-4</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="49"/>
+        <v>2135.4426132420103</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="50"/>
+        <v>5.9317850367833618</v>
+      </c>
+      <c r="N118">
         <f t="shared" si="51"/>
-        <v>1.1224342545276329</v>
-      </c>
-      <c r="J118">
-        <f t="shared" si="48"/>
-        <v>3.4993647342900711E-3</v>
+        <v>355.90710220700169</v>
       </c>
       <c r="Q118" s="11"/>
       <c r="R118" s="8"/>
@@ -18830,39 +18837,48 @@
       <c r="AA118" s="8"/>
     </row>
     <row r="119" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>33</v>
-      </c>
-      <c r="C119">
-        <f>C118/C113</f>
-        <v>1.4866068747318507E-3</v>
-      </c>
       <c r="D119">
         <v>11</v>
       </c>
       <c r="E119">
-        <f t="shared" si="46"/>
-        <v>77.820770023802041</v>
+        <f t="shared" si="47"/>
+        <v>46.225480244483315</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="47"/>
-        <v>4.7399999999999998E-2</v>
+        <f>$B$111+($I$2*D119)</f>
+        <v>0.12140000000000001</v>
       </c>
       <c r="G119" s="5">
-        <f t="shared" si="56"/>
-        <v>0.01</v>
+        <f t="shared" si="53"/>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H119" s="5">
         <f t="shared" si="45"/>
-        <v>4.6333141486413369E-2</v>
+        <v>8.7659050658084547E-2</v>
       </c>
       <c r="I119">
+        <f t="shared" si="48"/>
+        <v>1.6034476409138776</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="46"/>
+        <v>4.7726877129255219E-3</v>
+      </c>
+      <c r="K119">
+        <f>J119/$C$111</f>
+        <v>7.9544795215425368E-4</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="49"/>
+        <v>2015.7794568096847</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="50"/>
+        <v>5.5993873800269016</v>
+      </c>
+      <c r="N119">
         <f t="shared" si="51"/>
-        <v>0.95732881074688692</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="48"/>
-        <v>3.4845709151562695E-3</v>
+        <v>335.96324280161411</v>
       </c>
       <c r="Q119" s="11"/>
       <c r="R119" s="8"/>
@@ -18877,39 +18893,54 @@
       <c r="AA119" s="8"/>
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>35</v>
+      <c r="B120" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C120">
-        <f>(E117-E108)/C119</f>
-        <v>50948.914770886848</v>
+        <v>2.8</v>
       </c>
       <c r="D120">
         <v>12</v>
       </c>
       <c r="E120">
-        <f t="shared" si="46"/>
-        <v>78.647161243661103</v>
+        <f t="shared" si="47"/>
+        <v>47.702951616830354</v>
       </c>
       <c r="F120" s="5">
-        <f t="shared" si="47"/>
-        <v>5.0799999999999998E-2</v>
+        <f>$B$111+($I$2*D120)</f>
+        <v>0.12479999999999999</v>
       </c>
       <c r="G120" s="5">
-        <f t="shared" si="56"/>
-        <v>0.01</v>
+        <f t="shared" si="53"/>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H120" s="5">
         <f t="shared" si="45"/>
-        <v>4.9806023732074815E-2</v>
+        <v>9.231028741303228E-2</v>
       </c>
       <c r="I120">
+        <f t="shared" si="48"/>
+        <v>1.4774713723470398</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="46"/>
+        <v>4.6512367549477324E-3</v>
+      </c>
+      <c r="K120">
+        <f>J120/$C$111</f>
+        <v>7.7520612582462206E-4</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="49"/>
+        <v>1905.9077619844479</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="50"/>
+        <v>5.294188227734578</v>
+      </c>
+      <c r="N120">
         <f t="shared" si="51"/>
-        <v>0.82639121985906172</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="48"/>
-        <v>3.4728822456614461E-3</v>
+        <v>317.65129366407467</v>
       </c>
       <c r="Q120" s="11"/>
       <c r="R120" s="8"/>
@@ -18925,38 +18956,54 @@
     </row>
     <row r="121" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C121">
-        <f>C120/360</f>
-        <v>141.52476325246346</v>
+        <v>74</v>
+      </c>
+      <c r="C121" s="13">
+        <f>(C118 *C120)/SQRT(POWER(C114,2)+POWER(C118,2))</f>
+        <v>2.7993163294027559</v>
       </c>
       <c r="D121">
         <v>13</v>
       </c>
       <c r="E121">
-        <f t="shared" si="46"/>
-        <v>79.367909729909982</v>
+        <f t="shared" si="47"/>
+        <v>49.070763901605154</v>
       </c>
       <c r="F121" s="5">
-        <f t="shared" si="47"/>
-        <v>5.4199999999999998E-2</v>
+        <f>$B$111+($I$2*D121)</f>
+        <v>0.12820000000000001</v>
       </c>
       <c r="G121" s="5">
-        <f t="shared" si="56"/>
-        <v>0.01</v>
+        <f t="shared" si="53"/>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H121" s="5">
         <f t="shared" si="45"/>
-        <v>5.3269503470559962E-2</v>
+        <v>9.6857571527870931E-2</v>
       </c>
       <c r="I121">
+        <f t="shared" si="48"/>
+        <v>1.3678122847748</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="46"/>
+        <v>4.5472841148386511E-3</v>
+      </c>
+      <c r="K121">
+        <f>J121/$C$111</f>
+        <v>7.5788068580644186E-4</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="49"/>
+        <v>1804.7857801249352</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="50"/>
+        <v>5.0132938336803754</v>
+      </c>
+      <c r="N121">
         <f t="shared" si="51"/>
-        <v>0.72074848624887977</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="48"/>
-        <v>3.4634797384851465E-3</v>
+        <v>300.79763002082251</v>
       </c>
       <c r="Q121" s="11"/>
       <c r="R121" s="8"/>
@@ -18971,39 +19018,48 @@
       <c r="AA121" s="8"/>
     </row>
     <row r="122" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>72</v>
-      </c>
-      <c r="C122">
-        <f>C121*60</f>
-        <v>8491.4857951478079</v>
-      </c>
       <c r="D122">
         <v>14</v>
       </c>
       <c r="E122">
-        <f t="shared" si="46"/>
-        <v>80.002156512432251</v>
+        <f t="shared" si="47"/>
+        <v>50.342222534012144</v>
       </c>
       <c r="F122" s="5">
-        <f t="shared" si="47"/>
-        <v>5.7599999999999998E-2</v>
+        <f>$B$111+($I$2*D122)</f>
+        <v>0.13159999999999999</v>
       </c>
       <c r="G122" s="5">
-        <f t="shared" si="56"/>
-        <v>0.01</v>
+        <f t="shared" si="53"/>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H122" s="5">
         <f t="shared" si="45"/>
-        <v>5.6725302996105717E-2</v>
+        <v>0.10131490098833747</v>
       </c>
       <c r="I122">
+        <f t="shared" si="48"/>
+        <v>1.2714586324069899</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="46"/>
+        <v>4.4573294604665359E-3</v>
+      </c>
+      <c r="K122">
+        <f>J122/$C$111</f>
+        <v>7.4288824341108928E-4</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="49"/>
+        <v>1711.5072740536123</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="50"/>
+        <v>4.7541868723711449</v>
+      </c>
+      <c r="N122">
         <f t="shared" si="51"/>
-        <v>0.6342467825222684</v>
-      </c>
-      <c r="J122">
-        <f t="shared" si="48"/>
-        <v>3.4557995255457552E-3</v>
+        <v>285.25121234226867</v>
       </c>
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
@@ -19018,32 +19074,55 @@
       <c r="AA122" s="8"/>
     </row>
     <row r="123" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123">
+        <f>SQRT(POWER(C114,2)+POWER(C118,2))</f>
+        <v>4525.5053058519188</v>
+      </c>
       <c r="D123">
         <v>15</v>
       </c>
       <c r="E123">
-        <f t="shared" si="46"/>
-        <v>80.56466127669681</v>
+        <f t="shared" si="47"/>
+        <v>51.52834052354055</v>
       </c>
       <c r="F123" s="5">
-        <f t="shared" si="47"/>
-        <v>6.0999999999999999E-2</v>
+        <f>$B$111+($I$2*D123)</f>
+        <v>0.13500000000000001</v>
       </c>
       <c r="G123" s="5">
-        <f t="shared" si="56"/>
-        <v>0.01</v>
+        <f t="shared" si="53"/>
+        <v>8.3987206393136865E-2</v>
       </c>
       <c r="H123" s="5">
         <f t="shared" si="45"/>
-        <v>6.0174745533321534E-2</v>
+        <v>0.10569365715253037</v>
       </c>
       <c r="I123">
         <f>E123-E122</f>
-        <v>0.56250476426455975</v>
+        <v>1.1861179895284053</v>
       </c>
       <c r="J123">
-        <f t="shared" si="48"/>
-        <v>3.4494425372158175E-3</v>
+        <f t="shared" si="46"/>
+        <v>4.3787561641929068E-3</v>
+      </c>
+      <c r="K123">
+        <f>J123/$C$111</f>
+        <v>7.2979269403215113E-4</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="49"/>
+        <v>1625.2807122184629</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="50"/>
+        <v>4.5146686450512856</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="51"/>
+        <v>270.88011870307713</v>
       </c>
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
@@ -19074,155 +19153,101 @@
       <c r="AA124" s="8"/>
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>78</v>
-      </c>
-      <c r="C125">
-        <v>500</v>
-      </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>76</v>
-      </c>
-      <c r="C126">
-        <v>100</v>
-      </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B127" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C127">
-        <f>1/(2*3.1416*C126*C125)</f>
-        <v>3.1830914183855364E-6</v>
-      </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C128" s="4"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>74</v>
-      </c>
-      <c r="C129">
-        <f>C121</f>
-        <v>141.52476325246346</v>
-      </c>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C130" s="13">
-        <f>1/(2*3.1416*C129*C127)</f>
-        <v>353.29506194478415</v>
-      </c>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C132">
-        <v>2.8</v>
-      </c>
+    <row r="132" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>77</v>
-      </c>
-      <c r="C133" s="13">
-        <f>(C130 *C132)/SQRT(POWER(C126,2)+POWER(C130,2))</f>
-        <v>2.6941552837864267</v>
-      </c>
+    <row r="133" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>80</v>
-      </c>
-      <c r="C135">
-        <f>SQRT(POWER(C126,2)+POWER(C130,2))</f>
-        <v>367.17489129101529</v>
-      </c>
+    <row r="135" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
@@ -19243,8 +19268,7 @@
       <c r="I147" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B108:C108"/>
+  <mergeCells count="4">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="D4:F4"/>
@@ -19260,7 +19284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BDFF7-A03C-4436-BDC7-9DE4C8404CC4}">
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -19284,7 +19308,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -19345,7 +19369,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H8" s="18">
         <v>14</v>
@@ -19356,7 +19380,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H9">
         <f>SUM(H4:H8)</f>
@@ -19374,7 +19398,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H11">
         <f>L5/H9</f>
@@ -19387,7 +19411,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H12">
         <f>H11/4</f>
@@ -19400,7 +19424,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>92.5</v>
@@ -19408,7 +19432,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>50000000</v>
@@ -19416,7 +19440,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>4.9999999999999997E-12</v>
@@ -19428,7 +19452,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -19436,7 +19460,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>3900</v>
@@ -19444,13 +19468,13 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -19473,7 +19497,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -19526,13 +19550,13 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="6:11" x14ac:dyDescent="0.25">
@@ -19554,7 +19578,7 @@
         <v>3.7138888888888889E-5</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="6:11" x14ac:dyDescent="0.25">
@@ -19573,7 +19597,7 @@
         <v>1.0277777777777777E-5</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="6:11" x14ac:dyDescent="0.25">
@@ -19592,7 +19616,7 @@
         <v>7.6916666666666662E-5</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="6:11" x14ac:dyDescent="0.25">
@@ -19611,7 +19635,7 @@
         <v>1.548611111111111E-5</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="6:11" x14ac:dyDescent="0.25">
@@ -19630,7 +19654,7 @@
         <v>6.0854166666666663E-4</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="6:11" x14ac:dyDescent="0.25">
@@ -19649,7 +19673,7 @@
         <v>2.1638888888888888E-5</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="6:11" x14ac:dyDescent="0.25">
@@ -19668,7 +19692,7 @@
         <v>3.8597222222222222E-5</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="6:11" x14ac:dyDescent="0.25">
@@ -19687,7 +19711,7 @@
         <v>9.4569444444444445E-5</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="6:11" x14ac:dyDescent="0.25">
@@ -19706,7 +19730,7 @@
         <v>4.6458333333333335E-5</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="6:11" x14ac:dyDescent="0.25">
@@ -19796,37 +19820,37 @@
   <sheetData>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
+      <c r="O4" t="s">
         <v>82</v>
       </c>
-      <c r="F4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" t="s">
         <v>86</v>
-      </c>
-      <c r="L4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BBE57E-6C77-469D-990B-0AE63891370E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D9AFD1-C1BF-4F91-BAAD-4C393F14F229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder Error" sheetId="1" r:id="rId1"/>
@@ -418,10 +418,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13482,7 +13482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11AFDFB-30EA-4EFD-BE21-A5C5DCB81B95}">
   <dimension ref="B2:AA147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="125" workbookViewId="0">
       <selection activeCell="N76" sqref="G76:N77"/>
     </sheetView>
   </sheetViews>
@@ -13505,33 +13505,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="22"/>
       <c r="I2">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -18195,8 +18195,8 @@
       <c r="AA107" s="8"/>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
       <c r="D108" s="6">
         <v>0</v>
       </c>
@@ -18204,7 +18204,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="7">
-        <f>$B$111+($I$2*D108)</f>
+        <f t="shared" ref="F108:F123" si="45">$B$111+($I$2*D108)</f>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G108" s="7">
@@ -18212,7 +18212,7 @@
         <v>8.3987206393136865E-2</v>
       </c>
       <c r="H108" s="7">
-        <f t="shared" ref="H108:H123" si="45">SIN(RADIANS(E108))*F108</f>
+        <f t="shared" ref="H108:H123" si="46">SIN(RADIANS(E108))*F108</f>
         <v>1.466002140731815E-3</v>
       </c>
       <c r="J108" s="5"/>
@@ -18239,7 +18239,7 @@
         <v>16.064246027615003</v>
       </c>
       <c r="F109" s="5">
-        <f>$B$111+($I$2*D109)</f>
+        <f t="shared" si="45"/>
         <v>8.7400000000000005E-2</v>
       </c>
       <c r="G109" s="5">
@@ -18247,7 +18247,7 @@
         <v>8.3987206393136865E-2</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2.4184895333175027E-2</v>
       </c>
       <c r="I109">
@@ -18255,11 +18255,11 @@
         <v>15.064246027615003</v>
       </c>
       <c r="J109">
-        <f t="shared" ref="J109:J123" si="46">H109-H108</f>
+        <f t="shared" ref="J109:J123" si="47">H109-H108</f>
         <v>2.2718893192443211E-2</v>
       </c>
       <c r="K109">
-        <f>J109/$C$111</f>
+        <f t="shared" ref="K109:K123" si="48">J109/$C$111</f>
         <v>3.7864821987405352E-3</v>
       </c>
       <c r="L109">
@@ -18297,11 +18297,11 @@
         <v>2</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E109:E123" si="47">DEGREES(ACOS(G110/F110) )</f>
+        <f t="shared" ref="E110:E123" si="49">DEGREES(ACOS(G110/F110) )</f>
         <v>22.336283890705477</v>
       </c>
       <c r="F110" s="5">
-        <f>$B$111+($I$2*D110)</f>
+        <f t="shared" si="45"/>
         <v>9.0800000000000006E-2</v>
       </c>
       <c r="G110" s="5">
@@ -18309,31 +18309,31 @@
         <v>8.3987206393136865E-2</v>
       </c>
       <c r="H110" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>3.450781306134354E-2</v>
       </c>
       <c r="I110">
-        <f t="shared" ref="I110:I122" si="48">E110-E109</f>
+        <f t="shared" ref="I110:I122" si="50">E110-E109</f>
         <v>6.2720378630904747</v>
       </c>
       <c r="J110">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0322917728168512E-2</v>
       </c>
       <c r="K110">
-        <f>J110/$C$111</f>
+        <f t="shared" si="48"/>
         <v>1.7204862880280853E-3</v>
       </c>
       <c r="L110">
-        <f t="shared" ref="L110:L123" si="49">(E110-E109)/K110</f>
+        <f t="shared" ref="L110:L123" si="51">(E110-E109)/K110</f>
         <v>3645.5029643270773</v>
       </c>
       <c r="M110">
-        <f t="shared" ref="M110:M123" si="50">L110/360</f>
+        <f t="shared" ref="M110:M123" si="52">L110/360</f>
         <v>10.12639712313077</v>
       </c>
       <c r="N110">
-        <f t="shared" ref="N110:N123" si="51">M110*60</f>
+        <f t="shared" ref="N110:N123" si="53">M110*60</f>
         <v>607.58382738784621</v>
       </c>
       <c r="Q110" s="11"/>
@@ -18359,43 +18359,43 @@
         <v>3</v>
       </c>
       <c r="E111">
+        <f t="shared" si="49"/>
+        <v>26.927037168594467</v>
+      </c>
+      <c r="F111" s="5">
+        <f t="shared" si="45"/>
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="G111" s="5">
+        <f t="shared" ref="G111:G117" si="54">G110</f>
+        <v>8.3987206393136865E-2</v>
+      </c>
+      <c r="H111" s="5">
+        <f t="shared" si="46"/>
+        <v>4.2658986887602356E-2</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="50"/>
+        <v>4.5907532778889895</v>
+      </c>
+      <c r="J111">
         <f t="shared" si="47"/>
-        <v>26.927037168594467</v>
-      </c>
-      <c r="F111" s="5">
-        <f>$B$111+($I$2*D111)</f>
-        <v>9.4200000000000006E-2</v>
-      </c>
-      <c r="G111" s="5">
-        <f t="shared" ref="G111:G117" si="52">G110</f>
-        <v>8.3987206393136865E-2</v>
-      </c>
-      <c r="H111" s="5">
-        <f t="shared" si="45"/>
-        <v>4.2658986887602356E-2</v>
-      </c>
-      <c r="I111">
+        <v>8.151173826258816E-3</v>
+      </c>
+      <c r="K111">
         <f t="shared" si="48"/>
-        <v>4.5907532778889895</v>
-      </c>
-      <c r="J111">
-        <f t="shared" si="46"/>
-        <v>8.151173826258816E-3</v>
-      </c>
-      <c r="K111">
-        <f>J111/$C$111</f>
         <v>1.358528971043136E-3</v>
       </c>
       <c r="L111">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>3379.2089647996354</v>
       </c>
       <c r="M111">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.3866915688878763</v>
       </c>
       <c r="N111">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>563.2014941332726</v>
       </c>
       <c r="Q111" s="11"/>
@@ -18415,43 +18415,43 @@
         <v>4</v>
       </c>
       <c r="E112">
+        <f t="shared" si="49"/>
+        <v>30.624457670866033</v>
+      </c>
+      <c r="F112" s="5">
+        <f t="shared" si="45"/>
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="G112" s="5">
+        <f t="shared" si="54"/>
+        <v>8.3987206393136865E-2</v>
+      </c>
+      <c r="H112" s="5">
+        <f t="shared" si="46"/>
+        <v>4.9718298062952943E-2</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="50"/>
+        <v>3.6974205022715658</v>
+      </c>
+      <c r="J112">
         <f t="shared" si="47"/>
-        <v>30.624457670866033</v>
-      </c>
-      <c r="F112" s="5">
-        <f>$B$111+($I$2*D112)</f>
-        <v>9.7600000000000006E-2</v>
-      </c>
-      <c r="G112" s="5">
+        <v>7.0593111753505869E-3</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="48"/>
+        <v>1.1765518625584312E-3</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="51"/>
+        <v>3142.5903268143784</v>
+      </c>
+      <c r="M112">
         <f t="shared" si="52"/>
-        <v>8.3987206393136865E-2</v>
-      </c>
-      <c r="H112" s="5">
-        <f t="shared" si="45"/>
-        <v>4.9718298062952943E-2</v>
-      </c>
-      <c r="I112">
-        <f t="shared" si="48"/>
-        <v>3.6974205022715658</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="46"/>
-        <v>7.0593111753505869E-3</v>
-      </c>
-      <c r="K112">
-        <f>J112/$C$111</f>
-        <v>1.1765518625584312E-3</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="49"/>
-        <v>3142.5903268143784</v>
-      </c>
-      <c r="M112">
-        <f t="shared" si="50"/>
         <v>8.7294175744843852</v>
       </c>
       <c r="N112">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>523.7650544690631</v>
       </c>
       <c r="Q112" s="11"/>
@@ -18481,39 +18481,39 @@
         <v>33.741038359886566</v>
       </c>
       <c r="F113" s="5">
-        <f>$B$111+($I$2*D113)</f>
+        <f t="shared" si="45"/>
         <v>0.10100000000000001</v>
       </c>
       <c r="G113" s="5">
+        <f t="shared" si="54"/>
+        <v>8.3987206393136865E-2</v>
+      </c>
+      <c r="H113" s="5">
+        <f t="shared" si="46"/>
+        <v>5.6099457771681099E-2</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="50"/>
+        <v>3.1165806890205339</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="47"/>
+        <v>6.3811597087281569E-3</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="48"/>
+        <v>1.0635266181213594E-3</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="51"/>
+        <v>2930.420956013063</v>
+      </c>
+      <c r="M113">
         <f t="shared" si="52"/>
-        <v>8.3987206393136865E-2</v>
-      </c>
-      <c r="H113" s="5">
-        <f t="shared" si="45"/>
-        <v>5.6099457771681099E-2</v>
-      </c>
-      <c r="I113">
-        <f t="shared" si="48"/>
-        <v>3.1165806890205339</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="46"/>
-        <v>6.3811597087281569E-3</v>
-      </c>
-      <c r="K113">
-        <f>J113/$C$111</f>
-        <v>1.0635266181213594E-3</v>
-      </c>
-      <c r="L113">
-        <f t="shared" si="49"/>
-        <v>2930.420956013063</v>
-      </c>
-      <c r="M113">
-        <f t="shared" si="50"/>
         <v>8.140058211147398</v>
       </c>
       <c r="N113">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>488.40349266884391</v>
       </c>
       <c r="Q113" s="11"/>
@@ -18539,43 +18539,43 @@
         <v>6</v>
       </c>
       <c r="E114">
+        <f t="shared" si="49"/>
+        <v>36.44040124394018</v>
+      </c>
+      <c r="F114" s="5">
+        <f t="shared" si="45"/>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="G114" s="5">
+        <f t="shared" si="54"/>
+        <v>8.3987206393136865E-2</v>
+      </c>
+      <c r="H114" s="5">
+        <f t="shared" si="46"/>
+        <v>6.201216946919879E-2</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="50"/>
+        <v>2.6993628840536132</v>
+      </c>
+      <c r="J114">
         <f t="shared" si="47"/>
-        <v>36.44040124394018</v>
-      </c>
-      <c r="F114" s="5">
-        <f>$B$111+($I$2*D114)</f>
-        <v>0.10440000000000001</v>
-      </c>
-      <c r="G114" s="5">
+        <v>5.9127116975176905E-3</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="48"/>
+        <v>9.8545194958628182E-4</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="51"/>
+        <v>2739.2130942425711</v>
+      </c>
+      <c r="M114">
         <f t="shared" si="52"/>
-        <v>8.3987206393136865E-2</v>
-      </c>
-      <c r="H114" s="5">
-        <f t="shared" si="45"/>
-        <v>6.201216946919879E-2</v>
-      </c>
-      <c r="I114">
-        <f t="shared" si="48"/>
-        <v>2.6993628840536132</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="46"/>
-        <v>5.9127116975176905E-3</v>
-      </c>
-      <c r="K114">
-        <f>J114/$C$111</f>
-        <v>9.8545194958628182E-4</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="49"/>
-        <v>2739.2130942425711</v>
-      </c>
-      <c r="M114">
-        <f t="shared" si="50"/>
         <v>7.6089252617849192</v>
       </c>
       <c r="N114">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>456.53551570709516</v>
       </c>
       <c r="Q114" s="8"/>
@@ -18602,43 +18602,43 @@
         <v>7</v>
       </c>
       <c r="E115">
+        <f t="shared" si="49"/>
+        <v>38.821562103911269</v>
+      </c>
+      <c r="F115" s="5">
+        <f t="shared" si="45"/>
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="G115" s="5">
+        <f t="shared" si="54"/>
+        <v>8.3987206393136865E-2</v>
+      </c>
+      <c r="H115" s="5">
+        <f t="shared" si="46"/>
+        <v>6.7579502530550117E-2</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="50"/>
+        <v>2.3811608599710894</v>
+      </c>
+      <c r="J115">
         <f t="shared" si="47"/>
-        <v>38.821562103911269</v>
-      </c>
-      <c r="F115" s="5">
-        <f>$B$111+($I$2*D115)</f>
-        <v>0.10780000000000001</v>
-      </c>
-      <c r="G115" s="5">
+        <v>5.5673330613513275E-3</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="48"/>
+        <v>9.2788884355855458E-4</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="51"/>
+        <v>2566.2134818208165</v>
+      </c>
+      <c r="M115">
         <f t="shared" si="52"/>
-        <v>8.3987206393136865E-2</v>
-      </c>
-      <c r="H115" s="5">
-        <f t="shared" si="45"/>
-        <v>6.7579502530550117E-2</v>
-      </c>
-      <c r="I115">
-        <f t="shared" si="48"/>
-        <v>2.3811608599710894</v>
-      </c>
-      <c r="J115">
-        <f t="shared" si="46"/>
-        <v>5.5673330613513275E-3</v>
-      </c>
-      <c r="K115">
-        <f>J115/$C$111</f>
-        <v>9.2788884355855458E-4</v>
-      </c>
-      <c r="L115">
-        <f t="shared" si="49"/>
-        <v>2566.2134818208165</v>
-      </c>
-      <c r="M115">
-        <f t="shared" si="50"/>
         <v>7.1283707828356011</v>
       </c>
       <c r="N115">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>427.70224697013606</v>
       </c>
       <c r="Q115" s="11"/>
@@ -18659,43 +18659,43 @@
         <v>8</v>
       </c>
       <c r="E116">
+        <f t="shared" si="49"/>
+        <v>40.950103091476691</v>
+      </c>
+      <c r="F116" s="5">
+        <f t="shared" si="45"/>
+        <v>0.11120000000000001</v>
+      </c>
+      <c r="G116" s="5">
+        <f t="shared" si="54"/>
+        <v>8.3987206393136865E-2</v>
+      </c>
+      <c r="H116" s="5">
+        <f t="shared" si="46"/>
+        <v>7.2880650122488816E-2</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="50"/>
+        <v>2.1285409875654224</v>
+      </c>
+      <c r="J116">
         <f t="shared" si="47"/>
-        <v>40.950103091476691</v>
-      </c>
-      <c r="F116" s="5">
-        <f>$B$111+($I$2*D116)</f>
-        <v>0.11120000000000001</v>
-      </c>
-      <c r="G116" s="5">
+        <v>5.3011475919386986E-3</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="48"/>
+        <v>8.8352459865644972E-4</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="51"/>
+        <v>2409.1473975962108</v>
+      </c>
+      <c r="M116">
         <f t="shared" si="52"/>
-        <v>8.3987206393136865E-2</v>
-      </c>
-      <c r="H116" s="5">
-        <f t="shared" si="45"/>
-        <v>7.2880650122488816E-2</v>
-      </c>
-      <c r="I116">
-        <f t="shared" si="48"/>
-        <v>2.1285409875654224</v>
-      </c>
-      <c r="J116">
-        <f t="shared" si="46"/>
-        <v>5.3011475919386986E-3</v>
-      </c>
-      <c r="K116">
-        <f>J116/$C$111</f>
-        <v>8.8352459865644972E-4</v>
-      </c>
-      <c r="L116">
-        <f t="shared" si="49"/>
-        <v>2409.1473975962108</v>
-      </c>
-      <c r="M116">
-        <f t="shared" si="50"/>
         <v>6.6920761044339185</v>
       </c>
       <c r="N116">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>401.52456626603509</v>
       </c>
       <c r="Q116" s="11"/>
@@ -18722,43 +18722,43 @@
         <v>9</v>
       </c>
       <c r="E117">
+        <f t="shared" si="49"/>
+        <v>42.872237324946603</v>
+      </c>
+      <c r="F117" s="5">
+        <f t="shared" si="45"/>
+        <v>0.11460000000000001</v>
+      </c>
+      <c r="G117" s="5">
+        <f t="shared" si="54"/>
+        <v>8.3987206393136865E-2</v>
+      </c>
+      <c r="H117" s="5">
+        <f t="shared" si="46"/>
+        <v>7.7969924729196921E-2</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="50"/>
+        <v>1.9221342334699116</v>
+      </c>
+      <c r="J117">
         <f t="shared" si="47"/>
-        <v>42.872237324946603</v>
-      </c>
-      <c r="F117" s="5">
-        <f>$B$111+($I$2*D117)</f>
-        <v>0.11460000000000001</v>
-      </c>
-      <c r="G117" s="5">
+        <v>5.0892746067081052E-3</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="48"/>
+        <v>8.4821243445135086E-4</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="51"/>
+        <v>2266.1000421589029</v>
+      </c>
+      <c r="M117">
         <f t="shared" si="52"/>
-        <v>8.3987206393136865E-2</v>
-      </c>
-      <c r="H117" s="5">
-        <f t="shared" si="45"/>
-        <v>7.7969924729196921E-2</v>
-      </c>
-      <c r="I117">
-        <f t="shared" si="48"/>
-        <v>1.9221342334699116</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="46"/>
-        <v>5.0892746067081052E-3</v>
-      </c>
-      <c r="K117">
-        <f>J117/$C$111</f>
-        <v>8.4821243445135086E-4</v>
-      </c>
-      <c r="L117">
-        <f t="shared" si="49"/>
-        <v>2266.1000421589029</v>
-      </c>
-      <c r="M117">
-        <f t="shared" si="50"/>
         <v>6.2947223393302858</v>
       </c>
       <c r="N117">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>377.68334035981712</v>
       </c>
       <c r="Q117" s="11"/>
@@ -18785,15 +18785,15 @@
         <v>10</v>
       </c>
       <c r="E118">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>44.622032603569437</v>
       </c>
       <c r="F118" s="5">
-        <f>$B$111+($I$2*D118)</f>
+        <f t="shared" si="45"/>
         <v>0.11799999999999999</v>
       </c>
       <c r="G118" s="5">
-        <f t="shared" ref="G118:G123" si="53">G117</f>
+        <f t="shared" ref="G118:G123" si="55">G117</f>
         <v>8.3987206393136865E-2</v>
       </c>
       <c r="H118" s="5">
@@ -18801,27 +18801,27 @@
         <v>8.2886362945159026E-2</v>
       </c>
       <c r="I118">
+        <f t="shared" si="50"/>
+        <v>1.7497952786228339</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="47"/>
+        <v>4.9164382159621045E-3</v>
+      </c>
+      <c r="K118">
         <f t="shared" si="48"/>
-        <v>1.7497952786228339</v>
-      </c>
-      <c r="J118">
-        <f t="shared" si="46"/>
-        <v>4.9164382159621045E-3</v>
-      </c>
-      <c r="K118">
-        <f>J118/$C$111</f>
         <v>8.1940636932701738E-4</v>
       </c>
       <c r="L118">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2135.4426132420103</v>
       </c>
       <c r="M118">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5.9317850367833618</v>
       </c>
       <c r="N118">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>355.90710220700169</v>
       </c>
       <c r="Q118" s="11"/>
@@ -18841,43 +18841,43 @@
         <v>11</v>
       </c>
       <c r="E119">
+        <f t="shared" si="49"/>
+        <v>46.225480244483315</v>
+      </c>
+      <c r="F119" s="5">
+        <f t="shared" si="45"/>
+        <v>0.12140000000000001</v>
+      </c>
+      <c r="G119" s="5">
+        <f t="shared" si="55"/>
+        <v>8.3987206393136865E-2</v>
+      </c>
+      <c r="H119" s="5">
+        <f t="shared" si="46"/>
+        <v>8.7659050658084547E-2</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="50"/>
+        <v>1.6034476409138776</v>
+      </c>
+      <c r="J119">
         <f t="shared" si="47"/>
-        <v>46.225480244483315</v>
-      </c>
-      <c r="F119" s="5">
-        <f>$B$111+($I$2*D119)</f>
-        <v>0.12140000000000001</v>
-      </c>
-      <c r="G119" s="5">
+        <v>4.7726877129255219E-3</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="48"/>
+        <v>7.9544795215425368E-4</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="51"/>
+        <v>2015.7794568096847</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="52"/>
+        <v>5.5993873800269016</v>
+      </c>
+      <c r="N119">
         <f t="shared" si="53"/>
-        <v>8.3987206393136865E-2</v>
-      </c>
-      <c r="H119" s="5">
-        <f t="shared" si="45"/>
-        <v>8.7659050658084547E-2</v>
-      </c>
-      <c r="I119">
-        <f t="shared" si="48"/>
-        <v>1.6034476409138776</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="46"/>
-        <v>4.7726877129255219E-3</v>
-      </c>
-      <c r="K119">
-        <f>J119/$C$111</f>
-        <v>7.9544795215425368E-4</v>
-      </c>
-      <c r="L119">
-        <f t="shared" si="49"/>
-        <v>2015.7794568096847</v>
-      </c>
-      <c r="M119">
-        <f t="shared" si="50"/>
-        <v>5.5993873800269016</v>
-      </c>
-      <c r="N119">
-        <f t="shared" si="51"/>
         <v>335.96324280161411</v>
       </c>
       <c r="Q119" s="11"/>
@@ -18903,43 +18903,43 @@
         <v>12</v>
       </c>
       <c r="E120">
+        <f t="shared" si="49"/>
+        <v>47.702951616830354</v>
+      </c>
+      <c r="F120" s="5">
+        <f t="shared" si="45"/>
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="G120" s="5">
+        <f t="shared" si="55"/>
+        <v>8.3987206393136865E-2</v>
+      </c>
+      <c r="H120" s="5">
+        <f t="shared" si="46"/>
+        <v>9.231028741303228E-2</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="50"/>
+        <v>1.4774713723470398</v>
+      </c>
+      <c r="J120">
         <f t="shared" si="47"/>
-        <v>47.702951616830354</v>
-      </c>
-      <c r="F120" s="5">
-        <f>$B$111+($I$2*D120)</f>
-        <v>0.12479999999999999</v>
-      </c>
-      <c r="G120" s="5">
+        <v>4.6512367549477324E-3</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="48"/>
+        <v>7.7520612582462206E-4</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="51"/>
+        <v>1905.9077619844479</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="52"/>
+        <v>5.294188227734578</v>
+      </c>
+      <c r="N120">
         <f t="shared" si="53"/>
-        <v>8.3987206393136865E-2</v>
-      </c>
-      <c r="H120" s="5">
-        <f t="shared" si="45"/>
-        <v>9.231028741303228E-2</v>
-      </c>
-      <c r="I120">
-        <f t="shared" si="48"/>
-        <v>1.4774713723470398</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="46"/>
-        <v>4.6512367549477324E-3</v>
-      </c>
-      <c r="K120">
-        <f>J120/$C$111</f>
-        <v>7.7520612582462206E-4</v>
-      </c>
-      <c r="L120">
-        <f t="shared" si="49"/>
-        <v>1905.9077619844479</v>
-      </c>
-      <c r="M120">
-        <f t="shared" si="50"/>
-        <v>5.294188227734578</v>
-      </c>
-      <c r="N120">
-        <f t="shared" si="51"/>
         <v>317.65129366407467</v>
       </c>
       <c r="Q120" s="11"/>
@@ -18966,43 +18966,43 @@
         <v>13</v>
       </c>
       <c r="E121">
+        <f t="shared" si="49"/>
+        <v>49.070763901605154</v>
+      </c>
+      <c r="F121" s="5">
+        <f t="shared" si="45"/>
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="G121" s="5">
+        <f t="shared" si="55"/>
+        <v>8.3987206393136865E-2</v>
+      </c>
+      <c r="H121" s="5">
+        <f t="shared" si="46"/>
+        <v>9.6857571527870931E-2</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="50"/>
+        <v>1.3678122847748</v>
+      </c>
+      <c r="J121">
         <f t="shared" si="47"/>
-        <v>49.070763901605154</v>
-      </c>
-      <c r="F121" s="5">
-        <f>$B$111+($I$2*D121)</f>
-        <v>0.12820000000000001</v>
-      </c>
-      <c r="G121" s="5">
+        <v>4.5472841148386511E-3</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="48"/>
+        <v>7.5788068580644186E-4</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="51"/>
+        <v>1804.7857801249352</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="52"/>
+        <v>5.0132938336803754</v>
+      </c>
+      <c r="N121">
         <f t="shared" si="53"/>
-        <v>8.3987206393136865E-2</v>
-      </c>
-      <c r="H121" s="5">
-        <f t="shared" si="45"/>
-        <v>9.6857571527870931E-2</v>
-      </c>
-      <c r="I121">
-        <f t="shared" si="48"/>
-        <v>1.3678122847748</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="46"/>
-        <v>4.5472841148386511E-3</v>
-      </c>
-      <c r="K121">
-        <f>J121/$C$111</f>
-        <v>7.5788068580644186E-4</v>
-      </c>
-      <c r="L121">
-        <f t="shared" si="49"/>
-        <v>1804.7857801249352</v>
-      </c>
-      <c r="M121">
-        <f t="shared" si="50"/>
-        <v>5.0132938336803754</v>
-      </c>
-      <c r="N121">
-        <f t="shared" si="51"/>
         <v>300.79763002082251</v>
       </c>
       <c r="Q121" s="11"/>
@@ -19022,43 +19022,43 @@
         <v>14</v>
       </c>
       <c r="E122">
+        <f t="shared" si="49"/>
+        <v>50.342222534012144</v>
+      </c>
+      <c r="F122" s="5">
+        <f t="shared" si="45"/>
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="G122" s="5">
+        <f t="shared" si="55"/>
+        <v>8.3987206393136865E-2</v>
+      </c>
+      <c r="H122" s="5">
+        <f t="shared" si="46"/>
+        <v>0.10131490098833747</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="50"/>
+        <v>1.2714586324069899</v>
+      </c>
+      <c r="J122">
         <f t="shared" si="47"/>
-        <v>50.342222534012144</v>
-      </c>
-      <c r="F122" s="5">
-        <f>$B$111+($I$2*D122)</f>
-        <v>0.13159999999999999</v>
-      </c>
-      <c r="G122" s="5">
+        <v>4.4573294604665359E-3</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="48"/>
+        <v>7.4288824341108928E-4</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="51"/>
+        <v>1711.5072740536123</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="52"/>
+        <v>4.7541868723711449</v>
+      </c>
+      <c r="N122">
         <f t="shared" si="53"/>
-        <v>8.3987206393136865E-2</v>
-      </c>
-      <c r="H122" s="5">
-        <f t="shared" si="45"/>
-        <v>0.10131490098833747</v>
-      </c>
-      <c r="I122">
-        <f t="shared" si="48"/>
-        <v>1.2714586324069899</v>
-      </c>
-      <c r="J122">
-        <f t="shared" si="46"/>
-        <v>4.4573294604665359E-3</v>
-      </c>
-      <c r="K122">
-        <f>J122/$C$111</f>
-        <v>7.4288824341108928E-4</v>
-      </c>
-      <c r="L122">
-        <f t="shared" si="49"/>
-        <v>1711.5072740536123</v>
-      </c>
-      <c r="M122">
-        <f t="shared" si="50"/>
-        <v>4.7541868723711449</v>
-      </c>
-      <c r="N122">
-        <f t="shared" si="51"/>
         <v>285.25121234226867</v>
       </c>
       <c r="Q122" s="8"/>
@@ -19085,19 +19085,19 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>51.52834052354055</v>
       </c>
       <c r="F123" s="5">
-        <f>$B$111+($I$2*D123)</f>
+        <f t="shared" si="45"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="G123" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>8.3987206393136865E-2</v>
       </c>
       <c r="H123" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.10569365715253037</v>
       </c>
       <c r="I123">
@@ -19105,23 +19105,23 @@
         <v>1.1861179895284053</v>
       </c>
       <c r="J123">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>4.3787561641929068E-3</v>
       </c>
       <c r="K123">
-        <f>J123/$C$111</f>
+        <f t="shared" si="48"/>
         <v>7.2979269403215113E-4</v>
       </c>
       <c r="L123">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1625.2807122184629</v>
       </c>
       <c r="M123">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>4.5146686450512856</v>
       </c>
       <c r="N123">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>270.88011870307713</v>
       </c>
       <c r="Q123" s="8"/>
@@ -19299,11 +19299,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="12"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -19519,8 +19519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1AC376-52B3-4B27-BBC6-391D349B9994}">
   <dimension ref="F4:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="168" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19534,10 +19534,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="22"/>
       <c r="H4">
         <v>72000000</v>
       </c>

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D9AFD1-C1BF-4F91-BAAD-4C393F14F229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A98068E-0C82-4EF8-B08D-482B7921E9C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder Error" sheetId="1" r:id="rId1"/>
     <sheet name="Angle" sheetId="2" r:id="rId2"/>
     <sheet name="Battery Consumption" sheetId="3" r:id="rId3"/>
     <sheet name="Cycle Counting" sheetId="4" r:id="rId4"/>
-    <sheet name="ADC" sheetId="5" r:id="rId5"/>
+    <sheet name="Antenna" sheetId="6" r:id="rId5"/>
+    <sheet name="ADC" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>Number of measurments</t>
   </si>
@@ -301,6 +302,21 @@
   </si>
   <si>
     <t>init length</t>
+  </si>
+  <si>
+    <t>Critical Length</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Eff</t>
+  </si>
+  <si>
+    <t>Mhz</t>
   </si>
 </sst>
 </file>
@@ -19519,7 +19535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1AC376-52B3-4B27-BBC6-391D349B9994}">
   <dimension ref="F4:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="168" workbookViewId="0">
+    <sheetView topLeftCell="D4" zoomScale="168" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -19803,6 +19819,64 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA989DE8-DF33-4045-B12C-91983CAB0821}">
+  <dimension ref="C10:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4">
+        <v>300000000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <v>2448</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="4">
+        <f>(D10/D11)*(1/SQRT(D12))*(1/12)</f>
+        <v>5538.4614434910163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9794E4-8E8D-461D-9918-F078072C3809}">
   <dimension ref="A4:Q58"/>
   <sheetViews>

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A98068E-0C82-4EF8-B08D-482B7921E9C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF8E609-B32C-42D9-A88B-B6978B9DD2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder Error" sheetId="1" r:id="rId1"/>
@@ -19300,8 +19300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BDFF7-A03C-4436-BDC7-9DE4C8404CC4}">
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19822,7 +19822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA989DE8-DF33-4045-B12C-91983CAB0821}">
   <dimension ref="C10:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/Encoder Characteristics.xlsx
+++ b/Encoder Characteristics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pauld\Programming\NN54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF8E609-B32C-42D9-A88B-B6978B9DD2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49AF6CC-DA51-45E4-870F-F8ADDF44BA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="348" yWindow="1620" windowWidth="17280" windowHeight="8976" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder Error" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>Number of measurments</t>
   </si>
@@ -390,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,32 +409,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,7 +785,7 @@
   <dimension ref="C4:K607"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -833,16 +814,16 @@
       <c r="I4" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
-      <c r="H5" s="19">
+      <c r="H5" s="1">
         <v>50000000</v>
       </c>
       <c r="I5">
@@ -864,7 +845,7 @@
       <c r="F6" s="1">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
@@ -908,7 +889,7 @@
       <c r="D9" s="1">
         <v>5.99</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="1">
         <f t="shared" ref="E9:E72" si="0">$F$6/D9</f>
         <v>5.676126878130216E-4</v>
       </c>
@@ -924,13 +905,13 @@
         <f t="shared" ref="H9:H72" si="3">((G9-D9)/D9)*100</f>
         <v>2.2353440841539861E-3</v>
       </c>
-      <c r="J9" s="17"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>5.98</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>5.6856187290969893E-4</v>
       </c>
@@ -951,7 +932,7 @@
       <c r="D11" s="1">
         <v>5.97</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>5.6951423785594644E-4</v>
       </c>
@@ -972,7 +953,7 @@
       <c r="D12" s="1">
         <v>5.96</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>5.7046979865771807E-4</v>
       </c>
@@ -993,7 +974,7 @@
       <c r="D13" s="1">
         <v>5.95</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>5.7142857142857136E-4</v>
       </c>
@@ -1014,7 +995,7 @@
       <c r="D14" s="1">
         <v>5.94</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>5.7239057239057232E-4</v>
       </c>
@@ -1035,7 +1016,7 @@
       <c r="D15" s="1">
         <v>5.93</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>5.7335581787521081E-4</v>
       </c>
@@ -1056,7 +1037,7 @@
       <c r="D16" s="1">
         <v>5.92</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>5.7432432432432431E-4</v>
       </c>
@@ -1077,7 +1058,7 @@
       <c r="D17" s="1">
         <v>5.91</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>5.7529610829103205E-4</v>
       </c>
@@ -1098,7 +1079,7 @@
       <c r="D18" s="1">
         <v>5.9</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>5.7627118644067795E-4</v>
       </c>
@@ -1119,7 +1100,7 @@
       <c r="D19" s="1">
         <v>5.89</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>5.7724957555178272E-4</v>
       </c>
@@ -1140,7 +1121,7 @@
       <c r="D20" s="1">
         <v>5.88</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>5.7823129251700683E-4</v>
       </c>
@@ -1161,7 +1142,7 @@
       <c r="D21" s="1">
         <v>5.87</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>5.7921635434412264E-4</v>
       </c>
@@ -1182,7 +1163,7 @@
       <c r="D22" s="1">
         <v>5.86</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>5.8020477815699648E-4</v>
       </c>
@@ -1203,7 +1184,7 @@
       <c r="D23" s="1">
         <v>5.85</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>5.8119658119658117E-4</v>
       </c>
@@ -1224,7 +1205,7 @@
       <c r="D24" s="1">
         <v>5.84</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>5.8219178082191778E-4</v>
       </c>
@@ -1245,7 +1226,7 @@
       <c r="D25" s="1">
         <v>5.83</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>5.8319039451114915E-4</v>
       </c>
@@ -1266,7 +1247,7 @@
       <c r="D26" s="1">
         <v>5.82</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="1">
         <f t="shared" si="0"/>
         <v>5.8419243986254285E-4</v>
       </c>
@@ -1287,7 +1268,7 @@
       <c r="D27" s="1">
         <v>5.81</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="1">
         <f t="shared" si="0"/>
         <v>5.8519793459552497E-4</v>
       </c>
@@ -1308,7 +1289,7 @@
       <c r="D28" s="1">
         <v>5.8</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="1">
         <f t="shared" si="0"/>
         <v>5.8620689655172417E-4</v>
       </c>
@@ -1329,7 +1310,7 @@
       <c r="D29" s="1">
         <v>5.79</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="1">
         <f t="shared" si="0"/>
         <v>5.8721934369602763E-4</v>
       </c>
@@ -1350,7 +1331,7 @@
       <c r="D30" s="1">
         <v>5.78</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>5.8823529411764701E-4</v>
       </c>
@@ -1371,7 +1352,7 @@
       <c r="D31" s="1">
         <v>5.77</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="1">
         <f t="shared" si="0"/>
         <v>5.8925476603119583E-4</v>
       </c>
@@ -1392,7 +1373,7 @@
       <c r="D32" s="1">
         <v>5.76</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="1">
         <f t="shared" si="0"/>
         <v>5.9027777777777778E-4</v>
       </c>
@@ -1413,7 +1394,7 @@
       <c r="D33" s="1">
         <v>5.75</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="1">
         <f t="shared" si="0"/>
         <v>5.913043478260869E-4</v>
       </c>
@@ -1434,7 +1415,7 @@
       <c r="D34" s="1">
         <v>5.74</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="1">
         <f t="shared" si="0"/>
         <v>5.9233449477351905E-4</v>
       </c>
@@ -1455,7 +1436,7 @@
       <c r="D35" s="1">
         <v>5.73</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="1">
         <f t="shared" si="0"/>
         <v>5.9336823734729485E-4</v>
       </c>
@@ -1476,7 +1457,7 @@
       <c r="D36" s="1">
         <v>5.72</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="1">
         <f t="shared" si="0"/>
         <v>5.9440559440559441E-4</v>
       </c>
@@ -1497,7 +1478,7 @@
       <c r="D37" s="1">
         <v>5.71</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="1">
         <f t="shared" si="0"/>
         <v>5.9544658493870405E-4</v>
       </c>
@@ -1518,7 +1499,7 @@
       <c r="D38" s="1">
         <v>5.7</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="1">
         <f t="shared" si="0"/>
         <v>5.9649122807017537E-4</v>
       </c>
@@ -1539,7 +1520,7 @@
       <c r="D39" s="1">
         <v>5.69</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="1">
         <f t="shared" si="0"/>
         <v>5.9753954305799637E-4</v>
       </c>
@@ -1560,7 +1541,7 @@
       <c r="D40" s="1">
         <v>5.68</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="1">
         <f t="shared" si="0"/>
         <v>5.9859154929577465E-4</v>
       </c>
@@ -1581,7 +1562,7 @@
       <c r="D41" s="1">
         <v>5.67</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="1">
         <f t="shared" si="0"/>
         <v>5.9964726631393296E-4</v>
       </c>
@@ -1602,7 +1583,7 @@
       <c r="D42" s="1">
         <v>5.66</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="1">
         <f t="shared" si="0"/>
         <v>6.0070671378091871E-4</v>
       </c>
@@ -1623,7 +1604,7 @@
       <c r="D43" s="1">
         <v>5.65</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="1">
         <f t="shared" si="0"/>
         <v>6.0176991150442472E-4</v>
       </c>
@@ -1644,7 +1625,7 @@
       <c r="D44" s="1">
         <v>5.6400000000000103</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="1">
         <f t="shared" si="0"/>
         <v>6.0283687943262301E-4</v>
       </c>
@@ -1665,7 +1646,7 @@
       <c r="D45" s="1">
         <v>5.6300000000000097</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="1">
         <f t="shared" si="0"/>
         <v>6.0390763765541631E-4</v>
       </c>
@@ -1686,7 +1667,7 @@
       <c r="D46" s="1">
         <v>5.6200000000000099</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="1">
         <f t="shared" si="0"/>
         <v>6.0498220640569289E-4</v>
       </c>
@@ -1707,7 +1688,7 @@
       <c r="D47" s="1">
         <v>5.6100000000000101</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="1">
         <f t="shared" si="0"/>
         <v>6.0606060606060498E-4</v>
       </c>
@@ -1728,7 +1709,7 @@
       <c r="D48" s="1">
         <v>5.6000000000000103</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="1">
         <f t="shared" si="0"/>
         <v>6.0714285714285601E-4</v>
       </c>
@@ -1749,7 +1730,7 @@
       <c r="D49" s="1">
         <v>5.5900000000000096</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="1">
         <f t="shared" si="0"/>
         <v>6.0822898032200255E-4</v>
       </c>
@@ -1770,7 +1751,7 @@
       <c r="D50" s="1">
         <v>5.5800000000000098</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="1">
         <f t="shared" si="0"/>
         <v>6.0931899641576952E-4</v>
       </c>
@@ -1791,7 +1772,7 @@
       <c r="D51" s="1">
         <v>5.5700000000000101</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="1">
         <f t="shared" si="0"/>
         <v>6.1041292639138131E-4</v>
       </c>
@@ -1812,7 +1793,7 @@
       <c r="D52" s="1">
         <v>5.5600000000000103</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="1">
         <f t="shared" si="0"/>
         <v>6.1151079136690528E-4</v>
       </c>
@@ -1833,7 +1814,7 @@
       <c r="D53" s="1">
         <v>5.5500000000000096</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="1">
         <f t="shared" si="0"/>
         <v>6.1261261261261147E-4</v>
       </c>
@@ -1854,7 +1835,7 @@
       <c r="D54" s="1">
         <v>5.5400000000000098</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="1">
         <f t="shared" si="0"/>
         <v>6.1371841155234545E-4</v>
       </c>
@@ -1875,7 +1856,7 @@
       <c r="D55" s="1">
         <v>5.53000000000001</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="1">
         <f t="shared" si="0"/>
         <v>6.1482820976491745E-4</v>
       </c>
@@ -1896,7 +1877,7 @@
       <c r="D56" s="1">
         <v>5.5200000000000102</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="1">
         <f t="shared" si="0"/>
         <v>6.1594202898550602E-4</v>
       </c>
@@ -1917,7 +1898,7 @@
       <c r="D57" s="1">
         <v>5.5100000000000096</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="1">
         <f t="shared" si="0"/>
         <v>6.170598911070769E-4</v>
       </c>
@@ -1938,7 +1919,7 @@
       <c r="D58" s="1">
         <v>5.5000000000000098</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="1">
         <f t="shared" si="0"/>
         <v>6.1818181818181709E-4</v>
       </c>
@@ -1959,7 +1940,7 @@
       <c r="D59" s="1">
         <v>5.49000000000001</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="1">
         <f t="shared" si="0"/>
         <v>6.1930783242258533E-4</v>
       </c>
@@ -1980,7 +1961,7 @@
       <c r="D60" s="1">
         <v>5.4800000000000102</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="1">
         <f t="shared" si="0"/>
         <v>6.2043795620437842E-4</v>
       </c>
@@ -2001,7 +1982,7 @@
       <c r="D61" s="1">
         <v>5.4700000000000104</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="1">
         <f t="shared" si="0"/>
         <v>6.2157221206581232E-4</v>
       </c>
@@ -2022,7 +2003,7 @@
       <c r="D62" s="1">
         <v>5.4600000000000097</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="1">
         <f t="shared" si="0"/>
         <v>6.2271062271062152E-4</v>
       </c>
@@ -2043,7 +2024,7 @@
       <c r="D63" s="1">
         <v>5.4500000000000099</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="1">
         <f t="shared" si="0"/>
         <v>6.2385321100917308E-4</v>
       </c>
@@ -2064,7 +2045,7 @@
       <c r="D64" s="1">
         <v>5.4400000000000102</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="1">
         <f t="shared" si="0"/>
         <v>6.2499999999999882E-4</v>
       </c>
@@ -2085,7 +2066,7 @@
       <c r="D65" s="1">
         <v>5.4300000000000104</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="1">
         <f t="shared" si="0"/>
         <v>6.2615101289134319E-4</v>
       </c>
@@ -2106,7 +2087,7 @@
       <c r="D66" s="1">
         <v>5.4200000000000097</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="1">
         <f t="shared" si="0"/>
         <v>6.2730627306272944E-4</v>
       </c>
@@ -2127,7 +2108,7 @@
       <c r="D67" s="1">
         <v>5.4100000000000099</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="1">
         <f t="shared" si="0"/>
         <v>6.2846580406654222E-4</v>
       </c>
@@ -2148,7 +2129,7 @@
       <c r="D68" s="1">
         <v>5.4000000000000101</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="1">
         <f t="shared" si="0"/>
         <v>6.2962962962962842E-4</v>
       </c>
@@ -2169,7 +2150,7 @@
       <c r="D69" s="1">
         <v>5.3900000000000103</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="1">
         <f t="shared" si="0"/>
         <v>6.307977736549153E-4</v>
       </c>
@@ -2190,7 +2171,7 @@
       <c r="D70" s="1">
         <v>5.3800000000000097</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="1">
         <f t="shared" si="0"/>
         <v>6.3197026022304714E-4</v>
       </c>
@@ -2211,7 +2192,7 @@
       <c r="D71" s="1">
         <v>5.3700000000000099</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="1">
         <f t="shared" si="0"/>
         <v>6.331471135940398E-4</v>
       </c>
@@ -2232,7 +2213,7 @@
       <c r="D72" s="1">
         <v>5.3600000000000101</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="1">
         <f t="shared" si="0"/>
         <v>6.3432835820895401E-4</v>
       </c>
@@ -2253,7 +2234,7 @@
       <c r="D73" s="1">
         <v>5.3500000000000103</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="1">
         <f t="shared" ref="E73:E136" si="4">$F$6/D73</f>
         <v>6.3551401869158756E-4</v>
       </c>
@@ -2274,7 +2255,7 @@
       <c r="D74" s="1">
         <v>5.3400000000000096</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="1">
         <f t="shared" si="4"/>
         <v>6.3670411985018607E-4</v>
       </c>
@@ -2295,7 +2276,7 @@
       <c r="D75" s="1">
         <v>5.3300000000000098</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="1">
         <f t="shared" si="4"/>
         <v>6.3789868667917329E-4</v>
       </c>
@@ -2316,7 +2297,7 @@
       <c r="D76" s="1">
         <v>5.3200000000000101</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="1">
         <f t="shared" si="4"/>
         <v>6.3909774436090097E-4</v>
       </c>
@@ -2337,7 +2318,7 @@
       <c r="D77" s="1">
         <v>5.3100000000000103</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="1">
         <f t="shared" si="4"/>
         <v>6.4030131826741873E-4</v>
       </c>
@@ -2358,7 +2339,7 @@
       <c r="D78" s="1">
         <v>5.3000000000000096</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="1">
         <f t="shared" si="4"/>
         <v>6.41509433962263E-4</v>
       </c>
@@ -2379,7 +2360,7 @@
       <c r="D79" s="1">
         <v>5.2900000000000098</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="1">
         <f t="shared" si="4"/>
         <v>6.4272211720226718E-4</v>
       </c>
@@ -2400,7 +2381,7 @@
       <c r="D80" s="1">
         <v>5.28000000000001</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="1">
         <f t="shared" si="4"/>
         <v>6.4393939393939266E-4</v>
       </c>
@@ -2421,7 +2402,7 @@
       <c r="D81" s="1">
         <v>5.2700000000000102</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="1">
         <f t="shared" si="4"/>
         <v>6.4516129032257934E-4</v>
       </c>
@@ -2442,7 +2423,7 @@
       <c r="D82" s="1">
         <v>5.2600000000000096</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="1">
         <f t="shared" si="4"/>
         <v>6.4638783269961857E-4</v>
       </c>
@@ -2463,7 +2444,7 @@
       <c r="D83" s="1">
         <v>5.2500000000000098</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="1">
         <f t="shared" si="4"/>
         <v>6.476190476190464E-4</v>
       </c>
@@ -2484,7 +2465,7 @@
       <c r="D84" s="1">
         <v>5.24000000000001</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="1">
         <f t="shared" si="4"/>
         <v>6.4885496183205978E-4</v>
       </c>
@@ -2505,7 +2486,7 @@
       <c r="D85" s="1">
         <v>5.2300000000000102</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="1">
         <f t="shared" si="4"/>
         <v>6.5009560229445373E-4</v>
       </c>
@@ -2526,7 +2507,7 @@
       <c r="D86" s="1">
         <v>5.2200000000000104</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="1">
         <f t="shared" si="4"/>
         <v>6.5134099616858104E-4</v>
       </c>
@@ -2547,7 +2528,7 @@
       <c r="D87" s="1">
         <v>5.2100000000000097</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="1">
         <f t="shared" si="4"/>
         <v>6.5259117082533467E-4</v>
       </c>
@@ -2568,7 +2549,7 @@
       <c r="D88" s="1">
         <v>5.2000000000000099</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="1">
         <f t="shared" si="4"/>
         <v>6.5384615384615253E-4</v>
       </c>
@@ -2589,7 +2570,7 @@
       <c r="D89" s="1">
         <v>5.1900000000000102</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="1">
         <f t="shared" si="4"/>
         <v>6.5510597302504683E-4</v>
       </c>
@@ -2610,7 +2591,7 @@
       <c r="D90" s="1">
         <v>5.1800000000000104</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="1">
         <f t="shared" si="4"/>
         <v>6.5637065637065507E-4</v>
       </c>
@@ -2631,7 +2612,7 @@
       <c r="D91" s="1">
         <v>5.1700000000000204</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="1">
         <f t="shared" si="4"/>
         <v>6.5764023210831458E-4</v>
       </c>
@@ -2652,7 +2633,7 @@
       <c r="D92" s="1">
         <v>5.1600000000000197</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="1">
         <f t="shared" si="4"/>
         <v>6.5891472868216802E-4</v>
       </c>
@@ -2673,7 +2654,7 @@
       <c r="D93" s="1">
         <v>5.1500000000000199</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E93" s="1">
         <f t="shared" si="4"/>
         <v>6.6019417475727898E-4</v>
       </c>
@@ -2694,7 +2675,7 @@
       <c r="D94" s="1">
         <v>5.1400000000000201</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="1">
         <f t="shared" si="4"/>
         <v>6.6147859922178727E-4</v>
       </c>
@@ -2715,7 +2696,7 @@
       <c r="D95" s="1">
         <v>5.1300000000000203</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="1">
         <f t="shared" si="4"/>
         <v>6.6276803118908115E-4</v>
       </c>
@@ -2736,7 +2717,7 @@
       <c r="D96" s="1">
         <v>5.1200000000000196</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="1">
         <f t="shared" si="4"/>
         <v>6.6406249999999745E-4</v>
       </c>
@@ -2757,7 +2738,7 @@
       <c r="D97" s="1">
         <v>5.1100000000000199</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="1">
         <f t="shared" si="4"/>
         <v>6.6536203522504626E-4</v>
       </c>
@@ -2778,7 +2759,7 @@
       <c r="D98" s="1">
         <v>5.1000000000000201</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E98" s="1">
         <f t="shared" si="4"/>
         <v>6.6666666666666404E-4</v>
       </c>
@@ -2799,7 +2780,7 @@
       <c r="D99" s="1">
         <v>5.0900000000000203</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="1">
         <f t="shared" si="4"/>
         <v>6.6797642436149042E-4</v>
       </c>
@@ -2820,7 +2801,7 @@
       <c r="D100" s="1">
         <v>5.0800000000000196</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="1">
         <f t="shared" si="4"/>
         <v>6.6929133858267451E-4</v>
       </c>
@@ -2841,7 +2822,7 @@
       <c r="D101" s="1">
         <v>5.0700000000000198</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="1">
         <f t="shared" si="4"/>
         <v>6.7061143984220638E-4</v>
       </c>
@@ -2862,7 +2843,7 @@
       <c r="D102" s="1">
         <v>5.06000000000002</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="1">
         <f t="shared" si="4"/>
         <v>6.719367588932779E-4</v>
       </c>
@@ -2883,7 +2864,7 @@
       <c r="D103" s="1">
         <v>5.0500000000000203</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="1">
         <f t="shared" si="4"/>
         <v>6.732673267326705E-4</v>
       </c>
@@ -2904,7 +2885,7 @@
       <c r="D104" s="1">
         <v>5.0400000000000196</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="1">
         <f t="shared" si="4"/>
         <v>6.7460317460317195E-4</v>
       </c>
@@ -2925,7 +2906,7 @@
       <c r="D105" s="1">
         <v>5.0300000000000198</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E105" s="1">
         <f t="shared" si="4"/>
         <v>6.7594433399602121E-4</v>
       </c>
@@ -2946,7 +2927,7 @@
       <c r="D106" s="1">
         <v>5.02000000000002</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E106" s="1">
         <f t="shared" si="4"/>
         <v>6.7729083665338371E-4</v>
       </c>
@@ -2967,7 +2948,7 @@
       <c r="D107" s="1">
         <v>5.0100000000000202</v>
       </c>
-      <c r="E107" s="10">
+      <c r="E107" s="1">
         <f t="shared" si="4"/>
         <v>6.7864271457085553E-4</v>
       </c>
@@ -2988,7 +2969,7 @@
       <c r="D108" s="1">
         <v>5.0000000000000204</v>
       </c>
-      <c r="E108" s="10">
+      <c r="E108" s="1">
         <f t="shared" si="4"/>
         <v>6.7999999999999723E-4</v>
       </c>
@@ -3009,7 +2990,7 @@
       <c r="D109" s="1">
         <v>4.9900000000000198</v>
       </c>
-      <c r="E109" s="10">
+      <c r="E109" s="1">
         <f t="shared" si="4"/>
         <v>6.8136272545089903E-4</v>
       </c>
@@ -3030,7 +3011,7 @@
       <c r="D110" s="1">
         <v>4.98000000000002</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E110" s="1">
         <f t="shared" si="4"/>
         <v>6.8273092369477636E-4</v>
       </c>
@@ -3051,7 +3032,7 @@
       <c r="D111" s="1">
         <v>4.9700000000000202</v>
       </c>
-      <c r="E111" s="10">
+      <c r="E111" s="1">
         <f t="shared" si="4"/>
         <v>6.8410462776659678E-4</v>
       </c>
@@ -3072,7 +3053,7 @@
       <c r="D112" s="1">
         <v>4.9600000000000204</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E112" s="1">
         <f t="shared" si="4"/>
         <v>6.8548387096773909E-4</v>
       </c>
@@ -3093,7 +3074,7 @@
       <c r="D113" s="1">
         <v>4.9500000000000197</v>
       </c>
-      <c r="E113" s="10">
+      <c r="E113" s="1">
         <f t="shared" si="4"/>
         <v>6.8686868686868409E-4</v>
       </c>
@@ -3114,7 +3095,7 @@
       <c r="D114" s="1">
         <v>4.9400000000000199</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E114" s="1">
         <f t="shared" si="4"/>
         <v>6.8825910931173803E-4</v>
       </c>
@@ -3135,7 +3116,7 @@
       <c r="D115" s="1">
         <v>4.9300000000000201</v>
       </c>
-      <c r="E115" s="10">
+      <c r="E115" s="1">
         <f t="shared" si="4"/>
         <v>6.8965517241379023E-4</v>
       </c>
@@ -3156,7 +3137,7 @@
       <c r="D116" s="1">
         <v>4.9200000000000204</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E116" s="1">
         <f t="shared" si="4"/>
         <v>6.9105691056910276E-4</v>
       </c>
@@ -3177,7 +3158,7 @@
       <c r="D117" s="1">
         <v>4.9100000000000197</v>
       </c>
-      <c r="E117" s="10">
+      <c r="E117" s="1">
         <f t="shared" si="4"/>
         <v>6.9246435845213565E-4</v>
       </c>
@@ -3198,7 +3179,7 @@
       <c r="D118" s="1">
         <v>4.9000000000000199</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118" s="1">
         <f t="shared" si="4"/>
         <v>6.9387755102040527E-4</v>
       </c>
@@ -3219,7 +3200,7 @@
       <c r="D119" s="1">
         <v>4.8900000000000201</v>
       </c>
-      <c r="E119" s="10">
+      <c r="E119" s="1">
         <f t="shared" si="4"/>
         <v>6.9529652351737949E-4</v>
       </c>
@@ -3240,7 +3221,7 @@
       <c r="D120" s="1">
         <v>4.8800000000000203</v>
       </c>
-      <c r="E120" s="10">
+      <c r="E120" s="1">
         <f t="shared" si="4"/>
         <v>6.9672131147540685E-4</v>
       </c>
@@ -3261,7 +3242,7 @@
       <c r="D121" s="1">
         <v>4.8700000000000196</v>
       </c>
-      <c r="E121" s="10">
+      <c r="E121" s="1">
         <f t="shared" si="4"/>
         <v>6.9815195071868297E-4</v>
       </c>
@@ -3282,7 +3263,7 @@
       <c r="D122" s="1">
         <v>4.8600000000000199</v>
       </c>
-      <c r="E122" s="10">
+      <c r="E122" s="1">
         <f t="shared" si="4"/>
         <v>6.9958847736625222E-4</v>
       </c>
@@ -3303,7 +3284,7 @@
       <c r="D123" s="1">
         <v>4.8500000000000201</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E123" s="1">
         <f t="shared" si="4"/>
         <v>7.0103092783504865E-4</v>
       </c>
@@ -3324,7 +3305,7 @@
       <c r="D124" s="1">
         <v>4.8400000000000203</v>
       </c>
-      <c r="E124" s="10">
+      <c r="E124" s="1">
         <f t="shared" si="4"/>
         <v>7.0247933884297223E-4</v>
       </c>
@@ -3345,7 +3326,7 @@
       <c r="D125" s="1">
         <v>4.8300000000000196</v>
       </c>
-      <c r="E125" s="10">
+      <c r="E125" s="1">
         <f t="shared" si="4"/>
         <v>7.0393374741200534E-4</v>
       </c>
@@ -3366,7 +3347,7 @@
       <c r="D126" s="1">
         <v>4.8200000000000198</v>
       </c>
-      <c r="E126" s="10">
+      <c r="E126" s="1">
         <f t="shared" si="4"/>
         <v>7.0539419087136638E-4</v>
       </c>
@@ -3387,7 +3368,7 @@
       <c r="D127" s="1">
         <v>4.81000000000002</v>
       </c>
-      <c r="E127" s="10">
+      <c r="E127" s="1">
         <f t="shared" si="4"/>
         <v>7.0686070686070389E-4</v>
       </c>
@@ -3408,7 +3389,7 @@
       <c r="D128" s="1">
         <v>4.8000000000000203</v>
       </c>
-      <c r="E128" s="10">
+      <c r="E128" s="1">
         <f t="shared" si="4"/>
         <v>7.0833333333333035E-4</v>
       </c>
@@ -3429,7 +3410,7 @@
       <c r="D129" s="1">
         <v>4.7900000000000196</v>
       </c>
-      <c r="E129" s="10">
+      <c r="E129" s="1">
         <f t="shared" si="4"/>
         <v>7.0981210855949601E-4</v>
       </c>
@@ -3450,7 +3431,7 @@
       <c r="D130" s="1">
         <v>4.7800000000000198</v>
       </c>
-      <c r="E130" s="10">
+      <c r="E130" s="1">
         <f t="shared" si="4"/>
         <v>7.1129707112970418E-4</v>
       </c>
@@ -3471,7 +3452,7 @@
       <c r="D131" s="1">
         <v>4.77000000000002</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="1">
         <f t="shared" si="4"/>
         <v>7.1278825995806821E-4</v>
       </c>
@@ -3492,7 +3473,7 @@
       <c r="D132" s="1">
         <v>4.7600000000000202</v>
       </c>
-      <c r="E132" s="10">
+      <c r="E132" s="1">
         <f t="shared" si="4"/>
         <v>7.1428571428571125E-4</v>
       </c>
@@ -3513,7 +3494,7 @@
       <c r="D133" s="1">
         <v>4.7500000000000204</v>
       </c>
-      <c r="E133" s="10">
+      <c r="E133" s="1">
         <f t="shared" si="4"/>
         <v>7.1578947368420741E-4</v>
       </c>
@@ -3534,7 +3515,7 @@
       <c r="D134" s="1">
         <v>4.7400000000000198</v>
       </c>
-      <c r="E134" s="10">
+      <c r="E134" s="1">
         <f t="shared" si="4"/>
         <v>7.1729957805906873E-4</v>
       </c>
@@ -3555,7 +3536,7 @@
       <c r="D135" s="1">
         <v>4.73000000000002</v>
       </c>
-      <c r="E135" s="10">
+      <c r="E135" s="1">
         <f t="shared" si="4"/>
         <v>7.1881606765327388E-4</v>
       </c>
@@ -3576,7 +3557,7 @@
       <c r="D136" s="1">
         <v>4.7200000000000202</v>
       </c>
-      <c r="E136" s="10">
+      <c r="E136" s="1">
         <f t="shared" si="4"/>
         <v>7.2033898305084434E-4</v>
       </c>
@@ -3597,7 +3578,7 @@
       <c r="D137" s="1">
         <v>4.7100000000000302</v>
       </c>
-      <c r="E137" s="10">
+      <c r="E137" s="1">
         <f t="shared" ref="E137:E200" si="8">$F$6/D137</f>
         <v>7.2186836518046244E-4</v>
       </c>
@@ -3618,7 +3599,7 @@
       <c r="D138" s="1">
         <v>4.7000000000000304</v>
       </c>
-      <c r="E138" s="10">
+      <c r="E138" s="1">
         <f t="shared" si="8"/>
         <v>7.2340425531914427E-4</v>
       </c>
@@ -3639,7 +3620,7 @@
       <c r="D139" s="1">
         <v>4.6900000000000297</v>
       </c>
-      <c r="E139" s="10">
+      <c r="E139" s="1">
         <f t="shared" si="8"/>
         <v>7.249466950959442E-4</v>
       </c>
@@ -3660,7 +3641,7 @@
       <c r="D140" s="1">
         <v>4.6800000000000299</v>
       </c>
-      <c r="E140" s="10">
+      <c r="E140" s="1">
         <f t="shared" si="8"/>
         <v>7.2649572649572183E-4</v>
       </c>
@@ -3681,7 +3662,7 @@
       <c r="D141" s="1">
         <v>4.6700000000000301</v>
       </c>
-      <c r="E141" s="10">
+      <c r="E141" s="1">
         <f t="shared" si="8"/>
         <v>7.2805139186295025E-4</v>
       </c>
@@ -3702,7 +3683,7 @@
       <c r="D142" s="1">
         <v>4.6600000000000303</v>
       </c>
-      <c r="E142" s="10">
+      <c r="E142" s="1">
         <f t="shared" si="8"/>
         <v>7.296137339055746E-4</v>
       </c>
@@ -3723,7 +3704,7 @@
       <c r="D143" s="1">
         <v>4.6500000000000297</v>
       </c>
-      <c r="E143" s="10">
+      <c r="E143" s="1">
         <f t="shared" si="8"/>
         <v>7.3118279569891998E-4</v>
       </c>
@@ -3744,7 +3725,7 @@
       <c r="D144" s="1">
         <v>4.6400000000000299</v>
       </c>
-      <c r="E144" s="10">
+      <c r="E144" s="1">
         <f t="shared" si="8"/>
         <v>7.3275862068965041E-4</v>
       </c>
@@ -3765,7 +3746,7 @@
       <c r="D145" s="1">
         <v>4.6300000000000301</v>
       </c>
-      <c r="E145" s="10">
+      <c r="E145" s="1">
         <f t="shared" si="8"/>
         <v>7.3434125269977919E-4</v>
       </c>
@@ -3786,7 +3767,7 @@
       <c r="D146" s="1">
         <v>4.6200000000000303</v>
       </c>
-      <c r="E146" s="10">
+      <c r="E146" s="1">
         <f t="shared" si="8"/>
         <v>7.3593073593073105E-4</v>
       </c>
@@ -3807,7 +3788,7 @@
       <c r="D147" s="1">
         <v>4.6100000000000296</v>
       </c>
-      <c r="E147" s="10">
+      <c r="E147" s="1">
         <f t="shared" si="8"/>
         <v>7.3752711496745729E-4</v>
       </c>
@@ -3828,7 +3809,7 @@
       <c r="D148" s="1">
         <v>4.6000000000000298</v>
       </c>
-      <c r="E148" s="10">
+      <c r="E148" s="1">
         <f t="shared" si="8"/>
         <v>7.3913043478260386E-4</v>
       </c>
@@ -3849,7 +3830,7 @@
       <c r="D149" s="1">
         <v>4.5900000000000301</v>
       </c>
-      <c r="E149" s="10">
+      <c r="E149" s="1">
         <f t="shared" si="8"/>
         <v>7.4074074074073583E-4</v>
       </c>
@@ -3870,7 +3851,7 @@
       <c r="D150" s="1">
         <v>4.5800000000000303</v>
       </c>
-      <c r="E150" s="10">
+      <c r="E150" s="1">
         <f t="shared" si="8"/>
         <v>7.4235807860261512E-4</v>
       </c>
@@ -3891,7 +3872,7 @@
       <c r="D151" s="1">
         <v>4.5700000000000296</v>
       </c>
-      <c r="E151" s="10">
+      <c r="E151" s="1">
         <f t="shared" si="8"/>
         <v>7.4398249452953561E-4</v>
       </c>
@@ -3912,7 +3893,7 @@
       <c r="D152" s="1">
         <v>4.5600000000000298</v>
       </c>
-      <c r="E152" s="10">
+      <c r="E152" s="1">
         <f t="shared" si="8"/>
         <v>7.4561403508771433E-4</v>
       </c>
@@ -3933,7 +3914,7 @@
       <c r="D153" s="1">
         <v>4.55000000000003</v>
       </c>
-      <c r="E153" s="10">
+      <c r="E153" s="1">
         <f t="shared" si="8"/>
         <v>7.4725274725274233E-4</v>
       </c>
@@ -3954,7 +3935,7 @@
       <c r="D154" s="1">
         <v>4.5400000000000302</v>
       </c>
-      <c r="E154" s="10">
+      <c r="E154" s="1">
         <f t="shared" si="8"/>
         <v>7.4889867841409184E-4</v>
       </c>
@@ -3975,7 +3956,7 @@
       <c r="D155" s="1">
         <v>4.5300000000000296</v>
       </c>
-      <c r="E155" s="10">
+      <c r="E155" s="1">
         <f t="shared" si="8"/>
         <v>7.5055187637968596E-4</v>
       </c>
@@ -3996,7 +3977,7 @@
       <c r="D156" s="1">
         <v>4.5200000000000298</v>
       </c>
-      <c r="E156" s="10">
+      <c r="E156" s="1">
         <f t="shared" si="8"/>
         <v>7.5221238938052602E-4</v>
       </c>
@@ -4017,7 +3998,7 @@
       <c r="D157" s="1">
         <v>4.51000000000003</v>
       </c>
-      <c r="E157" s="10">
+      <c r="E157" s="1">
         <f t="shared" si="8"/>
         <v>7.5388026607538293E-4</v>
       </c>
@@ -4038,7 +4019,7 @@
       <c r="D158" s="1">
         <v>4.5000000000000302</v>
       </c>
-      <c r="E158" s="10">
+      <c r="E158" s="1">
         <f t="shared" si="8"/>
         <v>7.5555555555555044E-4</v>
       </c>
@@ -4059,7 +4040,7 @@
       <c r="D159" s="1">
         <v>4.4900000000000304</v>
       </c>
-      <c r="E159" s="10">
+      <c r="E159" s="1">
         <f t="shared" si="8"/>
         <v>7.5723830734966073E-4</v>
       </c>
@@ -4080,7 +4061,7 @@
       <c r="D160" s="1">
         <v>4.4800000000000297</v>
       </c>
-      <c r="E160" s="10">
+      <c r="E160" s="1">
         <f t="shared" si="8"/>
         <v>7.5892857142856633E-4</v>
       </c>
@@ -4101,7 +4082,7 @@
       <c r="D161" s="1">
         <v>4.4700000000000299</v>
       </c>
-      <c r="E161" s="10">
+      <c r="E161" s="1">
         <f t="shared" si="8"/>
         <v>7.6062639821028574E-4</v>
       </c>
@@ -4122,7 +4103,7 @@
       <c r="D162" s="1">
         <v>4.4600000000000302</v>
       </c>
-      <c r="E162" s="10">
+      <c r="E162" s="1">
         <f t="shared" si="8"/>
         <v>7.6233183856501722E-4</v>
       </c>
@@ -4143,7 +4124,7 @@
       <c r="D163" s="1">
         <v>4.4500000000000304</v>
       </c>
-      <c r="E163" s="10">
+      <c r="E163" s="1">
         <f t="shared" si="8"/>
         <v>7.6404494382021943E-4</v>
       </c>
@@ -4164,7 +4145,7 @@
       <c r="D164" s="1">
         <v>4.4400000000000297</v>
       </c>
-      <c r="E164" s="10">
+      <c r="E164" s="1">
         <f t="shared" si="8"/>
         <v>7.6576576576576065E-4</v>
       </c>
@@ -4185,7 +4166,7 @@
       <c r="D165" s="1">
         <v>4.4300000000000299</v>
       </c>
-      <c r="E165" s="10">
+      <c r="E165" s="1">
         <f t="shared" si="8"/>
         <v>7.6749435665913698E-4</v>
       </c>
@@ -4206,7 +4187,7 @@
       <c r="D166" s="1">
         <v>4.4200000000000301</v>
       </c>
-      <c r="E166" s="10">
+      <c r="E166" s="1">
         <f t="shared" si="8"/>
         <v>7.6923076923076392E-4</v>
       </c>
@@ -4227,7 +4208,7 @@
       <c r="D167" s="1">
         <v>4.4100000000000303</v>
       </c>
-      <c r="E167" s="10">
+      <c r="E167" s="1">
         <f t="shared" si="8"/>
         <v>7.7097505668933706E-4</v>
       </c>
@@ -4248,7 +4229,7 @@
       <c r="D168" s="1">
         <v>4.4000000000000297</v>
       </c>
-      <c r="E168" s="10">
+      <c r="E168" s="1">
         <f t="shared" si="8"/>
         <v>7.7272727272726749E-4</v>
       </c>
@@ -4269,7 +4250,7 @@
       <c r="D169" s="1">
         <v>4.3900000000000299</v>
       </c>
-      <c r="E169" s="10">
+      <c r="E169" s="1">
         <f t="shared" si="8"/>
         <v>7.7448747152619062E-4</v>
       </c>
@@ -4290,7 +4271,7 @@
       <c r="D170" s="1">
         <v>4.3800000000000301</v>
       </c>
-      <c r="E170" s="10">
+      <c r="E170" s="1">
         <f t="shared" si="8"/>
         <v>7.7625570776255169E-4</v>
       </c>
@@ -4311,7 +4292,7 @@
       <c r="D171" s="1">
         <v>4.3700000000000303</v>
       </c>
-      <c r="E171" s="10">
+      <c r="E171" s="1">
         <f t="shared" si="8"/>
         <v>7.780320366132669E-4</v>
       </c>
@@ -4332,7 +4313,7 @@
       <c r="D172" s="1">
         <v>4.3600000000000296</v>
       </c>
-      <c r="E172" s="10">
+      <c r="E172" s="1">
         <f t="shared" si="8"/>
         <v>7.7981651376146253E-4</v>
       </c>
@@ -4353,7 +4334,7 @@
       <c r="D173" s="1">
         <v>4.3500000000000298</v>
       </c>
-      <c r="E173" s="10">
+      <c r="E173" s="1">
         <f t="shared" si="8"/>
         <v>7.8160919540229347E-4</v>
       </c>
@@ -4374,7 +4355,7 @@
       <c r="D174" s="1">
         <v>4.3400000000000301</v>
       </c>
-      <c r="E174" s="10">
+      <c r="E174" s="1">
         <f t="shared" si="8"/>
         <v>7.834101382488425E-4</v>
       </c>
@@ -4395,7 +4376,7 @@
       <c r="D175" s="1">
         <v>4.3300000000000303</v>
       </c>
-      <c r="E175" s="10">
+      <c r="E175" s="1">
         <f t="shared" si="8"/>
         <v>7.8521939953810072E-4</v>
       </c>
@@ -4416,7 +4397,7 @@
       <c r="D176" s="1">
         <v>4.3200000000000296</v>
       </c>
-      <c r="E176" s="10">
+      <c r="E176" s="1">
         <f t="shared" si="8"/>
         <v>7.8703703703703162E-4</v>
       </c>
@@ -4437,7 +4418,7 @@
       <c r="D177" s="1">
         <v>4.3100000000000298</v>
       </c>
-      <c r="E177" s="10">
+      <c r="E177" s="1">
         <f t="shared" si="8"/>
         <v>7.8886310904871841E-4</v>
       </c>
@@ -4458,7 +4439,7 @@
       <c r="D178" s="1">
         <v>4.30000000000003</v>
       </c>
-      <c r="E178" s="10">
+      <c r="E178" s="1">
         <f t="shared" si="8"/>
         <v>7.9069767441859913E-4</v>
       </c>
@@ -4479,7 +4460,7 @@
       <c r="D179" s="1">
         <v>4.2900000000000302</v>
       </c>
-      <c r="E179" s="10">
+      <c r="E179" s="1">
         <f t="shared" si="8"/>
         <v>7.925407925407869E-4</v>
       </c>
@@ -4500,7 +4481,7 @@
       <c r="D180" s="1">
         <v>4.2800000000000296</v>
       </c>
-      <c r="E180" s="10">
+      <c r="E180" s="1">
         <f t="shared" si="8"/>
         <v>7.9439252336448044E-4</v>
       </c>
@@ -4521,7 +4502,7 @@
       <c r="D181" s="1">
         <v>4.2700000000000298</v>
       </c>
-      <c r="E181" s="10">
+      <c r="E181" s="1">
         <f t="shared" si="8"/>
         <v>7.9625292740046275E-4</v>
       </c>
@@ -4542,7 +4523,7 @@
       <c r="D182" s="1">
         <v>4.26000000000003</v>
       </c>
-      <c r="E182" s="10">
+      <c r="E182" s="1">
         <f t="shared" si="8"/>
         <v>7.9812206572769386E-4</v>
       </c>
@@ -4563,7 +4544,7 @@
       <c r="D183" s="1">
         <v>4.2500000000000302</v>
       </c>
-      <c r="E183" s="10">
+      <c r="E183" s="1">
         <f t="shared" si="8"/>
         <v>7.9999999999999429E-4</v>
       </c>
@@ -4584,7 +4565,7 @@
       <c r="D184" s="1">
         <v>4.2400000000000402</v>
       </c>
-      <c r="E184" s="10">
+      <c r="E184" s="1">
         <f t="shared" si="8"/>
         <v>8.0188679245282257E-4</v>
       </c>
@@ -4605,7 +4586,7 @@
       <c r="D185" s="1">
         <v>4.2300000000000404</v>
       </c>
-      <c r="E185" s="10">
+      <c r="E185" s="1">
         <f t="shared" si="8"/>
         <v>8.037825059101578E-4</v>
       </c>
@@ -4626,7 +4607,7 @@
       <c r="D186" s="1">
         <v>4.2200000000000397</v>
       </c>
-      <c r="E186" s="10">
+      <c r="E186" s="1">
         <f t="shared" si="8"/>
         <v>8.056872037914616E-4</v>
       </c>
@@ -4647,7 +4628,7 @@
       <c r="D187" s="1">
         <v>4.2100000000000399</v>
       </c>
-      <c r="E187" s="10">
+      <c r="E187" s="1">
         <f t="shared" si="8"/>
         <v>8.0760095011875711E-4</v>
       </c>
@@ -4668,7 +4649,7 @@
       <c r="D188" s="1">
         <v>4.2000000000000401</v>
       </c>
-      <c r="E188" s="10">
+      <c r="E188" s="1">
         <f t="shared" si="8"/>
         <v>8.0952380952380176E-4</v>
       </c>
@@ -4689,7 +4670,7 @@
       <c r="D189" s="1">
         <v>4.1900000000000404</v>
       </c>
-      <c r="E189" s="10">
+      <c r="E189" s="1">
         <f t="shared" si="8"/>
         <v>8.114558472553621E-4</v>
       </c>
@@ -4710,7 +4691,7 @@
       <c r="D190" s="1">
         <v>4.1800000000000397</v>
       </c>
-      <c r="E190" s="10">
+      <c r="E190" s="1">
         <f t="shared" si="8"/>
         <v>8.1339712918659512E-4</v>
       </c>
@@ -4731,7 +4712,7 @@
       <c r="D191" s="1">
         <v>4.1700000000000399</v>
       </c>
-      <c r="E191" s="10">
+      <c r="E191" s="1">
         <f t="shared" si="8"/>
         <v>8.1534772182253416E-4</v>
       </c>
@@ -4752,7 +4733,7 @@
       <c r="D192" s="1">
         <v>4.1600000000000401</v>
       </c>
-      <c r="E192" s="10">
+      <c r="E192" s="1">
         <f t="shared" si="8"/>
         <v>8.1730769230768435E-4</v>
       </c>
@@ -4773,7 +4754,7 @@
       <c r="D193" s="1">
         <v>4.1500000000000403</v>
       </c>
-      <c r="E193" s="10">
+      <c r="E193" s="1">
         <f t="shared" si="8"/>
         <v>8.1927710843372693E-4</v>
       </c>
@@ -4794,7 +4775,7 @@
       <c r="D194" s="1">
         <v>4.1400000000000396</v>
       </c>
-      <c r="E194" s="10">
+      <c r="E194" s="1">
         <f t="shared" si="8"/>
         <v>8.2125603864733503E-4</v>
       </c>
@@ -4815,7 +4796,7 @@
       <c r="D195" s="1">
         <v>4.1300000000000399</v>
       </c>
-      <c r="E195" s="10">
+      <c r="E195" s="1">
         <f t="shared" si="8"/>
         <v>8.2324455205810344E-4</v>
       </c>
@@ -4836,7 +4817,7 @@
       <c r="D196" s="1">
         <v>4.1200000000000401</v>
       </c>
-      <c r="E196" s="10">
+      <c r="E196" s="1">
         <f t="shared" si="8"/>
         <v>8.2524271844659389E-4</v>
       </c>
@@ -4857,7 +4838,7 @@
       <c r="D197" s="1">
         <v>4.1100000000000403</v>
       </c>
-      <c r="E197" s="10">
+      <c r="E197" s="1">
         <f t="shared" si="8"/>
         <v>8.2725060827249788E-4</v>
       </c>
@@ -4878,7 +4859,7 @@
       <c r="D198" s="1">
         <v>4.1000000000000396</v>
       </c>
-      <c r="E198" s="10">
+      <c r="E198" s="1">
         <f t="shared" si="8"/>
         <v>8.2926829268291878E-4</v>
       </c>
@@ -4899,7 +4880,7 @@
       <c r="D199" s="1">
         <v>4.0900000000000398</v>
       </c>
-      <c r="E199" s="10">
+      <c r="E199" s="1">
         <f t="shared" si="8"/>
         <v>8.312958435207743E-4</v>
       </c>
@@ -4920,7 +4901,7 @@
       <c r="D200" s="1">
         <v>4.08000000000004</v>
       </c>
-      <c r="E200" s="10">
+      <c r="E200" s="1">
         <f t="shared" si="8"/>
         <v>8.3333333333332515E-4</v>
       </c>
@@ -4941,7 +4922,7 @@
       <c r="D201" s="1">
         <v>4.0700000000000403</v>
       </c>
-      <c r="E201" s="10">
+      <c r="E201" s="1">
         <f t="shared" ref="E201:E264" si="12">$F$6/D201</f>
         <v>8.3538083538082706E-4</v>
       </c>
@@ -4962,7 +4943,7 @@
       <c r="D202" s="1">
         <v>4.0600000000000396</v>
       </c>
-      <c r="E202" s="10">
+      <c r="E202" s="1">
         <f t="shared" si="12"/>
         <v>8.37438423645312E-4</v>
       </c>
@@ -4983,7 +4964,7 @@
       <c r="D203" s="1">
         <v>4.0500000000000398</v>
       </c>
-      <c r="E203" s="10">
+      <c r="E203" s="1">
         <f t="shared" si="12"/>
         <v>8.3950617283949788E-4</v>
       </c>
@@ -5004,7 +4985,7 @@
       <c r="D204" s="1">
         <v>4.04000000000004</v>
       </c>
-      <c r="E204" s="10">
+      <c r="E204" s="1">
         <f t="shared" si="12"/>
         <v>8.4158415841583322E-4</v>
       </c>
@@ -5025,7 +5006,7 @@
       <c r="D205" s="1">
         <v>4.0300000000000402</v>
       </c>
-      <c r="E205" s="10">
+      <c r="E205" s="1">
         <f t="shared" si="12"/>
         <v>8.4367245657567392E-4</v>
       </c>
@@ -5046,7 +5027,7 @@
       <c r="D206" s="1">
         <v>4.0200000000000404</v>
       </c>
-      <c r="E206" s="10">
+      <c r="E206" s="1">
         <f t="shared" si="12"/>
         <v>8.4577114427859844E-4</v>
       </c>
@@ -5067,7 +5048,7 @@
       <c r="D207" s="1">
         <v>4.0100000000000398</v>
       </c>
-      <c r="E207" s="10">
+      <c r="E207" s="1">
         <f t="shared" si="12"/>
         <v>8.4788029925186186E-4</v>
       </c>
@@ -5088,7 +5069,7 @@
       <c r="D208" s="1">
         <v>4.00000000000004</v>
       </c>
-      <c r="E208" s="10">
+      <c r="E208" s="1">
         <f t="shared" si="12"/>
         <v>8.499999999999915E-4</v>
       </c>
@@ -5109,7 +5090,7 @@
       <c r="D209" s="1">
         <v>3.9900000000000402</v>
       </c>
-      <c r="E209" s="10">
+      <c r="E209" s="1">
         <f t="shared" si="12"/>
         <v>8.5213032581452769E-4</v>
       </c>
@@ -5130,7 +5111,7 @@
       <c r="D210" s="1">
         <v>3.98000000000004</v>
       </c>
-      <c r="E210" s="10">
+      <c r="E210" s="1">
         <f t="shared" si="12"/>
         <v>8.5427135678391099E-4</v>
       </c>
@@ -5151,7 +5132,7 @@
       <c r="D211" s="1">
         <v>3.9700000000000402</v>
       </c>
-      <c r="E211" s="10">
+      <c r="E211" s="1">
         <f t="shared" si="12"/>
         <v>8.5642317380351773E-4</v>
       </c>
@@ -5172,7 +5153,7 @@
       <c r="D212" s="1">
         <v>3.9600000000000399</v>
       </c>
-      <c r="E212" s="10">
+      <c r="E212" s="1">
         <f t="shared" si="12"/>
         <v>8.5858585858584991E-4</v>
       </c>
@@ -5193,7 +5174,7 @@
       <c r="D213" s="1">
         <v>3.9500000000000401</v>
       </c>
-      <c r="E213" s="10">
+      <c r="E213" s="1">
         <f t="shared" si="12"/>
         <v>8.6075949367087729E-4</v>
       </c>
@@ -5214,7 +5195,7 @@
       <c r="D214" s="1">
         <v>3.9400000000000399</v>
       </c>
-      <c r="E214" s="10">
+      <c r="E214" s="1">
         <f t="shared" si="12"/>
         <v>8.6294416243653941E-4</v>
       </c>
@@ -5235,7 +5216,7 @@
       <c r="D215" s="1">
         <v>3.9300000000000401</v>
       </c>
-      <c r="E215" s="10">
+      <c r="E215" s="1">
         <f t="shared" si="12"/>
         <v>8.6513994910940588E-4</v>
       </c>
@@ -5256,7 +5237,7 @@
       <c r="D216" s="1">
         <v>3.9200000000000399</v>
       </c>
-      <c r="E216" s="10">
+      <c r="E216" s="1">
         <f t="shared" si="12"/>
         <v>8.6734693877550131E-4</v>
       </c>
@@ -5277,7 +5258,7 @@
       <c r="D217" s="1">
         <v>3.9100000000000401</v>
       </c>
-      <c r="E217" s="10">
+      <c r="E217" s="1">
         <f t="shared" si="12"/>
         <v>8.6956521739129538E-4</v>
       </c>
@@ -5298,7 +5279,7 @@
       <c r="D218" s="1">
         <v>3.9000000000000399</v>
       </c>
-      <c r="E218" s="10">
+      <c r="E218" s="1">
         <f t="shared" si="12"/>
         <v>8.7179487179486282E-4</v>
       </c>
@@ -5319,7 +5300,7 @@
       <c r="D219" s="1">
         <v>3.8900000000000401</v>
       </c>
-      <c r="E219" s="10">
+      <c r="E219" s="1">
         <f t="shared" si="12"/>
         <v>8.7403598971721454E-4</v>
       </c>
@@ -5340,7 +5321,7 @@
       <c r="D220" s="1">
         <v>3.8800000000000399</v>
       </c>
-      <c r="E220" s="10">
+      <c r="E220" s="1">
         <f t="shared" si="12"/>
         <v>8.7628865979380533E-4</v>
       </c>
@@ -5361,7 +5342,7 @@
       <c r="D221" s="1">
         <v>3.8700000000000401</v>
       </c>
-      <c r="E221" s="10">
+      <c r="E221" s="1">
         <f t="shared" si="12"/>
         <v>8.7855297157621824E-4</v>
       </c>
@@ -5382,7 +5363,7 @@
       <c r="D222" s="1">
         <v>3.8600000000000398</v>
       </c>
-      <c r="E222" s="10">
+      <c r="E222" s="1">
         <f t="shared" si="12"/>
         <v>8.8082901554403228E-4</v>
       </c>
@@ -5403,7 +5384,7 @@
       <c r="D223" s="1">
         <v>3.8500000000000401</v>
       </c>
-      <c r="E223" s="10">
+      <c r="E223" s="1">
         <f t="shared" si="12"/>
         <v>8.8311688311687388E-4</v>
       </c>
@@ -5424,7 +5405,7 @@
       <c r="D224" s="1">
         <v>3.8400000000000398</v>
       </c>
-      <c r="E224" s="10">
+      <c r="E224" s="1">
         <f t="shared" si="12"/>
         <v>8.8541666666665741E-4</v>
       </c>
@@ -5445,7 +5426,7 @@
       <c r="D225" s="1">
         <v>3.83000000000004</v>
       </c>
-      <c r="E225" s="10">
+      <c r="E225" s="1">
         <f t="shared" si="12"/>
         <v>8.8772845953001675E-4</v>
       </c>
@@ -5466,7 +5447,7 @@
       <c r="D226" s="1">
         <v>3.8200000000000398</v>
       </c>
-      <c r="E226" s="10">
+      <c r="E226" s="1">
         <f t="shared" si="12"/>
         <v>8.9005235602093312E-4</v>
       </c>
@@ -5487,7 +5468,7 @@
       <c r="D227" s="1">
         <v>3.81000000000004</v>
       </c>
-      <c r="E227" s="10">
+      <c r="E227" s="1">
         <f t="shared" si="12"/>
         <v>8.9238845144356009E-4</v>
       </c>
@@ -5508,7 +5489,7 @@
       <c r="D228" s="1">
         <v>3.8000000000000398</v>
       </c>
-      <c r="E228" s="10">
+      <c r="E228" s="1">
         <f t="shared" si="12"/>
         <v>8.9473684210525373E-4</v>
       </c>
@@ -5529,7 +5510,7 @@
       <c r="D229" s="1">
         <v>3.79000000000004</v>
       </c>
-      <c r="E229" s="10">
+      <c r="E229" s="1">
         <f t="shared" si="12"/>
         <v>8.9709762532980575E-4</v>
       </c>
@@ -5550,7 +5531,7 @@
       <c r="D230" s="1">
         <v>3.7800000000000402</v>
       </c>
-      <c r="E230" s="10">
+      <c r="E230" s="1">
         <f t="shared" si="12"/>
         <v>8.9947089947088989E-4</v>
       </c>
@@ -5571,7 +5552,7 @@
       <c r="D231" s="1">
         <v>3.7700000000000502</v>
       </c>
-      <c r="E231" s="10">
+      <c r="E231" s="1">
         <f t="shared" si="12"/>
         <v>9.0185676392571742E-4</v>
       </c>
@@ -5592,7 +5573,7 @@
       <c r="D232" s="1">
         <v>3.76000000000005</v>
       </c>
-      <c r="E232" s="10">
+      <c r="E232" s="1">
         <f t="shared" si="12"/>
         <v>9.0425531914892405E-4</v>
       </c>
@@ -5613,7 +5594,7 @@
       <c r="D233" s="1">
         <v>3.7500000000000502</v>
       </c>
-      <c r="E233" s="10">
+      <c r="E233" s="1">
         <f t="shared" si="12"/>
         <v>9.0666666666665448E-4</v>
       </c>
@@ -5634,7 +5615,7 @@
       <c r="D234" s="1">
         <v>3.74000000000005</v>
       </c>
-      <c r="E234" s="10">
+      <c r="E234" s="1">
         <f t="shared" si="12"/>
         <v>9.0909090909089695E-4</v>
       </c>
@@ -5655,7 +5636,7 @@
       <c r="D235" s="1">
         <v>3.7300000000000502</v>
       </c>
-      <c r="E235" s="10">
+      <c r="E235" s="1">
         <f t="shared" si="12"/>
         <v>9.1152815013403595E-4</v>
       </c>
@@ -5676,7 +5657,7 @@
       <c r="D236" s="1">
         <v>3.7200000000000499</v>
       </c>
-      <c r="E236" s="10">
+      <c r="E236" s="1">
         <f t="shared" si="12"/>
         <v>9.1397849462364355E-4</v>
       </c>
@@ -5697,7 +5678,7 @@
       <c r="D237" s="1">
         <v>3.7100000000000501</v>
       </c>
-      <c r="E237" s="10">
+      <c r="E237" s="1">
         <f t="shared" si="12"/>
         <v>9.1644204851750778E-4</v>
       </c>
@@ -5718,7 +5699,7 @@
       <c r="D238" s="1">
         <v>3.7000000000000499</v>
       </c>
-      <c r="E238" s="10">
+      <c r="E238" s="1">
         <f t="shared" si="12"/>
         <v>9.1891891891890648E-4</v>
       </c>
@@ -5739,7 +5720,7 @@
       <c r="D239" s="1">
         <v>3.6900000000000501</v>
       </c>
-      <c r="E239" s="10">
+      <c r="E239" s="1">
         <f t="shared" si="12"/>
         <v>9.2140921409212834E-4</v>
       </c>
@@ -5760,7 +5741,7 @@
       <c r="D240" s="1">
         <v>3.6800000000000499</v>
       </c>
-      <c r="E240" s="10">
+      <c r="E240" s="1">
         <f t="shared" si="12"/>
         <v>9.2391304347824829E-4</v>
       </c>
@@ -5781,7 +5762,7 @@
       <c r="D241" s="1">
         <v>3.6700000000000501</v>
       </c>
-      <c r="E241" s="10">
+      <c r="E241" s="1">
         <f t="shared" si="12"/>
         <v>9.26430517711159E-4</v>
       </c>
@@ -5802,7 +5783,7 @@
       <c r="D242" s="1">
         <v>3.6600000000000499</v>
       </c>
-      <c r="E242" s="10">
+      <c r="E242" s="1">
         <f t="shared" si="12"/>
         <v>9.289617486338671E-4</v>
       </c>
@@ -5823,7 +5804,7 @@
       <c r="D243" s="1">
         <v>3.6500000000000501</v>
       </c>
-      <c r="E243" s="10">
+      <c r="E243" s="1">
         <f t="shared" si="12"/>
         <v>9.315068493150557E-4</v>
       </c>
@@ -5844,7 +5825,7 @@
       <c r="D244" s="1">
         <v>3.6400000000000499</v>
       </c>
-      <c r="E244" s="10">
+      <c r="E244" s="1">
         <f t="shared" si="12"/>
         <v>9.3406593406592127E-4</v>
       </c>
@@ -5865,7 +5846,7 @@
       <c r="D245" s="1">
         <v>3.6300000000000501</v>
       </c>
-      <c r="E245" s="10">
+      <c r="E245" s="1">
         <f t="shared" si="12"/>
         <v>9.3663911845728734E-4</v>
       </c>
@@ -5886,7 +5867,7 @@
       <c r="D246" s="1">
         <v>3.6200000000000498</v>
       </c>
-      <c r="E246" s="10">
+      <c r="E246" s="1">
         <f t="shared" si="12"/>
         <v>9.3922651933700356E-4</v>
       </c>
@@ -5907,7 +5888,7 @@
       <c r="D247" s="1">
         <v>3.6100000000000501</v>
       </c>
-      <c r="E247" s="10">
+      <c r="E247" s="1">
         <f t="shared" si="12"/>
         <v>9.4182825484763228E-4</v>
       </c>
@@ -5928,7 +5909,7 @@
       <c r="D248" s="1">
         <v>3.6000000000000498</v>
       </c>
-      <c r="E248" s="10">
+      <c r="E248" s="1">
         <f t="shared" si="12"/>
         <v>9.4444444444443136E-4</v>
       </c>
@@ -5949,7 +5930,7 @@
       <c r="D249" s="1">
         <v>3.59000000000005</v>
       </c>
-      <c r="E249" s="10">
+      <c r="E249" s="1">
         <f t="shared" si="12"/>
         <v>9.4707520891363576E-4</v>
       </c>
@@ -5970,7 +5951,7 @@
       <c r="D250" s="1">
         <v>3.5800000000000498</v>
       </c>
-      <c r="E250" s="10">
+      <c r="E250" s="1">
         <f t="shared" si="12"/>
         <v>9.4972067039104816E-4</v>
       </c>
@@ -5991,7 +5972,7 @@
       <c r="D251" s="1">
         <v>3.57000000000005</v>
       </c>
-      <c r="E251" s="10">
+      <c r="E251" s="1">
         <f t="shared" si="12"/>
         <v>9.5238095238093894E-4</v>
       </c>
@@ -6012,7 +5993,7 @@
       <c r="D252" s="1">
         <v>3.5600000000000498</v>
       </c>
-      <c r="E252" s="10">
+      <c r="E252" s="1">
         <f t="shared" si="12"/>
         <v>9.5505617977526751E-4</v>
       </c>
@@ -6033,7 +6014,7 @@
       <c r="D253" s="1">
         <v>3.55000000000005</v>
       </c>
-      <c r="E253" s="10">
+      <c r="E253" s="1">
         <f t="shared" si="12"/>
         <v>9.5774647887322589E-4</v>
       </c>
@@ -6054,7 +6035,7 @@
       <c r="D254" s="1">
         <v>3.5400000000000502</v>
       </c>
-      <c r="E254" s="10">
+      <c r="E254" s="1">
         <f t="shared" si="12"/>
         <v>9.6045197740111628E-4</v>
       </c>
@@ -6075,7 +6056,7 @@
       <c r="D255" s="1">
         <v>3.53000000000005</v>
       </c>
-      <c r="E255" s="10">
+      <c r="E255" s="1">
         <f t="shared" si="12"/>
         <v>9.6317280453256425E-4</v>
       </c>
@@ -6096,7 +6077,7 @@
       <c r="D256" s="1">
         <v>3.5200000000000502</v>
       </c>
-      <c r="E256" s="10">
+      <c r="E256" s="1">
         <f t="shared" si="12"/>
         <v>9.6590909090907707E-4</v>
       </c>
@@ -6117,7 +6098,7 @@
       <c r="D257" s="1">
         <v>3.51000000000005</v>
       </c>
-      <c r="E257" s="10">
+      <c r="E257" s="1">
         <f t="shared" si="12"/>
         <v>9.6866096866095482E-4</v>
       </c>
@@ -6138,7 +6119,7 @@
       <c r="D258" s="1">
         <v>3.5000000000000502</v>
       </c>
-      <c r="E258" s="10">
+      <c r="E258" s="1">
         <f t="shared" si="12"/>
         <v>9.7142857142855745E-4</v>
       </c>
@@ -6159,7 +6140,7 @@
       <c r="D259" s="1">
         <v>3.49000000000005</v>
       </c>
-      <c r="E259" s="10">
+      <c r="E259" s="1">
         <f t="shared" si="12"/>
         <v>9.7421203438394016E-4</v>
       </c>
@@ -6180,7 +6161,7 @@
       <c r="D260" s="1">
         <v>3.4800000000000502</v>
       </c>
-      <c r="E260" s="10">
+      <c r="E260" s="1">
         <f t="shared" si="12"/>
         <v>9.7701149425285941E-4</v>
       </c>
@@ -6201,7 +6182,7 @@
       <c r="D261" s="1">
         <v>3.4700000000000499</v>
       </c>
-      <c r="E261" s="10">
+      <c r="E261" s="1">
         <f t="shared" si="12"/>
         <v>9.7982708933716154E-4</v>
       </c>
@@ -6222,7 +6203,7 @@
       <c r="D262" s="1">
         <v>3.4600000000000501</v>
       </c>
-      <c r="E262" s="10">
+      <c r="E262" s="1">
         <f t="shared" si="12"/>
         <v>9.8265895953755789E-4</v>
       </c>
@@ -6243,7 +6224,7 @@
       <c r="D263" s="1">
         <v>3.4500000000000499</v>
       </c>
-      <c r="E263" s="10">
+      <c r="E263" s="1">
         <f t="shared" si="12"/>
         <v>9.8550724637679727E-4</v>
       </c>
@@ -6264,7 +6245,7 @@
       <c r="D264" s="1">
         <v>3.4400000000000501</v>
       </c>
-      <c r="E264" s="10">
+      <c r="E264" s="1">
         <f t="shared" si="12"/>
         <v>9.883720930232414E-4</v>
       </c>
@@ -6285,7 +6266,7 @@
       <c r="D265" s="1">
         <v>3.4300000000000499</v>
       </c>
-      <c r="E265" s="10">
+      <c r="E265" s="1">
         <f t="shared" ref="E265:E328" si="16">$F$6/D265</f>
         <v>9.9125364431485439E-4</v>
       </c>
@@ -6306,7 +6287,7 @@
       <c r="D266" s="1">
         <v>3.4200000000000501</v>
       </c>
-      <c r="E266" s="10">
+      <c r="E266" s="1">
         <f t="shared" si="16"/>
         <v>9.9415204678361116E-4</v>
       </c>
@@ -6327,7 +6308,7 @@
       <c r="D267" s="1">
         <v>3.4100000000000499</v>
       </c>
-      <c r="E267" s="10">
+      <c r="E267" s="1">
         <f t="shared" si="16"/>
         <v>9.9706744868033716E-4</v>
       </c>
@@ -6348,7 +6329,7 @@
       <c r="D268" s="1">
         <v>3.4000000000000501</v>
       </c>
-      <c r="E268" s="10">
+      <c r="E268" s="1">
         <f t="shared" si="16"/>
         <v>9.9999999999998528E-4</v>
       </c>
@@ -6369,7 +6350,7 @@
       <c r="D269" s="1">
         <v>3.3900000000000499</v>
       </c>
-      <c r="E269" s="10">
+      <c r="E269" s="1">
         <f t="shared" si="16"/>
         <v>1.0029498525073598E-3</v>
       </c>
@@ -6390,7 +6371,7 @@
       <c r="D270" s="1">
         <v>3.3800000000000501</v>
       </c>
-      <c r="E270" s="10">
+      <c r="E270" s="1">
         <f t="shared" si="16"/>
         <v>1.0059171597632986E-3</v>
       </c>
@@ -6411,7 +6392,7 @@
       <c r="D271" s="1">
         <v>3.3700000000000498</v>
       </c>
-      <c r="E271" s="10">
+      <c r="E271" s="1">
         <f t="shared" si="16"/>
         <v>1.0089020771513204E-3</v>
       </c>
@@ -6432,7 +6413,7 @@
       <c r="D272" s="1">
         <v>3.3600000000000501</v>
       </c>
-      <c r="E272" s="10">
+      <c r="E272" s="1">
         <f t="shared" si="16"/>
         <v>1.0119047619047469E-3</v>
       </c>
@@ -6453,7 +6434,7 @@
       <c r="D273" s="1">
         <v>3.3500000000000498</v>
       </c>
-      <c r="E273" s="10">
+      <c r="E273" s="1">
         <f t="shared" si="16"/>
         <v>1.0149253731343132E-3</v>
       </c>
@@ -6474,7 +6455,7 @@
       <c r="D274" s="1">
         <v>3.34000000000005</v>
       </c>
-      <c r="E274" s="10">
+      <c r="E274" s="1">
         <f t="shared" si="16"/>
         <v>1.0179640718562721E-3</v>
       </c>
@@ -6495,7 +6476,7 @@
       <c r="D275" s="1">
         <v>3.3300000000000498</v>
       </c>
-      <c r="E275" s="10">
+      <c r="E275" s="1">
         <f t="shared" si="16"/>
         <v>1.0210210210210057E-3</v>
       </c>
@@ -6516,7 +6497,7 @@
       <c r="D276" s="1">
         <v>3.32000000000005</v>
       </c>
-      <c r="E276" s="10">
+      <c r="E276" s="1">
         <f t="shared" si="16"/>
         <v>1.0240963855421533E-3</v>
       </c>
@@ -6537,7 +6518,7 @@
       <c r="D277" s="1">
         <v>3.3100000000000498</v>
       </c>
-      <c r="E277" s="10">
+      <c r="E277" s="1">
         <f t="shared" si="16"/>
         <v>1.0271903323262684E-3</v>
       </c>
@@ -6558,7 +6539,7 @@
       <c r="D278" s="1">
         <v>3.3000000000000602</v>
       </c>
-      <c r="E278" s="10">
+      <c r="E278" s="1">
         <f t="shared" si="16"/>
         <v>1.0303030303030114E-3</v>
       </c>
@@ -6579,7 +6560,7 @@
       <c r="D279" s="1">
         <v>3.29000000000006</v>
       </c>
-      <c r="E279" s="10">
+      <c r="E279" s="1">
         <f t="shared" si="16"/>
         <v>1.0334346504559081E-3</v>
       </c>
@@ -6600,7 +6581,7 @@
       <c r="D280" s="1">
         <v>3.2800000000000602</v>
       </c>
-      <c r="E280" s="10">
+      <c r="E280" s="1">
         <f t="shared" si="16"/>
         <v>1.0365853658536395E-3</v>
       </c>
@@ -6621,7 +6602,7 @@
       <c r="D281" s="1">
         <v>3.27000000000006</v>
       </c>
-      <c r="E281" s="10">
+      <c r="E281" s="1">
         <f t="shared" si="16"/>
         <v>1.039755351681938E-3</v>
       </c>
@@ -6642,7 +6623,7 @@
       <c r="D282" s="1">
         <v>3.2600000000000602</v>
       </c>
-      <c r="E282" s="10">
+      <c r="E282" s="1">
         <f t="shared" si="16"/>
         <v>1.0429447852760543E-3</v>
       </c>
@@ -6663,7 +6644,7 @@
       <c r="D283" s="1">
         <v>3.25000000000006</v>
       </c>
-      <c r="E283" s="10">
+      <c r="E283" s="1">
         <f t="shared" si="16"/>
         <v>1.0461538461538269E-3</v>
       </c>
@@ -6684,7 +6665,7 @@
       <c r="D284" s="1">
         <v>3.2400000000000602</v>
       </c>
-      <c r="E284" s="10">
+      <c r="E284" s="1">
         <f t="shared" si="16"/>
         <v>1.0493827160493632E-3</v>
       </c>
@@ -6705,7 +6686,7 @@
       <c r="D285" s="1">
         <v>3.2300000000000599</v>
       </c>
-      <c r="E285" s="10">
+      <c r="E285" s="1">
         <f t="shared" si="16"/>
         <v>1.0526315789473489E-3</v>
       </c>
@@ -6726,7 +6707,7 @@
       <c r="D286" s="1">
         <v>3.2200000000000601</v>
       </c>
-      <c r="E286" s="10">
+      <c r="E286" s="1">
         <f t="shared" si="16"/>
         <v>1.0559006211179926E-3</v>
       </c>
@@ -6747,7 +6728,7 @@
       <c r="D287" s="1">
         <v>3.2100000000000599</v>
       </c>
-      <c r="E287" s="10">
+      <c r="E287" s="1">
         <f t="shared" si="16"/>
         <v>1.0591900311526282E-3</v>
       </c>
@@ -6768,7 +6749,7 @@
       <c r="D288" s="1">
         <v>3.2000000000000601</v>
       </c>
-      <c r="E288" s="10">
+      <c r="E288" s="1">
         <f t="shared" si="16"/>
         <v>1.0624999999999799E-3</v>
       </c>
@@ -6789,7 +6770,7 @@
       <c r="D289" s="1">
         <v>3.1900000000000599</v>
       </c>
-      <c r="E289" s="10">
+      <c r="E289" s="1">
         <f t="shared" si="16"/>
         <v>1.0658307210031147E-3</v>
       </c>
@@ -6810,7 +6791,7 @@
       <c r="D290" s="1">
         <v>3.1800000000000601</v>
       </c>
-      <c r="E290" s="10">
+      <c r="E290" s="1">
         <f t="shared" si="16"/>
         <v>1.0691823899370866E-3</v>
       </c>
@@ -6831,7 +6812,7 @@
       <c r="D291" s="1">
         <v>3.1700000000000599</v>
       </c>
-      <c r="E291" s="10">
+      <c r="E291" s="1">
         <f t="shared" si="16"/>
         <v>1.0725552050472984E-3</v>
       </c>
@@ -6852,7 +6833,7 @@
       <c r="D292" s="1">
         <v>3.1600000000000601</v>
       </c>
-      <c r="E292" s="10">
+      <c r="E292" s="1">
         <f t="shared" si="16"/>
         <v>1.075949367088587E-3</v>
       </c>
@@ -6873,7 +6854,7 @@
       <c r="D293" s="1">
         <v>3.1500000000000599</v>
       </c>
-      <c r="E293" s="10">
+      <c r="E293" s="1">
         <f t="shared" si="16"/>
         <v>1.0793650793650589E-3</v>
       </c>
@@ -6894,7 +6875,7 @@
       <c r="D294" s="1">
         <v>3.1400000000000601</v>
       </c>
-      <c r="E294" s="10">
+      <c r="E294" s="1">
         <f t="shared" si="16"/>
         <v>1.0828025477706798E-3</v>
       </c>
@@ -6915,7 +6896,7 @@
       <c r="D295" s="1">
         <v>3.1300000000000598</v>
       </c>
-      <c r="E295" s="10">
+      <c r="E295" s="1">
         <f t="shared" si="16"/>
         <v>1.08626198083065E-3</v>
       </c>
@@ -6936,7 +6917,7 @@
       <c r="D296" s="1">
         <v>3.1200000000000601</v>
       </c>
-      <c r="E296" s="10">
+      <c r="E296" s="1">
         <f t="shared" si="16"/>
         <v>1.0897435897435687E-3</v>
       </c>
@@ -6957,7 +6938,7 @@
       <c r="D297" s="1">
         <v>3.1100000000000598</v>
       </c>
-      <c r="E297" s="10">
+      <c r="E297" s="1">
         <f t="shared" si="16"/>
         <v>1.0932475884244163E-3</v>
       </c>
@@ -6978,7 +6959,7 @@
       <c r="D298" s="1">
         <v>3.10000000000006</v>
       </c>
-      <c r="E298" s="10">
+      <c r="E298" s="1">
         <f t="shared" si="16"/>
         <v>1.0967741935483657E-3</v>
       </c>
@@ -6999,7 +6980,7 @@
       <c r="D299" s="1">
         <v>3.0900000000000598</v>
       </c>
-      <c r="E299" s="10">
+      <c r="E299" s="1">
         <f t="shared" si="16"/>
         <v>1.1003236245954479E-3</v>
       </c>
@@ -7020,7 +7001,7 @@
       <c r="D300" s="1">
         <v>3.08000000000006</v>
       </c>
-      <c r="E300" s="10">
+      <c r="E300" s="1">
         <f t="shared" si="16"/>
         <v>1.1038961038960823E-3</v>
       </c>
@@ -7041,7 +7022,7 @@
       <c r="D301" s="1">
         <v>3.0700000000000598</v>
       </c>
-      <c r="E301" s="10">
+      <c r="E301" s="1">
         <f t="shared" si="16"/>
         <v>1.1074918566775028E-3</v>
       </c>
@@ -7062,7 +7043,7 @@
       <c r="D302" s="1">
         <v>3.06000000000006</v>
       </c>
-      <c r="E302" s="10">
+      <c r="E302" s="1">
         <f t="shared" si="16"/>
         <v>1.1111111111110892E-3</v>
       </c>
@@ -7083,7 +7064,7 @@
       <c r="D303" s="1">
         <v>3.0500000000000602</v>
       </c>
-      <c r="E303" s="10">
+      <c r="E303" s="1">
         <f t="shared" si="16"/>
         <v>1.1147540983606336E-3</v>
       </c>
@@ -7104,7 +7085,7 @@
       <c r="D304" s="1">
         <v>3.04000000000006</v>
       </c>
-      <c r="E304" s="10">
+      <c r="E304" s="1">
         <f t="shared" si="16"/>
         <v>1.1184210526315568E-3</v>
       </c>
@@ -7125,7 +7106,7 @@
       <c r="D305" s="1">
         <v>3.0300000000000602</v>
       </c>
-      <c r="E305" s="10">
+      <c r="E305" s="1">
         <f t="shared" si="16"/>
         <v>1.1221122112210998E-3</v>
       </c>
@@ -7146,7 +7127,7 @@
       <c r="D306" s="1">
         <v>3.02000000000006</v>
       </c>
-      <c r="E306" s="10">
+      <c r="E306" s="1">
         <f t="shared" si="16"/>
         <v>1.1258278145695141E-3</v>
       </c>
@@ -7167,7 +7148,7 @@
       <c r="D307" s="1">
         <v>3.0100000000000602</v>
       </c>
-      <c r="E307" s="10">
+      <c r="E307" s="1">
         <f t="shared" si="16"/>
         <v>1.1295681063122698E-3</v>
       </c>
@@ -7188,7 +7169,7 @@
       <c r="D308" s="1">
         <v>3.00000000000006</v>
       </c>
-      <c r="E308" s="10">
+      <c r="E308" s="1">
         <f t="shared" si="16"/>
         <v>1.1333333333333106E-3</v>
       </c>
@@ -7209,7 +7190,7 @@
       <c r="D309" s="1">
         <v>2.9900000000000602</v>
       </c>
-      <c r="E309" s="10">
+      <c r="E309" s="1">
         <f t="shared" si="16"/>
         <v>1.1371237458193751E-3</v>
       </c>
@@ -7230,7 +7211,7 @@
       <c r="D310" s="1">
         <v>2.9800000000000599</v>
       </c>
-      <c r="E310" s="10">
+      <c r="E310" s="1">
         <f t="shared" si="16"/>
         <v>1.1409395973154132E-3</v>
       </c>
@@ -7251,7 +7232,7 @@
       <c r="D311" s="1">
         <v>2.9700000000000601</v>
       </c>
-      <c r="E311" s="10">
+      <c r="E311" s="1">
         <f t="shared" si="16"/>
         <v>1.1447811447811214E-3</v>
       </c>
@@ -7272,7 +7253,7 @@
       <c r="D312" s="1">
         <v>2.9600000000000599</v>
       </c>
-      <c r="E312" s="10">
+      <c r="E312" s="1">
         <f t="shared" si="16"/>
         <v>1.1486486486486254E-3</v>
       </c>
@@ -7293,7 +7274,7 @@
       <c r="D313" s="1">
         <v>2.9500000000000601</v>
       </c>
-      <c r="E313" s="10">
+      <c r="E313" s="1">
         <f t="shared" si="16"/>
         <v>1.1525423728813325E-3</v>
       </c>
@@ -7314,7 +7295,7 @@
       <c r="D314" s="1">
         <v>2.9400000000000599</v>
       </c>
-      <c r="E314" s="10">
+      <c r="E314" s="1">
         <f t="shared" si="16"/>
         <v>1.15646258503399E-3</v>
       </c>
@@ -7335,7 +7316,7 @@
       <c r="D315" s="1">
         <v>2.9300000000000601</v>
       </c>
-      <c r="E315" s="10">
+      <c r="E315" s="1">
         <f t="shared" si="16"/>
         <v>1.1604095563139693E-3</v>
       </c>
@@ -7356,7 +7337,7 @@
       <c r="D316" s="1">
         <v>2.9200000000000599</v>
       </c>
-      <c r="E316" s="10">
+      <c r="E316" s="1">
         <f t="shared" si="16"/>
         <v>1.1643835616438117E-3</v>
       </c>
@@ -7377,7 +7358,7 @@
       <c r="D317" s="1">
         <v>2.9100000000000601</v>
       </c>
-      <c r="E317" s="10">
+      <c r="E317" s="1">
         <f t="shared" si="16"/>
         <v>1.1683848797250616E-3</v>
       </c>
@@ -7398,7 +7379,7 @@
       <c r="D318" s="1">
         <v>2.9000000000000599</v>
       </c>
-      <c r="E318" s="10">
+      <c r="E318" s="1">
         <f t="shared" si="16"/>
         <v>1.1724137931034241E-3</v>
       </c>
@@ -7419,7 +7400,7 @@
       <c r="D319" s="1">
         <v>2.8900000000000601</v>
       </c>
-      <c r="E319" s="10">
+      <c r="E319" s="1">
         <f t="shared" si="16"/>
         <v>1.1764705882352695E-3</v>
       </c>
@@ -7440,7 +7421,7 @@
       <c r="D320" s="1">
         <v>2.8800000000000598</v>
       </c>
-      <c r="E320" s="10">
+      <c r="E320" s="1">
         <f t="shared" si="16"/>
         <v>1.1805555555555311E-3</v>
       </c>
@@ -7461,7 +7442,7 @@
       <c r="D321" s="1">
         <v>2.8700000000000601</v>
       </c>
-      <c r="E321" s="10">
+      <c r="E321" s="1">
         <f t="shared" si="16"/>
         <v>1.1846689895470134E-3</v>
       </c>
@@ -7482,7 +7463,7 @@
       <c r="D322" s="1">
         <v>2.8600000000000598</v>
       </c>
-      <c r="E322" s="10">
+      <c r="E322" s="1">
         <f t="shared" si="16"/>
         <v>1.1888111888111639E-3</v>
       </c>
@@ -7503,7 +7484,7 @@
       <c r="D323" s="1">
         <v>2.85000000000006</v>
       </c>
-      <c r="E323" s="10">
+      <c r="E323" s="1">
         <f t="shared" si="16"/>
         <v>1.1929824561403256E-3</v>
       </c>
@@ -7524,7 +7505,7 @@
       <c r="D324" s="1">
         <v>2.84000000000007</v>
       </c>
-      <c r="E324" s="10">
+      <c r="E324" s="1">
         <f t="shared" si="16"/>
         <v>1.1971830985915198E-3</v>
       </c>
@@ -7545,7 +7526,7 @@
       <c r="D325" s="1">
         <v>2.8300000000000698</v>
       </c>
-      <c r="E325" s="10">
+      <c r="E325" s="1">
         <f t="shared" si="16"/>
         <v>1.2014134275618077E-3</v>
       </c>
@@ -7566,7 +7547,7 @@
       <c r="D326" s="1">
         <v>2.82000000000007</v>
       </c>
-      <c r="E326" s="10">
+      <c r="E326" s="1">
         <f t="shared" si="16"/>
         <v>1.2056737588652183E-3</v>
       </c>
@@ -7587,7 +7568,7 @@
       <c r="D327" s="1">
         <v>2.8100000000000702</v>
       </c>
-      <c r="E327" s="10">
+      <c r="E327" s="1">
         <f t="shared" si="16"/>
         <v>1.2099644128113576E-3</v>
       </c>
@@ -7608,7 +7589,7 @@
       <c r="D328" s="1">
         <v>2.80000000000007</v>
       </c>
-      <c r="E328" s="10">
+      <c r="E328" s="1">
         <f t="shared" si="16"/>
         <v>1.2142857142856838E-3</v>
       </c>
@@ -7629,7 +7610,7 @@
       <c r="D329" s="1">
         <v>2.7900000000000702</v>
       </c>
-      <c r="E329" s="10">
+      <c r="E329" s="1">
         <f t="shared" ref="E329:E392" si="20">$F$6/D329</f>
         <v>1.2186379928315104E-3</v>
       </c>
@@ -7650,7 +7631,7 @@
       <c r="D330" s="1">
         <v>2.78000000000007</v>
       </c>
-      <c r="E330" s="10">
+      <c r="E330" s="1">
         <f t="shared" si="20"/>
         <v>1.2230215827337822E-3</v>
       </c>
@@ -7671,7 +7652,7 @@
       <c r="D331" s="1">
         <v>2.7700000000000702</v>
       </c>
-      <c r="E331" s="10">
+      <c r="E331" s="1">
         <f t="shared" si="20"/>
         <v>1.2274368231046621E-3</v>
       </c>
@@ -7692,7 +7673,7 @@
       <c r="D332" s="1">
         <v>2.76000000000007</v>
       </c>
-      <c r="E332" s="10">
+      <c r="E332" s="1">
         <f t="shared" si="20"/>
         <v>1.2318840579709832E-3</v>
       </c>
@@ -7713,7 +7694,7 @@
       <c r="D333" s="1">
         <v>2.7500000000000702</v>
       </c>
-      <c r="E333" s="10">
+      <c r="E333" s="1">
         <f t="shared" si="20"/>
         <v>1.2363636363636047E-3</v>
       </c>
@@ -7734,7 +7715,7 @@
       <c r="D334" s="1">
         <v>2.7400000000000699</v>
       </c>
-      <c r="E334" s="10">
+      <c r="E334" s="1">
         <f t="shared" si="20"/>
         <v>1.2408759124087274E-3</v>
       </c>
@@ -7755,7 +7736,7 @@
       <c r="D335" s="1">
         <v>2.7300000000000701</v>
       </c>
-      <c r="E335" s="10">
+      <c r="E335" s="1">
         <f t="shared" si="20"/>
         <v>1.2454212454212133E-3</v>
       </c>
@@ -7776,7 +7757,7 @@
       <c r="D336" s="1">
         <v>2.7200000000000699</v>
       </c>
-      <c r="E336" s="10">
+      <c r="E336" s="1">
         <f t="shared" si="20"/>
         <v>1.2499999999999677E-3</v>
       </c>
@@ -7797,7 +7778,7 @@
       <c r="D337" s="1">
         <v>2.7100000000000701</v>
       </c>
-      <c r="E337" s="10">
+      <c r="E337" s="1">
         <f t="shared" si="20"/>
         <v>1.2546125461254287E-3</v>
       </c>
@@ -7818,7 +7799,7 @@
       <c r="D338" s="1">
         <v>2.7000000000000699</v>
       </c>
-      <c r="E338" s="10">
+      <c r="E338" s="1">
         <f t="shared" si="20"/>
         <v>1.2592592592592265E-3</v>
       </c>
@@ -7839,7 +7820,7 @@
       <c r="D339" s="1">
         <v>2.6900000000000701</v>
       </c>
-      <c r="E339" s="10">
+      <c r="E339" s="1">
         <f t="shared" si="20"/>
         <v>1.2639405204460637E-3</v>
       </c>
@@ -7860,7 +7841,7 @@
       <c r="D340" s="1">
         <v>2.6800000000000699</v>
       </c>
-      <c r="E340" s="10">
+      <c r="E340" s="1">
         <f t="shared" si="20"/>
         <v>1.2686567164178772E-3</v>
       </c>
@@ -7881,7 +7862,7 @@
       <c r="D341" s="1">
         <v>2.6700000000000701</v>
       </c>
-      <c r="E341" s="10">
+      <c r="E341" s="1">
         <f t="shared" si="20"/>
         <v>1.2734082397003411E-3</v>
       </c>
@@ -7902,7 +7883,7 @@
       <c r="D342" s="1">
         <v>2.6600000000000699</v>
       </c>
-      <c r="E342" s="10">
+      <c r="E342" s="1">
         <f t="shared" si="20"/>
         <v>1.2781954887217709E-3</v>
       </c>
@@ -7923,7 +7904,7 @@
       <c r="D343" s="1">
         <v>2.6500000000000701</v>
       </c>
-      <c r="E343" s="10">
+      <c r="E343" s="1">
         <f t="shared" si="20"/>
         <v>1.2830188679244943E-3</v>
       </c>
@@ -7944,7 +7925,7 @@
       <c r="D344" s="1">
         <v>2.6400000000000698</v>
       </c>
-      <c r="E344" s="10">
+      <c r="E344" s="1">
         <f t="shared" si="20"/>
         <v>1.2878787878787537E-3</v>
       </c>
@@ -7965,7 +7946,7 @@
       <c r="D345" s="1">
         <v>2.6300000000000701</v>
       </c>
-      <c r="E345" s="10">
+      <c r="E345" s="1">
         <f t="shared" si="20"/>
         <v>1.2927756653992051E-3</v>
       </c>
@@ -7986,7 +7967,7 @@
       <c r="D346" s="1">
         <v>2.6200000000000698</v>
       </c>
-      <c r="E346" s="10">
+      <c r="E346" s="1">
         <f t="shared" si="20"/>
         <v>1.2977099236640875E-3</v>
       </c>
@@ -8007,7 +7988,7 @@
       <c r="D347" s="1">
         <v>2.61000000000007</v>
       </c>
-      <c r="E347" s="10">
+      <c r="E347" s="1">
         <f t="shared" si="20"/>
         <v>1.3026819923371298E-3</v>
       </c>
@@ -8028,7 +8009,7 @@
       <c r="D348" s="1">
         <v>2.6000000000000698</v>
       </c>
-      <c r="E348" s="10">
+      <c r="E348" s="1">
         <f t="shared" si="20"/>
         <v>1.3076923076922725E-3</v>
       </c>
@@ -8049,7 +8030,7 @@
       <c r="D349" s="1">
         <v>2.59000000000007</v>
       </c>
-      <c r="E349" s="10">
+      <c r="E349" s="1">
         <f t="shared" si="20"/>
         <v>1.3127413127412772E-3</v>
       </c>
@@ -8070,7 +8051,7 @@
       <c r="D350" s="1">
         <v>2.5800000000000698</v>
       </c>
-      <c r="E350" s="10">
+      <c r="E350" s="1">
         <f t="shared" si="20"/>
         <v>1.3178294573643055E-3</v>
       </c>
@@ -8091,7 +8072,7 @@
       <c r="D351" s="1">
         <v>2.57000000000007</v>
       </c>
-      <c r="E351" s="10">
+      <c r="E351" s="1">
         <f t="shared" si="20"/>
         <v>1.3229571984435438E-3</v>
       </c>
@@ -8112,7 +8093,7 @@
       <c r="D352" s="1">
         <v>2.5600000000000702</v>
       </c>
-      <c r="E352" s="10">
+      <c r="E352" s="1">
         <f t="shared" si="20"/>
         <v>1.3281249999999634E-3</v>
       </c>
@@ -8133,7 +8114,7 @@
       <c r="D353" s="1">
         <v>2.55000000000007</v>
       </c>
-      <c r="E353" s="10">
+      <c r="E353" s="1">
         <f t="shared" si="20"/>
         <v>1.3333333333332966E-3</v>
       </c>
@@ -8154,7 +8135,7 @@
       <c r="D354" s="1">
         <v>2.5400000000000702</v>
       </c>
-      <c r="E354" s="10">
+      <c r="E354" s="1">
         <f t="shared" si="20"/>
         <v>1.3385826771653174E-3</v>
       </c>
@@ -8175,7 +8156,7 @@
       <c r="D355" s="1">
         <v>2.53000000000007</v>
       </c>
-      <c r="E355" s="10">
+      <c r="E355" s="1">
         <f t="shared" si="20"/>
         <v>1.3438735177865239E-3</v>
       </c>
@@ -8196,7 +8177,7 @@
       <c r="D356" s="1">
         <v>2.5200000000000702</v>
       </c>
-      <c r="E356" s="10">
+      <c r="E356" s="1">
         <f t="shared" si="20"/>
         <v>1.3492063492063116E-3</v>
       </c>
@@ -8217,7 +8198,7 @@
       <c r="D357" s="1">
         <v>2.51000000000007</v>
       </c>
-      <c r="E357" s="10">
+      <c r="E357" s="1">
         <f t="shared" si="20"/>
         <v>1.3545816733067351E-3</v>
       </c>
@@ -8238,7 +8219,7 @@
       <c r="D358" s="1">
         <v>2.5000000000000702</v>
       </c>
-      <c r="E358" s="10">
+      <c r="E358" s="1">
         <f t="shared" si="20"/>
         <v>1.3599999999999617E-3</v>
       </c>
@@ -8259,7 +8240,7 @@
       <c r="D359" s="1">
         <v>2.4900000000000699</v>
       </c>
-      <c r="E359" s="10">
+      <c r="E359" s="1">
         <f t="shared" si="20"/>
         <v>1.3654618473895198E-3</v>
       </c>
@@ -8280,7 +8261,7 @@
       <c r="D360" s="1">
         <v>2.4800000000000701</v>
       </c>
-      <c r="E360" s="10">
+      <c r="E360" s="1">
         <f t="shared" si="20"/>
         <v>1.370967741935445E-3</v>
       </c>
@@ -8301,7 +8282,7 @@
       <c r="D361" s="1">
         <v>2.4700000000000699</v>
       </c>
-      <c r="E361" s="10">
+      <c r="E361" s="1">
         <f t="shared" si="20"/>
         <v>1.3765182186234427E-3</v>
       </c>
@@ -8322,7 +8303,7 @@
       <c r="D362" s="1">
         <v>2.4600000000000701</v>
       </c>
-      <c r="E362" s="10">
+      <c r="E362" s="1">
         <f t="shared" si="20"/>
         <v>1.3821138211381719E-3</v>
       </c>
@@ -8343,7 +8324,7 @@
       <c r="D363" s="1">
         <v>2.4500000000000699</v>
       </c>
-      <c r="E363" s="10">
+      <c r="E363" s="1">
         <f t="shared" si="20"/>
         <v>1.3877551020407767E-3</v>
       </c>
@@ -8364,7 +8345,7 @@
       <c r="D364" s="1">
         <v>2.4400000000000701</v>
       </c>
-      <c r="E364" s="10">
+      <c r="E364" s="1">
         <f t="shared" si="20"/>
         <v>1.3934426229507794E-3</v>
       </c>
@@ -8385,7 +8366,7 @@
       <c r="D365" s="1">
         <v>2.4300000000000699</v>
       </c>
-      <c r="E365" s="10">
+      <c r="E365" s="1">
         <f t="shared" si="20"/>
         <v>1.39917695473247E-3</v>
       </c>
@@ -8406,7 +8387,7 @@
       <c r="D366" s="1">
         <v>2.4200000000000701</v>
       </c>
-      <c r="E366" s="10">
+      <c r="E366" s="1">
         <f t="shared" si="20"/>
         <v>1.4049586776859095E-3</v>
       </c>
@@ -8427,7 +8408,7 @@
       <c r="D367" s="1">
         <v>2.4100000000000699</v>
       </c>
-      <c r="E367" s="10">
+      <c r="E367" s="1">
         <f t="shared" si="20"/>
         <v>1.4107883817426976E-3</v>
       </c>
@@ -8448,7 +8429,7 @@
       <c r="D368" s="1">
         <v>2.4000000000000701</v>
       </c>
-      <c r="E368" s="10">
+      <c r="E368" s="1">
         <f t="shared" si="20"/>
         <v>1.4166666666666251E-3</v>
       </c>
@@ -8469,7 +8450,7 @@
       <c r="D369" s="1">
         <v>2.3900000000000698</v>
       </c>
-      <c r="E369" s="10">
+      <c r="E369" s="1">
         <f t="shared" si="20"/>
         <v>1.4225941422593726E-3</v>
       </c>
@@ -8490,7 +8471,7 @@
       <c r="D370" s="1">
         <v>2.3800000000000701</v>
       </c>
-      <c r="E370" s="10">
+      <c r="E370" s="1">
         <f t="shared" si="20"/>
         <v>1.4285714285713865E-3</v>
       </c>
@@ -8511,7 +8492,7 @@
       <c r="D371" s="1">
         <v>2.37000000000008</v>
       </c>
-      <c r="E371" s="10">
+      <c r="E371" s="1">
         <f t="shared" si="20"/>
         <v>1.434599156118095E-3</v>
       </c>
@@ -8532,7 +8513,7 @@
       <c r="D372" s="1">
         <v>2.3600000000000798</v>
       </c>
-      <c r="E372" s="10">
+      <c r="E372" s="1">
         <f t="shared" si="20"/>
         <v>1.4406779661016462E-3</v>
       </c>
@@ -8553,7 +8534,7 @@
       <c r="D373" s="1">
         <v>2.35000000000008</v>
       </c>
-      <c r="E373" s="10">
+      <c r="E373" s="1">
         <f t="shared" si="20"/>
         <v>1.4468085106382484E-3</v>
       </c>
@@ -8574,7 +8555,7 @@
       <c r="D374" s="1">
         <v>2.3400000000000798</v>
       </c>
-      <c r="E374" s="10">
+      <c r="E374" s="1">
         <f t="shared" si="20"/>
         <v>1.4529914529914033E-3</v>
       </c>
@@ -8595,7 +8576,7 @@
       <c r="D375" s="1">
         <v>2.33000000000008</v>
       </c>
-      <c r="E375" s="10">
+      <c r="E375" s="1">
         <f t="shared" si="20"/>
         <v>1.4592274678111087E-3</v>
       </c>
@@ -8616,7 +8597,7 @@
       <c r="D376" s="1">
         <v>2.3200000000000802</v>
       </c>
-      <c r="E376" s="10">
+      <c r="E376" s="1">
         <f t="shared" si="20"/>
         <v>1.4655172413792596E-3</v>
       </c>
@@ -8637,7 +8618,7 @@
       <c r="D377" s="1">
         <v>2.31000000000008</v>
       </c>
-      <c r="E377" s="10">
+      <c r="E377" s="1">
         <f t="shared" si="20"/>
         <v>1.4718614718614209E-3</v>
       </c>
@@ -8658,7 +8639,7 @@
       <c r="D378" s="1">
         <v>2.3000000000000802</v>
       </c>
-      <c r="E378" s="10">
+      <c r="E378" s="1">
         <f t="shared" si="20"/>
         <v>1.4782608695651657E-3</v>
       </c>
@@ -8679,7 +8660,7 @@
       <c r="D379" s="1">
         <v>2.29000000000008</v>
       </c>
-      <c r="E379" s="10">
+      <c r="E379" s="1">
         <f t="shared" si="20"/>
         <v>1.4847161572051882E-3</v>
       </c>
@@ -8700,7 +8681,7 @@
       <c r="D380" s="1">
         <v>2.2800000000000802</v>
       </c>
-      <c r="E380" s="10">
+      <c r="E380" s="1">
         <f t="shared" si="20"/>
         <v>1.4912280701753862E-3</v>
       </c>
@@ -8721,7 +8702,7 @@
       <c r="D381" s="1">
         <v>2.27000000000008</v>
       </c>
-      <c r="E381" s="10">
+      <c r="E381" s="1">
         <f t="shared" si="20"/>
         <v>1.497797356828141E-3</v>
       </c>
@@ -8742,7 +8723,7 @@
       <c r="D382" s="1">
         <v>2.2600000000000802</v>
       </c>
-      <c r="E382" s="10">
+      <c r="E382" s="1">
         <f t="shared" si="20"/>
         <v>1.5044247787610085E-3</v>
       </c>
@@ -8763,7 +8744,7 @@
       <c r="D383" s="1">
         <v>2.2500000000000799</v>
       </c>
-      <c r="E383" s="10">
+      <c r="E383" s="1">
         <f t="shared" si="20"/>
         <v>1.5111111111110573E-3</v>
       </c>
@@ -8784,7 +8765,7 @@
       <c r="D384" s="1">
         <v>2.2400000000000801</v>
       </c>
-      <c r="E384" s="10">
+      <c r="E384" s="1">
         <f t="shared" si="20"/>
         <v>1.5178571428570884E-3</v>
       </c>
@@ -8805,7 +8786,7 @@
       <c r="D385" s="1">
         <v>2.2300000000000799</v>
       </c>
-      <c r="E385" s="10">
+      <c r="E385" s="1">
         <f t="shared" si="20"/>
         <v>1.5246636771299902E-3</v>
       </c>
@@ -8826,7 +8807,7 @@
       <c r="D386" s="1">
         <v>2.2200000000000801</v>
       </c>
-      <c r="E386" s="10">
+      <c r="E386" s="1">
         <f t="shared" si="20"/>
         <v>1.5315315315314762E-3</v>
       </c>
@@ -8847,7 +8828,7 @@
       <c r="D387" s="1">
         <v>2.2100000000000799</v>
       </c>
-      <c r="E387" s="10">
+      <c r="E387" s="1">
         <f t="shared" si="20"/>
         <v>1.5384615384614827E-3</v>
       </c>
@@ -8868,7 +8849,7 @@
       <c r="D388" s="1">
         <v>2.2000000000000801</v>
       </c>
-      <c r="E388" s="10">
+      <c r="E388" s="1">
         <f t="shared" si="20"/>
         <v>1.545454545454489E-3</v>
       </c>
@@ -8889,7 +8870,7 @@
       <c r="D389" s="1">
         <v>2.1900000000000799</v>
       </c>
-      <c r="E389" s="10">
+      <c r="E389" s="1">
         <f t="shared" si="20"/>
         <v>1.5525114155250574E-3</v>
       </c>
@@ -8910,7 +8891,7 @@
       <c r="D390" s="1">
         <v>2.1800000000000801</v>
       </c>
-      <c r="E390" s="10">
+      <c r="E390" s="1">
         <f t="shared" si="20"/>
         <v>1.5596330275228784E-3</v>
       </c>
@@ -8931,7 +8912,7 @@
       <c r="D391" s="1">
         <v>2.1700000000000799</v>
       </c>
-      <c r="E391" s="10">
+      <c r="E391" s="1">
         <f t="shared" si="20"/>
         <v>1.5668202764976382E-3</v>
       </c>
@@ -8952,7 +8933,7 @@
       <c r="D392" s="1">
         <v>2.1600000000000801</v>
       </c>
-      <c r="E392" s="10">
+      <c r="E392" s="1">
         <f t="shared" si="20"/>
         <v>1.5740740740740155E-3</v>
       </c>
@@ -8973,7 +8954,7 @@
       <c r="D393" s="1">
         <v>2.1500000000000798</v>
       </c>
-      <c r="E393" s="10">
+      <c r="E393" s="1">
         <f t="shared" ref="E393:E456" si="24">$F$6/D393</f>
         <v>1.5813953488371506E-3</v>
       </c>
@@ -8994,7 +8975,7 @@
       <c r="D394" s="1">
         <v>2.1400000000000801</v>
       </c>
-      <c r="E394" s="10">
+      <c r="E394" s="1">
         <f t="shared" si="24"/>
         <v>1.5887850467289125E-3</v>
       </c>
@@ -9015,7 +8996,7 @@
       <c r="D395" s="1">
         <v>2.1300000000000798</v>
       </c>
-      <c r="E395" s="10">
+      <c r="E395" s="1">
         <f t="shared" si="24"/>
         <v>1.5962441314553392E-3</v>
       </c>
@@ -9036,7 +9017,7 @@
       <c r="D396" s="1">
         <v>2.12000000000008</v>
       </c>
-      <c r="E396" s="10">
+      <c r="E396" s="1">
         <f t="shared" si="24"/>
         <v>1.6037735849055998E-3</v>
       </c>
@@ -9057,7 +9038,7 @@
       <c r="D397" s="1">
         <v>2.1100000000000798</v>
       </c>
-      <c r="E397" s="10">
+      <c r="E397" s="1">
         <f t="shared" si="24"/>
         <v>1.6113744075828774E-3</v>
       </c>
@@ -9078,7 +9059,7 @@
       <c r="D398" s="1">
         <v>2.10000000000008</v>
       </c>
-      <c r="E398" s="10">
+      <c r="E398" s="1">
         <f t="shared" si="24"/>
         <v>1.6190476190475573E-3</v>
       </c>
@@ -9099,7 +9080,7 @@
       <c r="D399" s="1">
         <v>2.0900000000000798</v>
       </c>
-      <c r="E399" s="10">
+      <c r="E399" s="1">
         <f t="shared" si="24"/>
         <v>1.6267942583731436E-3</v>
       </c>
@@ -9120,7 +9101,7 @@
       <c r="D400" s="1">
         <v>2.08000000000008</v>
       </c>
-      <c r="E400" s="10">
+      <c r="E400" s="1">
         <f t="shared" si="24"/>
         <v>1.6346153846153216E-3</v>
       </c>
@@ -9141,7 +9122,7 @@
       <c r="D401" s="1">
         <v>2.0700000000000802</v>
       </c>
-      <c r="E401" s="10">
+      <c r="E401" s="1">
         <f t="shared" si="24"/>
         <v>1.6425120772946221E-3</v>
       </c>
@@ -9162,7 +9143,7 @@
       <c r="D402" s="1">
         <v>2.06000000000008</v>
       </c>
-      <c r="E402" s="10">
+      <c r="E402" s="1">
         <f t="shared" si="24"/>
         <v>1.6504854368931397E-3</v>
       </c>
@@ -9183,7 +9164,7 @@
       <c r="D403" s="1">
         <v>2.0500000000000802</v>
       </c>
-      <c r="E403" s="10">
+      <c r="E403" s="1">
         <f t="shared" si="24"/>
         <v>1.6585365853657888E-3</v>
       </c>
@@ -9204,7 +9185,7 @@
       <c r="D404" s="1">
         <v>2.04000000000008</v>
       </c>
-      <c r="E404" s="10">
+      <c r="E404" s="1">
         <f t="shared" si="24"/>
         <v>1.6666666666666013E-3</v>
       </c>
@@ -9225,7 +9206,7 @@
       <c r="D405" s="1">
         <v>2.0300000000000802</v>
       </c>
-      <c r="E405" s="10">
+      <c r="E405" s="1">
         <f t="shared" si="24"/>
         <v>1.6748768472905741E-3</v>
       </c>
@@ -9246,7 +9227,7 @@
       <c r="D406" s="1">
         <v>2.02000000000008</v>
       </c>
-      <c r="E406" s="10">
+      <c r="E406" s="1">
         <f t="shared" si="24"/>
         <v>1.6831683168316164E-3</v>
       </c>
@@ -9267,7 +9248,7 @@
       <c r="D407" s="1">
         <v>2.0100000000000802</v>
       </c>
-      <c r="E407" s="10">
+      <c r="E407" s="1">
         <f t="shared" si="24"/>
         <v>1.6915422885571464E-3</v>
       </c>
@@ -9288,7 +9269,7 @@
       <c r="D408" s="1">
         <v>2.0000000000000799</v>
       </c>
-      <c r="E408" s="10">
+      <c r="E408" s="1">
         <f t="shared" si="24"/>
         <v>1.699999999999932E-3</v>
       </c>
@@ -9309,7 +9290,7 @@
       <c r="D409" s="1">
         <v>1.9900000000000799</v>
       </c>
-      <c r="E409" s="10">
+      <c r="E409" s="1">
         <f t="shared" si="24"/>
         <v>1.7085427135677704E-3</v>
       </c>
@@ -9330,7 +9311,7 @@
       <c r="D410" s="1">
         <v>1.9800000000000799</v>
       </c>
-      <c r="E410" s="10">
+      <c r="E410" s="1">
         <f t="shared" si="24"/>
         <v>1.7171717171716478E-3</v>
       </c>
@@ -9351,7 +9332,7 @@
       <c r="D411" s="1">
         <v>1.9700000000000799</v>
       </c>
-      <c r="E411" s="10">
+      <c r="E411" s="1">
         <f t="shared" si="24"/>
         <v>1.7258883248730263E-3</v>
       </c>
@@ -9372,7 +9353,7 @@
       <c r="D412" s="1">
         <v>1.9600000000000799</v>
       </c>
-      <c r="E412" s="10">
+      <c r="E412" s="1">
         <f t="shared" si="24"/>
         <v>1.7346938775509497E-3</v>
       </c>
@@ -9393,7 +9374,7 @@
       <c r="D413" s="1">
         <v>1.9500000000000799</v>
       </c>
-      <c r="E413" s="10">
+      <c r="E413" s="1">
         <f t="shared" si="24"/>
         <v>1.7435897435896721E-3</v>
       </c>
@@ -9414,7 +9395,7 @@
       <c r="D414" s="1">
         <v>1.9400000000000801</v>
       </c>
-      <c r="E414" s="10">
+      <c r="E414" s="1">
         <f t="shared" si="24"/>
         <v>1.7525773195875565E-3</v>
       </c>
@@ -9435,7 +9416,7 @@
       <c r="D415" s="1">
         <v>1.9300000000000801</v>
       </c>
-      <c r="E415" s="10">
+      <c r="E415" s="1">
         <f t="shared" si="24"/>
         <v>1.7616580310880097E-3</v>
       </c>
@@ -9456,7 +9437,7 @@
       <c r="D416" s="1">
         <v>1.9200000000000801</v>
       </c>
-      <c r="E416" s="10">
+      <c r="E416" s="1">
         <f t="shared" si="24"/>
         <v>1.7708333333332593E-3</v>
       </c>
@@ -9477,7 +9458,7 @@
       <c r="D417" s="1">
         <v>1.9100000000000801</v>
       </c>
-      <c r="E417" s="10">
+      <c r="E417" s="1">
         <f t="shared" si="24"/>
         <v>1.7801047120418101E-3</v>
       </c>
@@ -9498,7 +9479,7 @@
       <c r="D418" s="1">
         <v>1.9000000000000901</v>
       </c>
-      <c r="E418" s="10">
+      <c r="E418" s="1">
         <f t="shared" si="24"/>
         <v>1.7894736842104413E-3</v>
       </c>
@@ -9519,7 +9500,7 @@
       <c r="D419" s="1">
         <v>1.8900000000000901</v>
       </c>
-      <c r="E419" s="10">
+      <c r="E419" s="1">
         <f t="shared" si="24"/>
         <v>1.7989417989417132E-3</v>
       </c>
@@ -9540,7 +9521,7 @@
       <c r="D420" s="1">
         <v>1.88000000000009</v>
       </c>
-      <c r="E420" s="10">
+      <c r="E420" s="1">
         <f t="shared" si="24"/>
         <v>1.8085106382977857E-3</v>
       </c>
@@ -9561,7 +9542,7 @@
       <c r="D421" s="1">
         <v>1.87000000000009</v>
       </c>
-      <c r="E421" s="10">
+      <c r="E421" s="1">
         <f t="shared" si="24"/>
         <v>1.8181818181817306E-3</v>
       </c>
@@ -9582,7 +9563,7 @@
       <c r="D422" s="1">
         <v>1.86000000000009</v>
       </c>
-      <c r="E422" s="10">
+      <c r="E422" s="1">
         <f t="shared" si="24"/>
         <v>1.8279569892472234E-3</v>
       </c>
@@ -9603,7 +9584,7 @@
       <c r="D423" s="1">
         <v>1.85000000000009</v>
       </c>
-      <c r="E423" s="10">
+      <c r="E423" s="1">
         <f t="shared" si="24"/>
         <v>1.8378378378377483E-3</v>
       </c>
@@ -9624,7 +9605,7 @@
       <c r="D424" s="1">
         <v>1.84000000000009</v>
       </c>
-      <c r="E424" s="10">
+      <c r="E424" s="1">
         <f t="shared" si="24"/>
         <v>1.8478260869564313E-3</v>
       </c>
@@ -9645,7 +9626,7 @@
       <c r="D425" s="1">
         <v>1.83000000000009</v>
       </c>
-      <c r="E425" s="10">
+      <c r="E425" s="1">
         <f t="shared" si="24"/>
         <v>1.8579234972676681E-3</v>
       </c>
@@ -9666,7 +9647,7 @@
       <c r="D426" s="1">
         <v>1.82000000000009</v>
       </c>
-      <c r="E426" s="10">
+      <c r="E426" s="1">
         <f t="shared" si="24"/>
         <v>1.8681318681317758E-3</v>
       </c>
@@ -9687,7 +9668,7 @@
       <c r="D427" s="1">
         <v>1.81000000000009</v>
       </c>
-      <c r="E427" s="10">
+      <c r="E427" s="1">
         <f t="shared" si="24"/>
         <v>1.8784530386739397E-3</v>
       </c>
@@ -9708,7 +9689,7 @@
       <c r="D428" s="1">
         <v>1.80000000000009</v>
       </c>
-      <c r="E428" s="10">
+      <c r="E428" s="1">
         <f t="shared" si="24"/>
         <v>1.8888888888887944E-3</v>
       </c>
@@ -9729,7 +9710,7 @@
       <c r="D429" s="1">
         <v>1.79000000000009</v>
       </c>
-      <c r="E429" s="10">
+      <c r="E429" s="1">
         <f t="shared" si="24"/>
         <v>1.8994413407820274E-3</v>
       </c>
@@ -9750,7 +9731,7 @@
       <c r="D430" s="1">
         <v>1.78000000000009</v>
       </c>
-      <c r="E430" s="10">
+      <c r="E430" s="1">
         <f t="shared" si="24"/>
         <v>1.9101123595504652E-3</v>
       </c>
@@ -9771,7 +9752,7 @@
       <c r="D431" s="1">
         <v>1.7700000000000899</v>
       </c>
-      <c r="E431" s="10">
+      <c r="E431" s="1">
         <f t="shared" si="24"/>
         <v>1.9209039548021621E-3</v>
       </c>
@@ -9792,7 +9773,7 @@
       <c r="D432" s="1">
         <v>1.7600000000000899</v>
       </c>
-      <c r="E432" s="10">
+      <c r="E432" s="1">
         <f t="shared" si="24"/>
         <v>1.931818181818083E-3</v>
       </c>
@@ -9813,7 +9794,7 @@
       <c r="D433" s="1">
         <v>1.7500000000000899</v>
       </c>
-      <c r="E433" s="10">
+      <c r="E433" s="1">
         <f t="shared" si="24"/>
         <v>1.9428571428570429E-3</v>
       </c>
@@ -9834,7 +9815,7 @@
       <c r="D434" s="1">
         <v>1.7400000000000899</v>
       </c>
-      <c r="E434" s="10">
+      <c r="E434" s="1">
         <f t="shared" si="24"/>
         <v>1.954022988505646E-3</v>
       </c>
@@ -9855,7 +9836,7 @@
       <c r="D435" s="1">
         <v>1.7300000000000899</v>
       </c>
-      <c r="E435" s="10">
+      <c r="E435" s="1">
         <f t="shared" si="24"/>
         <v>1.965317919075042E-3</v>
       </c>
@@ -9876,7 +9857,7 @@
       <c r="D436" s="1">
         <v>1.7200000000000899</v>
       </c>
-      <c r="E436" s="10">
+      <c r="E436" s="1">
         <f t="shared" si="24"/>
         <v>1.9767441860464082E-3</v>
       </c>
@@ -9897,7 +9878,7 @@
       <c r="D437" s="1">
         <v>1.7100000000000899</v>
       </c>
-      <c r="E437" s="10">
+      <c r="E437" s="1">
         <f t="shared" si="24"/>
         <v>1.9883040935671469E-3</v>
       </c>
@@ -9918,7 +9899,7 @@
       <c r="D438" s="1">
         <v>1.7000000000000901</v>
       </c>
-      <c r="E438" s="10">
+      <c r="E438" s="1">
         <f t="shared" si="24"/>
         <v>1.9999999999998938E-3</v>
       </c>
@@ -9939,7 +9920,7 @@
       <c r="D439" s="1">
         <v>1.6900000000000901</v>
       </c>
-      <c r="E439" s="10">
+      <c r="E439" s="1">
         <f t="shared" si="24"/>
         <v>2.0118343195265199E-3</v>
       </c>
@@ -9960,7 +9941,7 @@
       <c r="D440" s="1">
         <v>1.6800000000000901</v>
       </c>
-      <c r="E440" s="10">
+      <c r="E440" s="1">
         <f t="shared" si="24"/>
         <v>2.0238095238094152E-3</v>
       </c>
@@ -9981,7 +9962,7 @@
       <c r="D441" s="1">
         <v>1.6700000000000901</v>
       </c>
-      <c r="E441" s="10">
+      <c r="E441" s="1">
         <f t="shared" si="24"/>
         <v>2.0359281437124649E-3</v>
       </c>
@@ -10002,7 +9983,7 @@
       <c r="D442" s="1">
         <v>1.6600000000000901</v>
       </c>
-      <c r="E442" s="10">
+      <c r="E442" s="1">
         <f t="shared" si="24"/>
         <v>2.0481927710842263E-3</v>
       </c>
@@ -10023,7 +10004,7 @@
       <c r="D443" s="1">
         <v>1.6500000000000901</v>
       </c>
-      <c r="E443" s="10">
+      <c r="E443" s="1">
         <f t="shared" si="24"/>
         <v>2.0606060606059482E-3</v>
       </c>
@@ -10044,7 +10025,7 @@
       <c r="D444" s="1">
         <v>1.6400000000000901</v>
       </c>
-      <c r="E444" s="10">
+      <c r="E444" s="1">
         <f t="shared" si="24"/>
         <v>2.0731707317072031E-3</v>
       </c>
@@ -10065,7 +10046,7 @@
       <c r="D445" s="1">
         <v>1.63000000000009</v>
       </c>
-      <c r="E445" s="10">
+      <c r="E445" s="1">
         <f t="shared" si="24"/>
         <v>2.0858895705520319E-3</v>
       </c>
@@ -10086,7 +10067,7 @@
       <c r="D446" s="1">
         <v>1.62000000000009</v>
       </c>
-      <c r="E446" s="10">
+      <c r="E446" s="1">
         <f t="shared" si="24"/>
         <v>2.0987654320986488E-3</v>
       </c>
@@ -10107,7 +10088,7 @@
       <c r="D447" s="1">
         <v>1.61000000000009</v>
       </c>
-      <c r="E447" s="10">
+      <c r="E447" s="1">
         <f t="shared" si="24"/>
         <v>2.1118012422359066E-3</v>
       </c>
@@ -10128,7 +10109,7 @@
       <c r="D448" s="1">
         <v>1.60000000000009</v>
       </c>
-      <c r="E448" s="10">
+      <c r="E448" s="1">
         <f t="shared" si="24"/>
         <v>2.1249999999998805E-3</v>
       </c>
@@ -10149,7 +10130,7 @@
       <c r="D449" s="1">
         <v>1.59000000000009</v>
       </c>
-      <c r="E449" s="10">
+      <c r="E449" s="1">
         <f t="shared" si="24"/>
         <v>2.1383647798740926E-3</v>
       </c>
@@ -10170,7 +10151,7 @@
       <c r="D450" s="1">
         <v>1.58000000000009</v>
       </c>
-      <c r="E450" s="10">
+      <c r="E450" s="1">
         <f t="shared" si="24"/>
         <v>2.1518987341770926E-3</v>
       </c>
@@ -10191,7 +10172,7 @@
       <c r="D451" s="1">
         <v>1.57000000000009</v>
       </c>
-      <c r="E451" s="10">
+      <c r="E451" s="1">
         <f t="shared" si="24"/>
         <v>2.1656050955412768E-3</v>
       </c>
@@ -10212,7 +10193,7 @@
       <c r="D452" s="1">
         <v>1.56000000000009</v>
       </c>
-      <c r="E452" s="10">
+      <c r="E452" s="1">
         <f t="shared" si="24"/>
         <v>2.1794871794870536E-3</v>
       </c>
@@ -10233,7 +10214,7 @@
       <c r="D453" s="1">
         <v>1.55000000000009</v>
       </c>
-      <c r="E453" s="10">
+      <c r="E453" s="1">
         <f t="shared" si="24"/>
         <v>2.1935483870966469E-3</v>
       </c>
@@ -10254,7 +10235,7 @@
       <c r="D454" s="1">
         <v>1.54000000000009</v>
       </c>
-      <c r="E454" s="10">
+      <c r="E454" s="1">
         <f t="shared" si="24"/>
         <v>2.2077922077920788E-3</v>
       </c>
@@ -10275,7 +10256,7 @@
       <c r="D455" s="1">
         <v>1.53000000000009</v>
       </c>
-      <c r="E455" s="10">
+      <c r="E455" s="1">
         <f t="shared" si="24"/>
         <v>2.2222222222220912E-3</v>
       </c>
@@ -10296,7 +10277,7 @@
       <c r="D456" s="1">
         <v>1.5200000000000899</v>
       </c>
-      <c r="E456" s="10">
+      <c r="E456" s="1">
         <f t="shared" si="24"/>
         <v>2.2368421052630255E-3</v>
       </c>
@@ -10317,7 +10298,7 @@
       <c r="D457" s="1">
         <v>1.5100000000000899</v>
       </c>
-      <c r="E457" s="10">
+      <c r="E457" s="1">
         <f t="shared" ref="E457:E520" si="28">$F$6/D457</f>
         <v>2.2516556291389384E-3</v>
       </c>
@@ -10338,7 +10319,7 @@
       <c r="D458" s="1">
         <v>1.5000000000000899</v>
       </c>
-      <c r="E458" s="10">
+      <c r="E458" s="1">
         <f t="shared" si="28"/>
         <v>2.2666666666665307E-3</v>
       </c>
@@ -10359,7 +10340,7 @@
       <c r="D459" s="1">
         <v>1.4900000000000899</v>
       </c>
-      <c r="E459" s="10">
+      <c r="E459" s="1">
         <f t="shared" si="28"/>
         <v>2.2818791946307348E-3</v>
       </c>
@@ -10380,7 +10361,7 @@
       <c r="D460" s="1">
         <v>1.4800000000000899</v>
       </c>
-      <c r="E460" s="10">
+      <c r="E460" s="1">
         <f t="shared" si="28"/>
         <v>2.2972972972971576E-3</v>
       </c>
@@ -10401,7 +10382,7 @@
       <c r="D461" s="1">
         <v>1.4700000000000899</v>
       </c>
-      <c r="E461" s="10">
+      <c r="E461" s="1">
         <f t="shared" si="28"/>
         <v>2.3129251700678855E-3</v>
       </c>
@@ -10422,7 +10403,7 @@
       <c r="D462" s="1">
         <v>1.4600000000000899</v>
       </c>
-      <c r="E462" s="10">
+      <c r="E462" s="1">
         <f t="shared" si="28"/>
         <v>2.3287671232875276E-3</v>
       </c>
@@ -10443,7 +10424,7 @@
       <c r="D463" s="1">
         <v>1.4500000000000901</v>
       </c>
-      <c r="E463" s="10">
+      <c r="E463" s="1">
         <f t="shared" si="28"/>
         <v>2.3448275862067505E-3</v>
       </c>
@@ -10464,7 +10445,7 @@
       <c r="D464" s="1">
         <v>1.4400000000000901</v>
       </c>
-      <c r="E464" s="10">
+      <c r="E464" s="1">
         <f t="shared" si="28"/>
         <v>2.3611111111109633E-3</v>
       </c>
@@ -10485,7 +10466,7 @@
       <c r="D465" s="1">
         <v>1.4300000000001001</v>
       </c>
-      <c r="E465" s="10">
+      <c r="E465" s="1">
         <f t="shared" si="28"/>
         <v>2.3776223776222111E-3</v>
       </c>
@@ -10506,7 +10487,7 @@
       <c r="D466" s="1">
         <v>1.4200000000001001</v>
       </c>
-      <c r="E466" s="10">
+      <c r="E466" s="1">
         <f t="shared" si="28"/>
         <v>2.3943661971829299E-3</v>
       </c>
@@ -10527,7 +10508,7 @@
       <c r="D467" s="1">
         <v>1.4100000000001001</v>
       </c>
-      <c r="E467" s="10">
+      <c r="E467" s="1">
         <f t="shared" si="28"/>
         <v>2.4113475177303251E-3</v>
       </c>
@@ -10548,7 +10529,7 @@
       <c r="D468" s="1">
         <v>1.4000000000001001</v>
       </c>
-      <c r="E468" s="10">
+      <c r="E468" s="1">
         <f t="shared" si="28"/>
         <v>2.4285714285712549E-3</v>
       </c>
@@ -10569,7 +10550,7 @@
       <c r="D469" s="1">
         <v>1.3900000000001</v>
       </c>
-      <c r="E469" s="10">
+      <c r="E469" s="1">
         <f t="shared" si="28"/>
         <v>2.4460431654674498E-3</v>
       </c>
@@ -10590,7 +10571,7 @@
       <c r="D470" s="1">
         <v>1.3800000000001</v>
       </c>
-      <c r="E470" s="10">
+      <c r="E470" s="1">
         <f t="shared" si="28"/>
         <v>2.4637681159418502E-3</v>
       </c>
@@ -10611,7 +10592,7 @@
       <c r="D471" s="1">
         <v>1.3700000000001</v>
       </c>
-      <c r="E471" s="10">
+      <c r="E471" s="1">
         <f t="shared" si="28"/>
         <v>2.4817518248173367E-3</v>
       </c>
@@ -10632,7 +10613,7 @@
       <c r="D472" s="1">
         <v>1.3600000000001</v>
       </c>
-      <c r="E472" s="10">
+      <c r="E472" s="1">
         <f t="shared" si="28"/>
         <v>2.4999999999998162E-3</v>
       </c>
@@ -10653,7 +10634,7 @@
       <c r="D473" s="1">
         <v>1.3500000000001</v>
       </c>
-      <c r="E473" s="10">
+      <c r="E473" s="1">
         <f t="shared" si="28"/>
         <v>2.518518518518332E-3</v>
       </c>
@@ -10674,7 +10655,7 @@
       <c r="D474" s="1">
         <v>1.3400000000001</v>
       </c>
-      <c r="E474" s="10">
+      <c r="E474" s="1">
         <f t="shared" si="28"/>
         <v>2.5373134328356313E-3</v>
       </c>
@@ -10695,7 +10676,7 @@
       <c r="D475" s="1">
         <v>1.3300000000001</v>
       </c>
-      <c r="E475" s="10">
+      <c r="E475" s="1">
         <f t="shared" si="28"/>
         <v>2.5563909774434165E-3</v>
       </c>
@@ -10716,7 +10697,7 @@
       <c r="D476" s="1">
         <v>1.3200000000001</v>
       </c>
-      <c r="E476" s="10">
+      <c r="E476" s="1">
         <f t="shared" si="28"/>
         <v>2.5757575757573807E-3</v>
       </c>
@@ -10737,7 +10718,7 @@
       <c r="D477" s="1">
         <v>1.3100000000001</v>
       </c>
-      <c r="E477" s="10">
+      <c r="E477" s="1">
         <f t="shared" si="28"/>
         <v>2.5954198473280461E-3</v>
       </c>
@@ -10758,7 +10739,7 @@
       <c r="D478" s="1">
         <v>1.3000000000001</v>
       </c>
-      <c r="E478" s="10">
+      <c r="E478" s="1">
         <f t="shared" si="28"/>
         <v>2.6153846153844141E-3</v>
       </c>
@@ -10779,7 +10760,7 @@
       <c r="D479" s="1">
         <v>1.2900000000001</v>
       </c>
-      <c r="E479" s="10">
+      <c r="E479" s="1">
         <f t="shared" si="28"/>
         <v>2.6356589147284778E-3</v>
       </c>
@@ -10800,7 +10781,7 @@
       <c r="D480" s="1">
         <v>1.2800000000000999</v>
       </c>
-      <c r="E480" s="10">
+      <c r="E480" s="1">
         <f t="shared" si="28"/>
         <v>2.6562499999997925E-3</v>
       </c>
@@ -10821,7 +10802,7 @@
       <c r="D481" s="1">
         <v>1.2700000000000999</v>
       </c>
-      <c r="E481" s="10">
+      <c r="E481" s="1">
         <f t="shared" si="28"/>
         <v>2.6771653543304977E-3</v>
       </c>
@@ -10842,7 +10823,7 @@
       <c r="D482" s="1">
         <v>1.2600000000000999</v>
       </c>
-      <c r="E482" s="10">
+      <c r="E482" s="1">
         <f t="shared" si="28"/>
         <v>2.6984126984124844E-3</v>
       </c>
@@ -10863,7 +10844,7 @@
       <c r="D483" s="1">
         <v>1.2500000000000999</v>
       </c>
-      <c r="E483" s="10">
+      <c r="E483" s="1">
         <f t="shared" si="28"/>
         <v>2.7199999999997825E-3</v>
       </c>
@@ -10884,7 +10865,7 @@
       <c r="D484" s="1">
         <v>1.2400000000000999</v>
       </c>
-      <c r="E484" s="10">
+      <c r="E484" s="1">
         <f t="shared" si="28"/>
         <v>2.7419354838707465E-3</v>
       </c>
@@ -10905,7 +10886,7 @@
       <c r="D485" s="1">
         <v>1.2300000000000999</v>
       </c>
-      <c r="E485" s="10">
+      <c r="E485" s="1">
         <f t="shared" si="28"/>
         <v>2.7642276422761981E-3</v>
       </c>
@@ -10926,7 +10907,7 @@
       <c r="D486" s="1">
         <v>1.2200000000000999</v>
       </c>
-      <c r="E486" s="10">
+      <c r="E486" s="1">
         <f t="shared" si="28"/>
         <v>2.786885245901411E-3</v>
       </c>
@@ -10947,7 +10928,7 @@
       <c r="D487" s="1">
         <v>1.2100000000001001</v>
       </c>
-      <c r="E487" s="10">
+      <c r="E487" s="1">
         <f t="shared" si="28"/>
         <v>2.8099173553716682E-3</v>
       </c>
@@ -10968,7 +10949,7 @@
       <c r="D488" s="1">
         <v>1.2000000000001001</v>
       </c>
-      <c r="E488" s="10">
+      <c r="E488" s="1">
         <f t="shared" si="28"/>
         <v>2.8333333333330967E-3</v>
       </c>
@@ -10989,7 +10970,7 @@
       <c r="D489" s="1">
         <v>1.1900000000001001</v>
       </c>
-      <c r="E489" s="10">
+      <c r="E489" s="1">
         <f t="shared" si="28"/>
         <v>2.8571428571426169E-3</v>
       </c>
@@ -11010,7 +10991,7 @@
       <c r="D490" s="1">
         <v>1.1800000000001001</v>
       </c>
-      <c r="E490" s="10">
+      <c r="E490" s="1">
         <f t="shared" si="28"/>
         <v>2.8813559322031453E-3</v>
       </c>
@@ -11031,7 +11012,7 @@
       <c r="D491" s="1">
         <v>1.1700000000001001</v>
       </c>
-      <c r="E491" s="10">
+      <c r="E491" s="1">
         <f t="shared" si="28"/>
         <v>2.9059829059826575E-3</v>
       </c>
@@ -11052,7 +11033,7 @@
       <c r="D492" s="1">
         <v>1.1600000000001001</v>
       </c>
-      <c r="E492" s="10">
+      <c r="E492" s="1">
         <f t="shared" si="28"/>
         <v>2.9310344827583679E-3</v>
       </c>
@@ -11073,7 +11054,7 @@
       <c r="D493" s="1">
         <v>1.1500000000001001</v>
       </c>
-      <c r="E493" s="10">
+      <c r="E493" s="1">
         <f t="shared" si="28"/>
         <v>2.9565217391301774E-3</v>
       </c>
@@ -11094,7 +11075,7 @@
       <c r="D494" s="1">
         <v>1.1400000000001</v>
       </c>
-      <c r="E494" s="10">
+      <c r="E494" s="1">
         <f t="shared" si="28"/>
         <v>2.9824561403506153E-3</v>
       </c>
@@ -11115,7 +11096,7 @@
       <c r="D495" s="1">
         <v>1.1300000000001</v>
       </c>
-      <c r="E495" s="10">
+      <c r="E495" s="1">
         <f t="shared" si="28"/>
         <v>3.0088495575218573E-3</v>
       </c>
@@ -11136,7 +11117,7 @@
       <c r="D496" s="1">
         <v>1.1200000000001</v>
       </c>
-      <c r="E496" s="10">
+      <c r="E496" s="1">
         <f t="shared" si="28"/>
         <v>3.0357142857140146E-3</v>
       </c>
@@ -11157,7 +11138,7 @@
       <c r="D497" s="1">
         <v>1.1100000000001</v>
       </c>
-      <c r="E497" s="10">
+      <c r="E497" s="1">
         <f t="shared" si="28"/>
         <v>3.0630630630627867E-3</v>
       </c>
@@ -11178,7 +11159,7 @@
       <c r="D498" s="1">
         <v>1.1000000000001</v>
       </c>
-      <c r="E498" s="10">
+      <c r="E498" s="1">
         <f t="shared" si="28"/>
         <v>3.0909090909088098E-3</v>
       </c>
@@ -11199,7 +11180,7 @@
       <c r="D499" s="1">
         <v>1.0900000000001</v>
       </c>
-      <c r="E499" s="10">
+      <c r="E499" s="1">
         <f t="shared" si="28"/>
         <v>3.1192660550455852E-3</v>
       </c>
@@ -11220,7 +11201,7 @@
       <c r="D500" s="1">
         <v>1.0800000000001</v>
       </c>
-      <c r="E500" s="10">
+      <c r="E500" s="1">
         <f t="shared" si="28"/>
         <v>3.1481481481478563E-3</v>
       </c>
@@ -11241,7 +11222,7 @@
       <c r="D501" s="1">
         <v>1.0700000000001</v>
       </c>
-      <c r="E501" s="10">
+      <c r="E501" s="1">
         <f t="shared" si="28"/>
         <v>3.1775700934576468E-3</v>
       </c>
@@ -11262,7 +11243,7 @@
       <c r="D502" s="1">
         <v>1.0600000000001</v>
       </c>
-      <c r="E502" s="10">
+      <c r="E502" s="1">
         <f t="shared" si="28"/>
         <v>3.2075471698110179E-3</v>
       </c>
@@ -11283,7 +11264,7 @@
       <c r="D503" s="1">
         <v>1.0500000000001</v>
       </c>
-      <c r="E503" s="10">
+      <c r="E503" s="1">
         <f t="shared" si="28"/>
         <v>3.2380952380949295E-3</v>
       </c>
@@ -11304,7 +11285,7 @@
       <c r="D504" s="1">
         <v>1.0400000000001</v>
       </c>
-      <c r="E504" s="10">
+      <c r="E504" s="1">
         <f t="shared" si="28"/>
         <v>3.2692307692304546E-3</v>
       </c>
@@ -11325,7 +11306,7 @@
       <c r="D505" s="1">
         <v>1.0300000000000999</v>
       </c>
-      <c r="E505" s="10">
+      <c r="E505" s="1">
         <f t="shared" si="28"/>
         <v>3.3009708737860872E-3</v>
       </c>
@@ -11346,7 +11327,7 @@
       <c r="D506" s="1">
         <v>1.0200000000000999</v>
       </c>
-      <c r="E506" s="10">
+      <c r="E506" s="1">
         <f t="shared" si="28"/>
         <v>3.3333333333330066E-3</v>
       </c>
@@ -11367,7 +11348,7 @@
       <c r="D507" s="1">
         <v>1.0100000000000999</v>
       </c>
-      <c r="E507" s="10">
+      <c r="E507" s="1">
         <f t="shared" si="28"/>
         <v>3.3663366336630332E-3</v>
       </c>
@@ -11388,7 +11369,7 @@
       <c r="D508" s="1">
         <v>1.0000000000000999</v>
       </c>
-      <c r="E508" s="10">
+      <c r="E508" s="1">
         <f t="shared" si="28"/>
         <v>3.3999999999996602E-3</v>
       </c>
@@ -11409,7 +11390,7 @@
       <c r="D509" s="1">
         <v>0.99000000000010002</v>
       </c>
-      <c r="E509" s="10">
+      <c r="E509" s="1">
         <f t="shared" si="28"/>
         <v>3.434343434343087E-3</v>
       </c>
@@ -11430,7 +11411,7 @@
       <c r="D510" s="1">
         <v>0.98000000000010001</v>
       </c>
-      <c r="E510" s="10">
+      <c r="E510" s="1">
         <f t="shared" si="28"/>
         <v>3.4693877551016865E-3</v>
       </c>
@@ -11451,7 +11432,7 @@
       <c r="D511" s="1">
         <v>0.9700000000001</v>
       </c>
-      <c r="E511" s="10">
+      <c r="E511" s="1">
         <f t="shared" si="28"/>
         <v>3.5051546391748961E-3</v>
       </c>
@@ -11472,7 +11453,7 @@
       <c r="D512" s="1">
         <v>0.96000000000010999</v>
       </c>
-      <c r="E512" s="10">
+      <c r="E512" s="1">
         <f t="shared" si="28"/>
         <v>3.5416666666662606E-3</v>
       </c>
@@ -11493,7 +11474,7 @@
       <c r="D513" s="1">
         <v>0.95000000000010898</v>
       </c>
-      <c r="E513" s="10">
+      <c r="E513" s="1">
         <f t="shared" si="28"/>
         <v>3.5789473684206419E-3</v>
       </c>
@@ -11514,7 +11495,7 @@
       <c r="D514" s="1">
         <v>0.94000000000010997</v>
       </c>
-      <c r="E514" s="10">
+      <c r="E514" s="1">
         <f t="shared" si="28"/>
         <v>3.6170212765953215E-3</v>
       </c>
@@ -11535,7 +11516,7 @@
       <c r="D515" s="1">
         <v>0.93000000000010996</v>
       </c>
-      <c r="E515" s="10">
+      <c r="E515" s="1">
         <f t="shared" si="28"/>
         <v>3.6559139784941913E-3</v>
       </c>
@@ -11556,7 +11537,7 @@
       <c r="D516" s="1">
         <v>0.92000000000010995</v>
       </c>
-      <c r="E516" s="10">
+      <c r="E516" s="1">
         <f t="shared" si="28"/>
         <v>3.6956521739126016E-3</v>
       </c>
@@ -11577,7 +11558,7 @@
       <c r="D517" s="1">
         <v>0.91000000000010905</v>
       </c>
-      <c r="E517" s="10">
+      <c r="E517" s="1">
         <f t="shared" si="28"/>
         <v>3.7362637362632883E-3</v>
       </c>
@@ -11598,7 +11579,7 @@
       <c r="D518" s="1">
         <v>0.90000000000011005</v>
       </c>
-      <c r="E518" s="10">
+      <c r="E518" s="1">
         <f t="shared" si="28"/>
         <v>3.7777777777773156E-3</v>
       </c>
@@ -11619,7 +11600,7 @@
       <c r="D519" s="1">
         <v>0.89000000000011004</v>
       </c>
-      <c r="E519" s="10">
+      <c r="E519" s="1">
         <f t="shared" si="28"/>
         <v>3.8202247191006511E-3</v>
       </c>
@@ -11640,7 +11621,7 @@
       <c r="D520" s="1">
         <v>0.88000000000011003</v>
       </c>
-      <c r="E520" s="10">
+      <c r="E520" s="1">
         <f t="shared" si="28"/>
         <v>3.8636363636358802E-3</v>
       </c>
@@ -11661,7 +11642,7 @@
       <c r="D521" s="1">
         <v>0.87000000000010902</v>
       </c>
-      <c r="E521" s="10">
+      <c r="E521" s="1">
         <f t="shared" ref="E521:E584" si="32">$F$6/D521</f>
         <v>3.908045977011004E-3</v>
       </c>
@@ -11682,7 +11663,7 @@
       <c r="D522" s="1">
         <v>0.86000000000011001</v>
       </c>
-      <c r="E522" s="10">
+      <c r="E522" s="1">
         <f t="shared" si="32"/>
         <v>3.9534883720925172E-3</v>
       </c>
@@ -11703,7 +11684,7 @@
       <c r="D523" s="1">
         <v>0.85000000000011</v>
       </c>
-      <c r="E523" s="10">
+      <c r="E523" s="1">
         <f t="shared" si="32"/>
         <v>3.9999999999994823E-3</v>
       </c>
@@ -11724,7 +11705,7 @@
       <c r="D524" s="1">
         <v>0.84000000000010999</v>
       </c>
-      <c r="E524" s="10">
+      <c r="E524" s="1">
         <f t="shared" si="32"/>
         <v>4.0476190476185173E-3</v>
       </c>
@@ -11745,7 +11726,7 @@
       <c r="D525" s="1">
         <v>0.83000000000010898</v>
       </c>
-      <c r="E525" s="10">
+      <c r="E525" s="1">
         <f t="shared" si="32"/>
         <v>4.0963855421681369E-3</v>
       </c>
@@ -11766,7 +11747,7 @@
       <c r="D526" s="1">
         <v>0.82000000000010997</v>
       </c>
-      <c r="E526" s="10">
+      <c r="E526" s="1">
         <f t="shared" si="32"/>
         <v>4.1463414634140775E-3</v>
       </c>
@@ -11787,7 +11768,7 @@
       <c r="D527" s="1">
         <v>0.81000000000010997</v>
       </c>
-      <c r="E527" s="10">
+      <c r="E527" s="1">
         <f t="shared" si="32"/>
         <v>4.1975308641969611E-3</v>
       </c>
@@ -11808,7 +11789,7 @@
       <c r="D528" s="1">
         <v>0.80000000000010996</v>
       </c>
-      <c r="E528" s="10">
+      <c r="E528" s="1">
         <f t="shared" si="32"/>
         <v>4.2499999999994157E-3</v>
       </c>
@@ -11829,7 +11810,7 @@
       <c r="D529" s="1">
         <v>0.79000000000010895</v>
       </c>
-      <c r="E529" s="10">
+      <c r="E529" s="1">
         <f t="shared" si="32"/>
         <v>4.3037974683538364E-3</v>
       </c>
@@ -11850,7 +11831,7 @@
       <c r="D530" s="1">
         <v>0.78000000000010905</v>
       </c>
-      <c r="E530" s="10">
+      <c r="E530" s="1">
         <f t="shared" si="32"/>
         <v>4.358974358973749E-3</v>
       </c>
@@ -11871,7 +11852,7 @@
       <c r="D531" s="1">
         <v>0.77000000000011004</v>
       </c>
-      <c r="E531" s="10">
+      <c r="E531" s="1">
         <f t="shared" si="32"/>
         <v>4.4155844155837846E-3</v>
       </c>
@@ -11892,7 +11873,7 @@
       <c r="D532" s="1">
         <v>0.76000000000011003</v>
       </c>
-      <c r="E532" s="10">
+      <c r="E532" s="1">
         <f t="shared" si="32"/>
         <v>4.4736842105256676E-3</v>
       </c>
@@ -11913,7 +11894,7 @@
       <c r="D533" s="1">
         <v>0.75000000000010902</v>
       </c>
-      <c r="E533" s="10">
+      <c r="E533" s="1">
         <f t="shared" si="32"/>
         <v>4.5333333333326745E-3</v>
       </c>
@@ -11934,7 +11915,7 @@
       <c r="D534" s="1">
         <v>0.74000000000010902</v>
       </c>
-      <c r="E534" s="10">
+      <c r="E534" s="1">
         <f t="shared" si="32"/>
         <v>4.5945945945939171E-3</v>
       </c>
@@ -11955,7 +11936,7 @@
       <c r="D535" s="1">
         <v>0.73000000000011001</v>
       </c>
-      <c r="E535" s="10">
+      <c r="E535" s="1">
         <f t="shared" si="32"/>
         <v>4.6575342465746405E-3</v>
       </c>
@@ -11976,7 +11957,7 @@
       <c r="D536" s="1">
         <v>0.72000000000011</v>
       </c>
-      <c r="E536" s="10">
+      <c r="E536" s="1">
         <f t="shared" si="32"/>
         <v>4.7222222222215006E-3</v>
       </c>
@@ -11997,7 +11978,7 @@
       <c r="D537" s="1">
         <v>0.71000000000010999</v>
       </c>
-      <c r="E537" s="10">
+      <c r="E537" s="1">
         <f t="shared" si="32"/>
         <v>4.7887323943654548E-3</v>
       </c>
@@ -12018,7 +11999,7 @@
       <c r="D538" s="1">
         <v>0.70000000000010898</v>
       </c>
-      <c r="E538" s="10">
+      <c r="E538" s="1">
         <f t="shared" si="32"/>
         <v>4.8571428571421004E-3</v>
       </c>
@@ -12039,7 +12020,7 @@
       <c r="D539" s="1">
         <v>0.69000000000010997</v>
       </c>
-      <c r="E539" s="10">
+      <c r="E539" s="1">
         <f t="shared" si="32"/>
         <v>4.9275362318832727E-3</v>
       </c>
@@ -12060,7 +12041,7 @@
       <c r="D540" s="1">
         <v>0.68000000000010996</v>
       </c>
-      <c r="E540" s="10">
+      <c r="E540" s="1">
         <f t="shared" si="32"/>
         <v>4.9999999999991909E-3</v>
       </c>
@@ -12081,7 +12062,7 @@
       <c r="D541" s="1">
         <v>0.67000000000010995</v>
       </c>
-      <c r="E541" s="10">
+      <c r="E541" s="1">
         <f t="shared" si="32"/>
         <v>5.074626865670809E-3</v>
       </c>
@@ -12102,7 +12083,7 @@
       <c r="D542" s="1">
         <v>0.66000000000010905</v>
       </c>
-      <c r="E542" s="10">
+      <c r="E542" s="1">
         <f t="shared" si="32"/>
         <v>5.1515151515143E-3</v>
       </c>
@@ -12123,7 +12104,7 @@
       <c r="D543" s="1">
         <v>0.65000000000011005</v>
       </c>
-      <c r="E543" s="10">
+      <c r="E543" s="1">
         <f t="shared" si="32"/>
         <v>5.2307692307683451E-3</v>
       </c>
@@ -12144,7 +12125,7 @@
       <c r="D544" s="1">
         <v>0.64000000000011004</v>
       </c>
-      <c r="E544" s="10">
+      <c r="E544" s="1">
         <f t="shared" si="32"/>
         <v>5.3124999999990862E-3</v>
       </c>
@@ -12165,7 +12146,7 @@
       <c r="D545" s="1">
         <v>0.63000000000011003</v>
       </c>
-      <c r="E545" s="10">
+      <c r="E545" s="1">
         <f t="shared" si="32"/>
         <v>5.3968253968244536E-3</v>
       </c>
@@ -12186,7 +12167,7 @@
       <c r="D546" s="1">
         <v>0.62000000000010902</v>
       </c>
-      <c r="E546" s="10">
+      <c r="E546" s="1">
         <f t="shared" si="32"/>
         <v>5.4838709677409708E-3</v>
       </c>
@@ -12207,7 +12188,7 @@
       <c r="D547" s="1">
         <v>0.61000000000011001</v>
       </c>
-      <c r="E547" s="10">
+      <c r="E547" s="1">
         <f t="shared" si="32"/>
         <v>5.573770491802273E-3</v>
       </c>
@@ -12228,7 +12209,7 @@
       <c r="D548" s="1">
         <v>0.60000000000011</v>
       </c>
-      <c r="E548" s="10">
+      <c r="E548" s="1">
         <f t="shared" si="32"/>
         <v>5.6666666666656271E-3</v>
       </c>
@@ -12249,7 +12230,7 @@
       <c r="D549" s="1">
         <v>0.59000000000010999</v>
       </c>
-      <c r="E549" s="10">
+      <c r="E549" s="1">
         <f t="shared" si="32"/>
         <v>5.7627118644057052E-3</v>
       </c>
@@ -12270,7 +12251,7 @@
       <c r="D550" s="1">
         <v>0.58000000000010898</v>
       </c>
-      <c r="E550" s="10">
+      <c r="E550" s="1">
         <f t="shared" si="32"/>
         <v>5.8620689655161399E-3</v>
       </c>
@@ -12291,7 +12272,7 @@
       <c r="D551" s="1">
         <v>0.57000000000010997</v>
       </c>
-      <c r="E551" s="10">
+      <c r="E551" s="1">
         <f t="shared" si="32"/>
         <v>5.9649122807006036E-3</v>
       </c>
@@ -12312,7 +12293,7 @@
       <c r="D552" s="1">
         <v>0.56000000000010997</v>
       </c>
-      <c r="E552" s="10">
+      <c r="E552" s="1">
         <f t="shared" si="32"/>
         <v>6.0714285714273787E-3</v>
       </c>
@@ -12333,7 +12314,7 @@
       <c r="D553" s="1">
         <v>0.55000000000010996</v>
       </c>
-      <c r="E553" s="10">
+      <c r="E553" s="1">
         <f t="shared" si="32"/>
         <v>6.1818181818169456E-3</v>
       </c>
@@ -12354,7 +12335,7 @@
       <c r="D554" s="1">
         <v>0.54000000000010895</v>
       </c>
-      <c r="E554" s="10">
+      <c r="E554" s="1">
         <f t="shared" si="32"/>
         <v>6.2962962962950257E-3</v>
       </c>
@@ -12375,7 +12356,7 @@
       <c r="D555" s="1">
         <v>0.53000000000010905</v>
       </c>
-      <c r="E555" s="10">
+      <c r="E555" s="1">
         <f t="shared" si="32"/>
         <v>6.4150943396213212E-3</v>
       </c>
@@ -12396,7 +12377,7 @@
       <c r="D556" s="1">
         <v>0.52000000000011004</v>
       </c>
-      <c r="E556" s="10">
+      <c r="E556" s="1">
         <f t="shared" si="32"/>
         <v>6.5384615384601547E-3</v>
       </c>
@@ -12417,7 +12398,7 @@
       <c r="D557" s="1">
         <v>0.51000000000011003</v>
       </c>
-      <c r="E557" s="10">
+      <c r="E557" s="1">
         <f t="shared" si="32"/>
         <v>6.6666666666652281E-3</v>
       </c>
@@ -12438,7 +12419,7 @@
       <c r="D558" s="1">
         <v>0.50000000000010902</v>
       </c>
-      <c r="E558" s="10">
+      <c r="E558" s="1">
         <f t="shared" si="32"/>
         <v>6.7999999999985173E-3</v>
       </c>
@@ -12459,7 +12440,7 @@
       <c r="D559" s="1">
         <v>0.49000000000012001</v>
       </c>
-      <c r="E559" s="10">
+      <c r="E559" s="1">
         <f t="shared" si="32"/>
         <v>6.9387755102023815E-3</v>
       </c>
@@ -12480,7 +12461,7 @@
       <c r="D560" s="1">
         <v>0.480000000000119</v>
       </c>
-      <c r="E560" s="10">
+      <c r="E560" s="1">
         <f t="shared" si="32"/>
         <v>7.0833333333315766E-3</v>
       </c>
@@ -12501,7 +12482,7 @@
       <c r="D561" s="1">
         <v>0.47000000000011999</v>
       </c>
-      <c r="E561" s="10">
+      <c r="E561" s="1">
         <f t="shared" si="32"/>
         <v>7.2340425531896421E-3</v>
       </c>
@@ -12522,7 +12503,7 @@
       <c r="D562" s="1">
         <v>0.46000000000011998</v>
       </c>
-      <c r="E562" s="10">
+      <c r="E562" s="1">
         <f t="shared" si="32"/>
         <v>7.3913043478241588E-3</v>
       </c>
@@ -12543,7 +12524,7 @@
       <c r="D563" s="1">
         <v>0.45000000000012003</v>
       </c>
-      <c r="E563" s="10">
+      <c r="E563" s="1">
         <f t="shared" si="32"/>
         <v>7.5555555555535401E-3</v>
       </c>
@@ -12564,7 +12545,7 @@
       <c r="D564" s="1">
         <v>0.44000000000011902</v>
       </c>
-      <c r="E564" s="10">
+      <c r="E564" s="1">
         <f t="shared" si="32"/>
         <v>7.7272727272706364E-3</v>
       </c>
@@ -12585,7 +12566,7 @@
       <c r="D565" s="1">
         <v>0.43000000000012001</v>
       </c>
-      <c r="E565" s="10">
+      <c r="E565" s="1">
         <f t="shared" si="32"/>
         <v>7.9069767441838391E-3</v>
       </c>
@@ -12606,7 +12587,7 @@
       <c r="D566" s="1">
         <v>0.42000000000012</v>
       </c>
-      <c r="E566" s="10">
+      <c r="E566" s="1">
         <f t="shared" si="32"/>
         <v>8.0952380952357822E-3</v>
       </c>
@@ -12627,7 +12608,7 @@
       <c r="D567" s="1">
         <v>0.41000000000011999</v>
       </c>
-      <c r="E567" s="10">
+      <c r="E567" s="1">
         <f t="shared" si="32"/>
         <v>8.2926829268268401E-3</v>
       </c>
@@ -12648,7 +12629,7 @@
       <c r="D568" s="1">
         <v>0.40000000000011898</v>
       </c>
-      <c r="E568" s="10">
+      <c r="E568" s="1">
         <f t="shared" si="32"/>
         <v>8.4999999999974714E-3</v>
       </c>
@@ -12669,7 +12650,7 @@
       <c r="D569" s="1">
         <v>0.39000000000011997</v>
       </c>
-      <c r="E569" s="10">
+      <c r="E569" s="1">
         <f t="shared" si="32"/>
         <v>8.7179487179460356E-3</v>
       </c>
@@ -12690,7 +12671,7 @@
       <c r="D570" s="1">
         <v>0.38000000000012002</v>
       </c>
-      <c r="E570" s="10">
+      <c r="E570" s="1">
         <f t="shared" si="32"/>
         <v>8.9473684210498051E-3</v>
       </c>
@@ -12711,7 +12692,7 @@
       <c r="D571" s="1">
         <v>0.37000000000012001</v>
       </c>
-      <c r="E571" s="10">
+      <c r="E571" s="1">
         <f t="shared" si="32"/>
         <v>9.1891891891862088E-3</v>
       </c>
@@ -12732,7 +12713,7 @@
       <c r="D572" s="1">
         <v>0.360000000000119</v>
       </c>
-      <c r="E572" s="10">
+      <c r="E572" s="1">
         <f t="shared" si="32"/>
         <v>9.444444444441322E-3</v>
       </c>
@@ -12753,7 +12734,7 @@
       <c r="D573" s="1">
         <v>0.35000000000011999</v>
       </c>
-      <c r="E573" s="10">
+      <c r="E573" s="1">
         <f t="shared" si="32"/>
         <v>9.7142857142823828E-3</v>
       </c>
@@ -12774,7 +12755,7 @@
       <c r="D574" s="1">
         <v>0.34000000000011998</v>
       </c>
-      <c r="E574" s="10">
+      <c r="E574" s="1">
         <f t="shared" si="32"/>
         <v>9.99999999999647E-3</v>
       </c>
@@ -12795,7 +12776,7 @@
       <c r="D575" s="1">
         <v>0.33000000000011998</v>
       </c>
-      <c r="E575" s="10">
+      <c r="E575" s="1">
         <f t="shared" si="32"/>
         <v>1.0303030303026556E-2</v>
       </c>
@@ -12816,7 +12797,7 @@
       <c r="D576" s="1">
         <v>0.32000000000011902</v>
       </c>
-      <c r="E576" s="10">
+      <c r="E576" s="1">
         <f t="shared" si="32"/>
         <v>1.0624999999996047E-2</v>
       </c>
@@ -12837,7 +12818,7 @@
       <c r="D577" s="1">
         <v>0.31000000000012001</v>
       </c>
-      <c r="E577" s="10">
+      <c r="E577" s="1">
         <f t="shared" si="32"/>
         <v>1.0967741935479624E-2</v>
       </c>
@@ -12858,7 +12839,7 @@
       <c r="D578" s="1">
         <v>0.30000000000012</v>
       </c>
-      <c r="E578" s="10">
+      <c r="E578" s="1">
         <f t="shared" si="32"/>
         <v>1.13333333333288E-2</v>
       </c>
@@ -12879,7 +12860,7 @@
       <c r="D579" s="1">
         <v>0.29000000000012</v>
       </c>
-      <c r="E579" s="10">
+      <c r="E579" s="1">
         <f t="shared" si="32"/>
         <v>1.1724137931029631E-2</v>
       </c>
@@ -12900,7 +12881,7 @@
       <c r="D580" s="1">
         <v>0.28000000000011899</v>
       </c>
-      <c r="E580" s="10">
+      <c r="E580" s="1">
         <f t="shared" si="32"/>
         <v>1.2142857142851982E-2</v>
       </c>
@@ -12921,7 +12902,7 @@
       <c r="D581" s="1">
         <v>0.27000000000011898</v>
       </c>
-      <c r="E581" s="10">
+      <c r="E581" s="1">
         <f t="shared" si="32"/>
         <v>1.2592592592587043E-2</v>
       </c>
@@ -12942,7 +12923,7 @@
       <c r="D582" s="1">
         <v>0.26000000000012002</v>
       </c>
-      <c r="E582" s="10">
+      <c r="E582" s="1">
         <f t="shared" si="32"/>
         <v>1.3076923076917039E-2</v>
       </c>
@@ -12963,7 +12944,7 @@
       <c r="D583" s="1">
         <v>0.25000000000012002</v>
       </c>
-      <c r="E583" s="10">
+      <c r="E583" s="1">
         <f t="shared" si="32"/>
         <v>1.359999999999347E-2</v>
       </c>
@@ -12984,7 +12965,7 @@
       <c r="D584" s="1">
         <v>0.24000000000012001</v>
       </c>
-      <c r="E584" s="10">
+      <c r="E584" s="1">
         <f t="shared" si="32"/>
         <v>1.4166666666659581E-2</v>
       </c>
@@ -13005,7 +12986,7 @@
       <c r="D585" s="1">
         <v>0.230000000000119</v>
       </c>
-      <c r="E585" s="10">
+      <c r="E585" s="1">
         <f t="shared" ref="E585:E607" si="36">$F$6/D585</f>
         <v>1.4782608695644526E-2</v>
       </c>
@@ -13026,7 +13007,7 @@
       <c r="D586" s="1">
         <v>0.22000000000011999</v>
       </c>
-      <c r="E586" s="10">
+      <c r="E586" s="1">
         <f t="shared" si="36"/>
         <v>1.5454545454537024E-2</v>
       </c>
@@ -13047,7 +13028,7 @@
       <c r="D587" s="1">
         <v>0.21000000000012001</v>
       </c>
-      <c r="E587" s="10">
+      <c r="E587" s="1">
         <f t="shared" si="36"/>
         <v>1.6190476190466936E-2</v>
       </c>
@@ -13068,7 +13049,7 @@
       <c r="D588" s="1">
         <v>0.20000000000012</v>
       </c>
-      <c r="E588" s="10">
+      <c r="E588" s="1">
         <f t="shared" si="36"/>
         <v>1.6999999999989798E-2</v>
       </c>
@@ -13089,7 +13070,7 @@
       <c r="D589" s="1">
         <v>0.19000000000011899</v>
       </c>
-      <c r="E589" s="10">
+      <c r="E589" s="1">
         <f t="shared" si="36"/>
         <v>1.7894736842094056E-2</v>
       </c>
@@ -13110,7 +13091,7 @@
       <c r="D590" s="1">
         <v>0.18000000000012001</v>
       </c>
-      <c r="E590" s="10">
+      <c r="E590" s="1">
         <f t="shared" si="36"/>
         <v>1.8888888888876295E-2</v>
       </c>
@@ -13131,7 +13112,7 @@
       <c r="D591" s="1">
         <v>0.17000000000012</v>
       </c>
-      <c r="E591" s="10">
+      <c r="E591" s="1">
         <f t="shared" si="36"/>
         <v>1.999999999998588E-2</v>
       </c>
@@ -13152,7 +13133,7 @@
       <c r="D592" s="1">
         <v>0.16000000000011999</v>
       </c>
-      <c r="E592" s="10">
+      <c r="E592" s="1">
         <f t="shared" si="36"/>
         <v>2.1249999999984063E-2</v>
       </c>
@@ -13173,7 +13154,7 @@
       <c r="D593" s="1">
         <v>0.15000000000011901</v>
       </c>
-      <c r="E593" s="10">
+      <c r="E593" s="1">
         <f t="shared" si="36"/>
         <v>2.2666666666648683E-2</v>
       </c>
@@ -13194,7 +13175,7 @@
       <c r="D594" s="1">
         <v>0.14000000000012</v>
       </c>
-      <c r="E594" s="10">
+      <c r="E594" s="1">
         <f t="shared" si="36"/>
         <v>2.4285714285693469E-2</v>
       </c>
@@ -13215,7 +13196,7 @@
       <c r="D595" s="1">
         <v>0.13000000000011999</v>
       </c>
-      <c r="E595" s="10">
+      <c r="E595" s="1">
         <f t="shared" si="36"/>
         <v>2.6153846153822012E-2</v>
       </c>
@@ -13236,7 +13217,7 @@
       <c r="D596" s="1">
         <v>0.12000000000012</v>
       </c>
-      <c r="E596" s="10">
+      <c r="E596" s="1">
         <f t="shared" si="36"/>
         <v>2.8333333333305E-2</v>
       </c>
@@ -13257,7 +13238,7 @@
       <c r="D597" s="1">
         <v>0.110000000000119</v>
       </c>
-      <c r="E597" s="10">
+      <c r="E597" s="1">
         <f t="shared" si="36"/>
         <v>3.0909090909057468E-2</v>
       </c>
@@ -13278,7 +13259,7 @@
       <c r="D598" s="1">
         <v>0.10000000000012001</v>
       </c>
-      <c r="E598" s="10">
+      <c r="E598" s="1">
         <f t="shared" si="36"/>
         <v>3.3999999999959195E-2</v>
       </c>
@@ -13299,7 +13280,7 @@
       <c r="D599" s="1">
         <v>9.0000000000119804E-2</v>
       </c>
-      <c r="E599" s="10">
+      <c r="E599" s="1">
         <f t="shared" si="36"/>
         <v>3.7777777777727485E-2</v>
       </c>
@@ -13320,7 +13301,7 @@
       <c r="D600" s="1">
         <v>8.0000000000120003E-2</v>
       </c>
-      <c r="E600" s="10">
+      <c r="E600" s="1">
         <f t="shared" si="36"/>
         <v>4.2499999999936248E-2</v>
       </c>
@@ -13341,7 +13322,7 @@
       <c r="D601" s="1">
         <v>7.00000000001193E-2</v>
       </c>
-      <c r="E601" s="10">
+      <c r="E601" s="1">
         <f t="shared" si="36"/>
         <v>4.857142857134579E-2</v>
       </c>
@@ -13362,7 +13343,7 @@
       <c r="D602" s="1">
         <v>6.0000000000119499E-2</v>
       </c>
-      <c r="E602" s="10">
+      <c r="E602" s="1">
         <f t="shared" si="36"/>
         <v>5.6666666666553803E-2</v>
       </c>
@@ -13383,7 +13364,7 @@
       <c r="D603" s="1">
         <v>5.0000000000119699E-2</v>
       </c>
-      <c r="E603" s="10">
+      <c r="E603" s="1">
         <f t="shared" si="36"/>
         <v>6.7999999999837205E-2</v>
       </c>
@@ -13404,7 +13385,7 @@
       <c r="D604" s="1">
         <v>4.0000000000119898E-2</v>
       </c>
-      <c r="E604" s="10">
+      <c r="E604" s="1">
         <f t="shared" si="36"/>
         <v>8.499999999974521E-2</v>
       </c>
@@ -13425,7 +13406,7 @@
       <c r="D605" s="1">
         <v>3.0000000000119299E-2</v>
       </c>
-      <c r="E605" s="10">
+      <c r="E605" s="1">
         <f t="shared" si="36"/>
         <v>0.11333333333288265</v>
       </c>
@@ -13446,7 +13427,7 @@
       <c r="D606" s="1">
         <v>2.0000000000129199E-2</v>
       </c>
-      <c r="E606" s="10">
+      <c r="E606" s="1">
         <f t="shared" si="36"/>
         <v>0.16999999999890181</v>
       </c>
@@ -13467,7 +13448,7 @@
       <c r="D607" s="1">
         <v>1.0000000000129501E-2</v>
       </c>
-      <c r="E607" s="10">
+      <c r="E607" s="1">
         <f t="shared" si="36"/>
         <v>0.33999999999559694</v>
       </c>
@@ -13496,14 +13477,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11AFDFB-30EA-4EFD-BE21-A5C5DCB81B95}">
-  <dimension ref="B2:AA147"/>
+  <dimension ref="B2:Z147"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N76" sqref="G76:N77"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
@@ -13521,33 +13503,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="13"/>
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="13"/>
       <c r="I2">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -17770,7 +17752,7 @@
         <v>4.2751726849346028E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D97" s="3">
         <v>92</v>
       </c>
@@ -17816,7 +17798,7 @@
         <v>4.5723273093365435E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D98" s="3">
         <v>93</v>
       </c>
@@ -17862,7 +17844,7 @@
         <v>4.9282619830925967E-3</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D99" s="3">
         <v>94</v>
       </c>
@@ -17908,7 +17890,7 @@
         <v>5.366376017661878E-3</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D100" s="3">
         <v>95</v>
       </c>
@@ -17954,7 +17936,7 @@
         <v>5.92568750096234E-3</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D101" s="3">
         <v>96</v>
       </c>
@@ -18000,7 +17982,7 @@
         <v>6.6774740933865928E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D102" s="3">
         <v>97</v>
       </c>
@@ -18045,10 +18027,10 @@
         <f t="shared" si="20"/>
         <v>7.7704518561620972E-3</v>
       </c>
-      <c r="T102" s="9"/>
-      <c r="U102" s="9"/>
-    </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+    </row>
+    <row r="103" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D103" s="3">
         <v>98</v>
       </c>
@@ -18093,10 +18075,10 @@
         <f t="shared" si="20"/>
         <v>9.5892648343252063E-3</v>
       </c>
-      <c r="T103" s="9"/>
-      <c r="U103" s="9"/>
-    </row>
-    <row r="104" spans="2:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+    </row>
+    <row r="104" spans="2:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="3">
         <v>99</v>
       </c>
@@ -18141,14 +18123,14 @@
         <f t="shared" si="20"/>
         <v>1.3659389036446257E-2</v>
       </c>
-      <c r="T104" s="9"/>
-      <c r="U104" s="9"/>
-    </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="T105" s="9"/>
-      <c r="U105" s="9"/>
-    </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+    </row>
+    <row r="105" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+    </row>
+    <row r="106" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F106" s="5" t="s">
         <v>31</v>
       </c>
@@ -18161,10 +18143,10 @@
       <c r="L106" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U106" s="9"/>
-      <c r="V106" s="9"/>
-    </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="U106" s="8"/>
+      <c r="V106" s="8"/>
+    </row>
+    <row r="107" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>87</v>
       </c>
@@ -18198,21 +18180,17 @@
       <c r="N107" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q107" s="11"/>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11"/>
-      <c r="U107" s="11"/>
-      <c r="V107" s="8"/>
-      <c r="W107" s="11"/>
-      <c r="X107" s="11"/>
-      <c r="Y107" s="11"/>
-      <c r="Z107" s="11"/>
-      <c r="AA107" s="8"/>
-    </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="5"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+    </row>
+    <row r="108" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D108" s="6">
         <v>0</v>
       </c>
@@ -18234,19 +18212,9 @@
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="M108" s="5"/>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="8"/>
-      <c r="S108" s="8"/>
-      <c r="T108" s="8"/>
-      <c r="U108" s="8"/>
-      <c r="V108" s="8"/>
-      <c r="W108" s="8"/>
-      <c r="X108" s="8"/>
-      <c r="Y108" s="8"/>
-      <c r="Z108" s="8"/>
-      <c r="AA108" s="8"/>
-    </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q108" s="5"/>
+    </row>
+    <row r="109" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>1</v>
       </c>
@@ -18290,23 +18258,13 @@
         <f>M109*60</f>
         <v>663.07129929312282</v>
       </c>
-      <c r="Q109" s="11"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="8"/>
-      <c r="W109" s="8"/>
-      <c r="X109" s="8"/>
-      <c r="Y109" s="8"/>
-      <c r="Z109" s="8"/>
-      <c r="AA109" s="8"/>
-    </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B110" s="20" t="s">
+      <c r="Q109" s="5"/>
+    </row>
+    <row r="110" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D110">
@@ -18352,23 +18310,13 @@
         <f t="shared" ref="N110:N123" si="53">M110*60</f>
         <v>607.58382738784621</v>
       </c>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="8"/>
-      <c r="W110" s="8"/>
-      <c r="X110" s="8"/>
-      <c r="Y110" s="8"/>
-      <c r="Z110" s="8"/>
-      <c r="AA110" s="8"/>
-    </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B111" s="20">
+      <c r="Q110" s="5"/>
+    </row>
+    <row r="111" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="C111" s="20">
+      <c r="C111" s="1">
         <v>6</v>
       </c>
       <c r="D111">
@@ -18414,19 +18362,9 @@
         <f t="shared" si="53"/>
         <v>563.2014941332726</v>
       </c>
-      <c r="Q111" s="11"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="8"/>
-      <c r="V111" s="8"/>
-      <c r="W111" s="8"/>
-      <c r="X111" s="8"/>
-      <c r="Y111" s="8"/>
-      <c r="Z111" s="8"/>
-      <c r="AA111" s="8"/>
-    </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q111" s="5"/>
+    </row>
+    <row r="112" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>4</v>
       </c>
@@ -18470,19 +18408,9 @@
         <f t="shared" si="53"/>
         <v>523.7650544690631</v>
       </c>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="8"/>
-      <c r="S112" s="8"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="8"/>
-      <c r="V112" s="8"/>
-      <c r="W112" s="8"/>
-      <c r="X112" s="8"/>
-      <c r="Y112" s="8"/>
-      <c r="Z112" s="8"/>
-      <c r="AA112" s="8"/>
-    </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q112" s="5"/>
+    </row>
+    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>75</v>
       </c>
@@ -18532,19 +18460,9 @@
         <f t="shared" si="53"/>
         <v>488.40349266884391</v>
       </c>
-      <c r="Q113" s="11"/>
-      <c r="R113" s="8"/>
-      <c r="S113" s="8"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="8"/>
-      <c r="V113" s="8"/>
-      <c r="W113" s="8"/>
-      <c r="X113" s="8"/>
-      <c r="Y113" s="8"/>
-      <c r="Z113" s="8"/>
-      <c r="AA113" s="8"/>
-    </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q113" s="5"/>
+    </row>
+    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>73</v>
       </c>
@@ -18594,20 +18512,9 @@
         <f t="shared" si="53"/>
         <v>456.53551570709516</v>
       </c>
-      <c r="Q114" s="8"/>
-      <c r="R114" s="8"/>
-      <c r="S114" s="8"/>
-      <c r="T114" s="8"/>
-      <c r="U114" s="8"/>
-      <c r="V114" s="8"/>
-      <c r="W114" s="8"/>
-      <c r="X114" s="8"/>
-      <c r="Y114" s="8"/>
-      <c r="Z114" s="8"/>
-      <c r="AA114" s="8"/>
-    </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B115" s="14" t="s">
+    </row>
+    <row r="115" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B115" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C115">
@@ -18657,19 +18564,16 @@
         <f t="shared" si="53"/>
         <v>427.70224697013606</v>
       </c>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11"/>
-      <c r="U115" s="11"/>
-      <c r="V115" s="11"/>
-      <c r="W115" s="11"/>
-      <c r="X115" s="11"/>
-      <c r="Y115" s="8"/>
-      <c r="Z115" s="8"/>
-      <c r="AA115" s="8"/>
-    </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5"/>
+      <c r="V115" s="5"/>
+      <c r="W115" s="5"/>
+      <c r="X115" s="5"/>
+    </row>
+    <row r="116" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C116" s="4"/>
       <c r="D116">
         <v>8</v>
@@ -18714,19 +18618,9 @@
         <f t="shared" si="53"/>
         <v>401.52456626603509</v>
       </c>
-      <c r="Q116" s="11"/>
-      <c r="R116" s="8"/>
-      <c r="S116" s="8"/>
-      <c r="T116" s="8"/>
-      <c r="U116" s="8"/>
-      <c r="V116" s="8"/>
-      <c r="W116" s="8"/>
-      <c r="X116" s="8"/>
-      <c r="Y116" s="8"/>
-      <c r="Z116" s="8"/>
-      <c r="AA116" s="8"/>
-    </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q116" s="5"/>
+    </row>
+    <row r="117" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>71</v>
       </c>
@@ -18777,23 +18671,13 @@
         <f t="shared" si="53"/>
         <v>377.68334035981712</v>
       </c>
-      <c r="Q117" s="11"/>
-      <c r="R117" s="8"/>
-      <c r="S117" s="8"/>
-      <c r="T117" s="8"/>
-      <c r="U117" s="8"/>
-      <c r="V117" s="8"/>
-      <c r="W117" s="8"/>
-      <c r="X117" s="8"/>
-      <c r="Y117" s="8"/>
-      <c r="Z117" s="8"/>
-      <c r="AA117" s="8"/>
-    </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B118" s="14" t="s">
+      <c r="Q117" s="5"/>
+    </row>
+    <row r="118" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B118" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118">
         <f>1/(2*3.1416*C117*C115)</f>
         <v>4524.4003219536035</v>
       </c>
@@ -18840,19 +18724,9 @@
         <f t="shared" si="53"/>
         <v>355.90710220700169</v>
       </c>
-      <c r="Q118" s="11"/>
-      <c r="R118" s="8"/>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="8"/>
-      <c r="V118" s="8"/>
-      <c r="W118" s="8"/>
-      <c r="X118" s="8"/>
-      <c r="Y118" s="8"/>
-      <c r="Z118" s="8"/>
-      <c r="AA118" s="8"/>
-    </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q118" s="5"/>
+    </row>
+    <row r="119" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>11</v>
       </c>
@@ -18896,20 +18770,10 @@
         <f t="shared" si="53"/>
         <v>335.96324280161411</v>
       </c>
-      <c r="Q119" s="11"/>
-      <c r="R119" s="8"/>
-      <c r="S119" s="8"/>
-      <c r="T119" s="8"/>
-      <c r="U119" s="8"/>
-      <c r="V119" s="8"/>
-      <c r="W119" s="8"/>
-      <c r="X119" s="8"/>
-      <c r="Y119" s="8"/>
-      <c r="Z119" s="8"/>
-      <c r="AA119" s="8"/>
-    </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B120" s="14" t="s">
+      <c r="Q119" s="5"/>
+    </row>
+    <row r="120" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B120" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C120">
@@ -18958,23 +18822,13 @@
         <f t="shared" si="53"/>
         <v>317.65129366407467</v>
       </c>
-      <c r="Q120" s="11"/>
-      <c r="R120" s="8"/>
-      <c r="S120" s="8"/>
-      <c r="T120" s="8"/>
-      <c r="U120" s="8"/>
-      <c r="V120" s="8"/>
-      <c r="W120" s="8"/>
-      <c r="X120" s="8"/>
-      <c r="Y120" s="8"/>
-      <c r="Z120" s="8"/>
-      <c r="AA120" s="8"/>
-    </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q120" s="5"/>
+    </row>
+    <row r="121" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>74</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121">
         <f>(C118 *C120)/SQRT(POWER(C114,2)+POWER(C118,2))</f>
         <v>2.7993163294027559</v>
       </c>
@@ -19021,19 +18875,9 @@
         <f t="shared" si="53"/>
         <v>300.79763002082251</v>
       </c>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="8"/>
-      <c r="S121" s="8"/>
-      <c r="T121" s="8"/>
-      <c r="U121" s="8"/>
-      <c r="V121" s="8"/>
-      <c r="W121" s="8"/>
-      <c r="X121" s="8"/>
-      <c r="Y121" s="8"/>
-      <c r="Z121" s="8"/>
-      <c r="AA121" s="8"/>
-    </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q121" s="5"/>
+    </row>
+    <row r="122" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>14</v>
       </c>
@@ -19077,19 +18921,8 @@
         <f t="shared" si="53"/>
         <v>285.25121234226867</v>
       </c>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="8"/>
-      <c r="S122" s="8"/>
-      <c r="T122" s="8"/>
-      <c r="U122" s="8"/>
-      <c r="V122" s="8"/>
-      <c r="W122" s="8"/>
-      <c r="X122" s="8"/>
-      <c r="Y122" s="8"/>
-      <c r="Z122" s="8"/>
-      <c r="AA122" s="8"/>
-    </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>77</v>
       </c>
@@ -19140,130 +18973,162 @@
         <f t="shared" si="53"/>
         <v>270.88011870307713</v>
       </c>
-      <c r="Q123" s="8"/>
-      <c r="R123" s="8"/>
-      <c r="S123" s="8"/>
-      <c r="T123" s="8"/>
-      <c r="U123" s="8"/>
-      <c r="V123" s="8"/>
-      <c r="W123" s="8"/>
-      <c r="X123" s="8"/>
-      <c r="Y123" s="8"/>
-      <c r="Z123" s="8"/>
-      <c r="AA123" s="8"/>
-    </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="J124" s="5"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="8"/>
-      <c r="S124" s="8"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="8"/>
-      <c r="V124" s="8"/>
-      <c r="W124" s="8"/>
-      <c r="X124" s="8"/>
-      <c r="Y124" s="8"/>
-      <c r="Z124" s="8"/>
-      <c r="AA124" s="8"/>
-    </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>75</v>
+      </c>
+      <c r="C127">
+        <v>1000</v>
+      </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>73</v>
+      </c>
+      <c r="C128">
+        <v>100</v>
+      </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C129">
+        <f>1/(2*3.1416*C128*C127)</f>
+        <v>1.5915457091927682E-6</v>
+      </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C130" s="4"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131">
+        <f>M123</f>
+        <v>4.5146686450512856</v>
+      </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C132">
+        <f>1/(2*3.1416*C131*C129)</f>
+        <v>22150.019826951</v>
+      </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
     </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
     </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C134">
+        <v>2.8</v>
+      </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
     </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135">
+        <f>(C132 *C134)/SQRT(POWER(C128,2)+POWER(C132,2))</f>
+        <v>2.7999714653100352</v>
+      </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>77</v>
+      </c>
+      <c r="C137">
+        <f>SQRT(POWER(C128,2)+POWER(C132,2))</f>
+        <v>22150.245559233026</v>
+      </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
     </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
     </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
@@ -19300,8 +19165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BDFF7-A03C-4436-BDC7-9DE4C8404CC4}">
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19315,12 +19180,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
@@ -19331,10 +19196,10 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4">
         <v>9.68</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4">
         <v>0.99</v>
       </c>
     </row>
@@ -19359,16 +19224,16 @@
       <c r="H6">
         <v>2.56</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6">
         <v>2.56</v>
       </c>
-      <c r="J6" s="17"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7">
         <v>9</v>
       </c>
       <c r="I7">
@@ -19387,7 +19252,7 @@
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8">
         <v>14</v>
       </c>
       <c r="I8">
@@ -19535,8 +19400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1AC376-52B3-4B27-BBC6-391D349B9994}">
   <dimension ref="F4:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="168" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19550,10 +19415,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="13"/>
       <c r="H4">
         <v>72000000</v>
       </c>
@@ -19823,7 +19688,7 @@
   <dimension ref="C10:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19947,7 +19812,7 @@
         <f>SIN(RADIANS(E6))</f>
         <v>1.7453283658983088E-3</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="10">
         <f>COS(RADIANS(E6))</f>
         <v>0.99999847691328769</v>
       </c>
@@ -19963,7 +19828,7 @@
         <f t="shared" ref="L6:L17" si="1">F6-B6</f>
         <v>1.7453283658983088E-3</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="10">
         <f t="shared" ref="M6:M17" si="2">G6-C6</f>
         <v>-1.5230867123072755E-6</v>
       </c>
@@ -20016,7 +19881,7 @@
         <f t="shared" si="1"/>
         <v>1.7385541187833475E-3</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="11">
         <f t="shared" si="2"/>
         <v>-1.5363268097601246E-4</v>
       </c>
@@ -20261,7 +20126,7 @@
         <f t="shared" si="0"/>
         <v>90.1</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="10">
         <f t="shared" ref="F12:F17" si="14">SIN(RADIANS(E12))</f>
         <v>0.99999847691328769</v>
       </c>
@@ -20277,7 +20142,7 @@
         <f t="shared" si="6"/>
         <v>-1.1999999999999999E-3</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="10">
         <f t="shared" si="1"/>
         <v>-1.5230867123072755E-6</v>
       </c>
@@ -20546,7 +20411,7 @@
         <f t="shared" si="1"/>
         <v>-1.7388196102905984E-3</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="11">
         <f t="shared" si="2"/>
         <v>-1.5059809916084799E-4</v>
       </c>
@@ -20564,60 +20429,60 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="I18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="I18" s="10"/>
+      <c r="N18" s="10"/>
     </row>
     <row r="22" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="G22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="G22" s="10"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M23" s="16"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="25" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M25" s="16"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="27" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M27" s="16"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="29" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M29" s="16"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="31" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M31" s="16"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="33" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M33" s="16"/>
+      <c r="M33" s="11"/>
     </row>
     <row r="35" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M35" s="16"/>
+      <c r="M35" s="11"/>
     </row>
     <row r="37" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M37" s="16"/>
+      <c r="M37" s="11"/>
     </row>
     <row r="39" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M39" s="16"/>
+      <c r="M39" s="11"/>
     </row>
     <row r="41" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M41" s="16"/>
+      <c r="M41" s="11"/>
     </row>
     <row r="43" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M43" s="16"/>
+      <c r="M43" s="11"/>
     </row>
     <row r="46" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M46" s="16"/>
+      <c r="M46" s="11"/>
     </row>
     <row r="49" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M49" s="16"/>
+      <c r="M49" s="11"/>
     </row>
     <row r="52" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M52" s="16"/>
+      <c r="M52" s="11"/>
     </row>
     <row r="55" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M55" s="16"/>
+      <c r="M55" s="11"/>
     </row>
     <row r="58" spans="13:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="M58" s="16"/>
+      <c r="M58" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
